--- a/設計書課題　OBM村山.xlsx
+++ b/設計書課題　OBM村山.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15105" windowHeight="12900" tabRatio="930" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18591" windowHeight="8974" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="443">
   <si>
     <t>設計書課題について</t>
   </si>
@@ -364,7 +364,7 @@
     <t>ユーザーテーブル</t>
   </si>
   <si>
-    <t>M USER</t>
+    <t>M_USER</t>
   </si>
   <si>
     <t>ユーザー情報を保有するマスタテーブル</t>
@@ -373,633 +373,642 @@
     <t>買い物テーブル</t>
   </si>
   <si>
+    <t>M_PRODUCT</t>
+  </si>
+  <si>
+    <t>買い物のデータを保有するマスタテーブル</t>
+  </si>
+  <si>
+    <t>在庫テーブル</t>
+  </si>
+  <si>
+    <t>PRODUCT_DETAIL</t>
+  </si>
+  <si>
+    <t>今までの買い物を編集する子テーブル</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>物理名（カラム名）</t>
+  </si>
+  <si>
+    <t>論理名（項目名）</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>USER ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>USER NAME</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>AUTHORITY</t>
+  </si>
+  <si>
+    <t>権限</t>
+  </si>
+  <si>
+    <t>BOOLEN</t>
+  </si>
+  <si>
+    <t>0：GENERAL(全般)　１：ADMIN(管理者)</t>
+  </si>
+  <si>
+    <t>DLETE FLAG</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>0：有効　１：無効</t>
+  </si>
+  <si>
+    <t>PRODUCT ID</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>M_PRODUCT.PRODUCT_ID を参照（FK）</t>
+  </si>
+  <si>
+    <t>TRADE ID</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>TRADE NAME</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>INVENTORY ID</t>
+  </si>
+  <si>
+    <t>在庫ID</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>値段</t>
+  </si>
+  <si>
+    <t>INT(20)</t>
+  </si>
+  <si>
+    <t>PLICE</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>在庫数</t>
+  </si>
+  <si>
+    <t>コピー用</t>
+  </si>
+  <si>
+    <t>「ログイン」ボタン</t>
+  </si>
+  <si>
+    <t>「新規登録」ボタン</t>
+  </si>
+  <si>
+    <t>「登録」ボタン</t>
+  </si>
+  <si>
+    <t>「履歴」ボタン</t>
+  </si>
+  <si>
+    <t>「在庫」ボタン</t>
+  </si>
+  <si>
+    <t>「ユーザー情報」ボタン</t>
+  </si>
+  <si>
+    <t>「ユーザー一覧」ボタン</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>＊＊＊＊＊＊＊＊＊</t>
+  </si>
+  <si>
+    <t>　ログイン</t>
+  </si>
+  <si>
+    <t>　新規登録</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>コントロール</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>制約・チェック内容</t>
+  </si>
+  <si>
+    <t>frmLogin</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>txtUserName</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>ユーザー名を入力</t>
+  </si>
+  <si>
+    <t>20文字まで</t>
+  </si>
+  <si>
+    <t>未入力チェック</t>
+  </si>
+  <si>
+    <t>ユーザー名（ラベル）</t>
+  </si>
+  <si>
+    <t>lblUserName</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
+  </si>
+  <si>
+    <t>パスワードを入力</t>
+  </si>
+  <si>
+    <t>20文字まで、「＊」で入力される。</t>
+  </si>
+  <si>
+    <t>半角英数入力、未入力チェック</t>
+  </si>
+  <si>
+    <t>パスワード（ラベル）</t>
+  </si>
+  <si>
+    <t>lblPassword</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>btnLogin</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>メニュー画面へ移動</t>
+  </si>
+  <si>
+    <t>新規登録</t>
+  </si>
+  <si>
+    <t>btnRegister</t>
+  </si>
+  <si>
+    <t>新規登録画面に移動</t>
+  </si>
+  <si>
+    <t>メニュー画面設計</t>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+  </si>
+  <si>
+    <t>買い物管理アプリ</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>履歴</t>
+  </si>
+  <si>
+    <t>在庫</t>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+  </si>
+  <si>
+    <t>ユーザー一覧</t>
+  </si>
+  <si>
+    <t>FrmMenu</t>
+  </si>
+  <si>
+    <t>lblTredeName</t>
+  </si>
+  <si>
+    <t>買い物登録画面に移動</t>
+  </si>
+  <si>
+    <t>btnHistory</t>
+  </si>
+  <si>
+    <t>買い物履歴画面に移動</t>
+  </si>
+  <si>
+    <t>btnStock</t>
+  </si>
+  <si>
+    <t>在庫リスト画面に移動</t>
+  </si>
+  <si>
+    <t>btnUserInfo</t>
+  </si>
+  <si>
+    <t>ユーザー情報画面に移動</t>
+  </si>
+  <si>
+    <t>btnUserList</t>
+  </si>
+  <si>
+    <t>ユーザー一覧画面に移動</t>
+  </si>
+  <si>
+    <t>買い物登録画面</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>frmRegister</t>
+  </si>
+  <si>
+    <t>商品名（ラベル）</t>
+  </si>
+  <si>
+    <t>lblTradeName</t>
+  </si>
+  <si>
+    <t>txtTradeName</t>
+  </si>
+  <si>
+    <t>商品名を入力</t>
+  </si>
+  <si>
+    <t>金額（ラベル）</t>
+  </si>
+  <si>
+    <t>lblMoney</t>
+  </si>
+  <si>
+    <t>txtMoney</t>
+  </si>
+  <si>
+    <t>金額を入力</t>
+  </si>
+  <si>
+    <t>場所（ラベル）</t>
+  </si>
+  <si>
+    <t>lblPlace</t>
+  </si>
+  <si>
+    <t>txtPlace</t>
+  </si>
+  <si>
+    <t>場所を入力</t>
+  </si>
+  <si>
+    <t>日付（ラベル）</t>
+  </si>
+  <si>
+    <t>lblDate</t>
+  </si>
+  <si>
+    <t>dtpDate</t>
+  </si>
+  <si>
+    <t>DateTimePicker</t>
+  </si>
+  <si>
+    <t>日付を入力</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>買い物テーブルと在庫テーブルに登録される。</t>
+  </si>
+  <si>
+    <t>買い物履歴画面</t>
+  </si>
+  <si>
+    <t>買い物日付</t>
+  </si>
+  <si>
+    <t>XXXX/XX/XX</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>frmShoppingHistory</t>
+  </si>
+  <si>
+    <t>買い物日付（ラベル）</t>
+  </si>
+  <si>
+    <t>lblShoppingDate</t>
+  </si>
+  <si>
+    <t>dtpShoppingDate</t>
+  </si>
+  <si>
+    <t>初期値は現在の日付</t>
+  </si>
+  <si>
+    <t>btnSearch</t>
+  </si>
+  <si>
+    <t>dtpに入力された日付の買い物を表示</t>
+  </si>
+  <si>
+    <t>履歴にない日付チェック</t>
+  </si>
+  <si>
+    <t>dgvHistory</t>
+  </si>
+  <si>
+    <t>DateGridView</t>
+  </si>
+  <si>
+    <t>在庫リスト画面</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>frmInventory</t>
+  </si>
+  <si>
+    <t>在庫リスト</t>
+  </si>
+  <si>
+    <t>dgvInventory</t>
+  </si>
+  <si>
+    <t>日付の降順に商品を表示</t>
+  </si>
+  <si>
+    <t>チェックボックスの未入力チェック</t>
+  </si>
+  <si>
+    <t>btnDelete</t>
+  </si>
+  <si>
+    <t>チェックボックスで選択された商品を削除</t>
+  </si>
+  <si>
+    <t>ログイン画面詳細設計</t>
+  </si>
+  <si>
+    <t>１．初期表示</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>２．ログインボタン</t>
+  </si>
+  <si>
+    <t>2-1　ログイン検証</t>
+  </si>
+  <si>
+    <t>・データベースに先にinsertしたユーザー名とパスワードを入力し検証する。</t>
+  </si>
+  <si>
+    <t>TANAKA　TAROU</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t>(半角英数字で入力)</t>
+  </si>
+  <si>
+    <t>2-1-1　該当するユーザー名またはパスワードがない場合、エラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>MsesageBox　</t>
+  </si>
+  <si>
+    <t>引数１：</t>
+  </si>
+  <si>
+    <t>”ユーザー名またはパスワードが入力されていません。”</t>
+  </si>
+  <si>
+    <t>2-1-2　該当するユーザー名とパスワードが一致した場合、メニュー画面に遷移する。</t>
+  </si>
+  <si>
+    <t>・メニュー画面に引数を受け渡す。</t>
+  </si>
+  <si>
+    <t>2-2　入力チェック</t>
+  </si>
+  <si>
+    <t>・ユーザー名またはパスワードが未入力の場合、エラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>3.　新規登録ボタン</t>
+  </si>
+  <si>
+    <t>新規登録画面に遷移する。</t>
+  </si>
+  <si>
+    <t>メニュー画面詳細設計</t>
+  </si>
+  <si>
+    <t>１.　初期表示</t>
+  </si>
+  <si>
+    <t>２．登録ボタン</t>
+  </si>
+  <si>
+    <t>買い物登録画面に遷移する。</t>
+  </si>
+  <si>
+    <t>３．履歴ボタン</t>
+  </si>
+  <si>
+    <t>買い物履歴画面に遷移する。</t>
+  </si>
+  <si>
+    <t>４．在庫ボタン</t>
+  </si>
+  <si>
+    <t>在庫リスト画面に遷移する。</t>
+  </si>
+  <si>
+    <t>５．ユーザー情報ボタン</t>
+  </si>
+  <si>
+    <t>ユーザー情報画面に遷移する。</t>
+  </si>
+  <si>
+    <t>６．ユーザー一覧ボタン</t>
+  </si>
+  <si>
+    <t>ユーザー一覧画面に遷移する。</t>
+  </si>
+  <si>
+    <t>買い物登録詳細設計</t>
+  </si>
+  <si>
+    <t>1.初期表示</t>
+  </si>
+  <si>
+    <t>2.登録ボタン</t>
+  </si>
+  <si>
+    <t>2-1 エラー表示検証</t>
+  </si>
+  <si>
+    <t>2-1-1 テキストボックスに空白がある場合、エラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>MessageBox</t>
+  </si>
+  <si>
+    <t>”空白があります。”</t>
+  </si>
+  <si>
+    <t>引数２：</t>
+  </si>
+  <si>
+    <t>”エラー”</t>
+  </si>
+  <si>
+    <t>2-1-2 テキストボックスに空白がない場合、OKメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>”登録しました。”</t>
+  </si>
+  <si>
+    <t>”登録完了”</t>
+  </si>
+  <si>
+    <t>買い物履歴詳細設計</t>
+  </si>
+  <si>
+    <t>1. 初期画面</t>
+  </si>
+  <si>
+    <t>買い物日付DateTimePickerが現在の日付を表示。</t>
+  </si>
+  <si>
+    <t>2. 検索ボタン</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>2-1 データベースにない日付を入れた場合、エラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>Mesaegebox</t>
+  </si>
+  <si>
+    <t>"データが存在しません。"</t>
+  </si>
+  <si>
+    <t>”日付不明”</t>
+  </si>
+  <si>
+    <t>2-2 データベースに存在する日付が入力された場合、買い物データを表示する。</t>
+  </si>
+  <si>
+    <t>・買い物履歴画面に引数を受け渡す。</t>
+  </si>
+  <si>
+    <t>2-3 入力された日付をM PRODUCTテーブルから検索し存在するかチェックする。</t>
+  </si>
+  <si>
+    <t>対象テーブル：</t>
+  </si>
+  <si>
     <t>M PRODUCT</t>
   </si>
   <si>
-    <t>買い物のデータを保有するマスタテーブル</t>
-  </si>
-  <si>
-    <t>在庫テーブル</t>
-  </si>
-  <si>
-    <t>PRODUCT DETAIL</t>
-  </si>
-  <si>
-    <t>今までの買い物を編集するテーブル</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>物理名（カラム名）</t>
-  </si>
-  <si>
-    <t>論理名（項目名）</t>
-  </si>
-  <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>USER ID</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>〇</t>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>USER NAME</t>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>AUTHORITY</t>
-  </si>
-  <si>
-    <t>権限</t>
-  </si>
-  <si>
-    <t>BOOLEN</t>
-  </si>
-  <si>
-    <t>0：GENERAL(全般)　１：ADMIN(管理者)</t>
-  </si>
-  <si>
-    <t>DLETE FLAG</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>0：有効　１：無効</t>
-  </si>
-  <si>
-    <t>PRODUCT ID</t>
-  </si>
-  <si>
-    <t>TRADE ID</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>TRADE NAME</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>値段</t>
-  </si>
-  <si>
-    <t>INT(20)</t>
-  </si>
-  <si>
-    <t>PLICE</t>
-  </si>
-  <si>
-    <t>場所</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>INVENTORY ID</t>
-  </si>
-  <si>
-    <t>在庫ID</t>
-  </si>
-  <si>
-    <t>INVENTORY</t>
-  </si>
-  <si>
-    <t>在庫数</t>
-  </si>
-  <si>
-    <t>コピー用</t>
-  </si>
-  <si>
-    <t>「ログイン」ボタン</t>
-  </si>
-  <si>
-    <t>「新規登録」ボタン</t>
-  </si>
-  <si>
-    <t>「登録」ボタン</t>
-  </si>
-  <si>
-    <t>「履歴」ボタン</t>
-  </si>
-  <si>
-    <t>「在庫」ボタン</t>
-  </si>
-  <si>
-    <t>「ユーザー情報」ボタン</t>
-  </si>
-  <si>
-    <t>「ユーザー一覧」ボタン</t>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
-    <t>＊＊＊＊＊＊＊＊＊</t>
-  </si>
-  <si>
-    <t>　ログイン</t>
-  </si>
-  <si>
-    <t>　新規登録</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>コントロール</t>
-  </si>
-  <si>
-    <t>表示</t>
-  </si>
-  <si>
-    <t>制約・チェック内容</t>
-  </si>
-  <si>
-    <t>frmLogin</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>txtUserName</t>
-  </si>
-  <si>
-    <t>Textbox</t>
-  </si>
-  <si>
-    <t>ユーザー名を入力</t>
-  </si>
-  <si>
-    <t>20文字まで</t>
-  </si>
-  <si>
-    <t>未入力チェック</t>
-  </si>
-  <si>
-    <t>ユーザー名（ラベル）</t>
-  </si>
-  <si>
-    <t>lblUserName</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>txtPassword</t>
-  </si>
-  <si>
-    <t>パスワードを入力</t>
-  </si>
-  <si>
-    <t>20文字まで、「＊」で入力される。</t>
-  </si>
-  <si>
-    <t>半角英数入力、未入力チェック</t>
-  </si>
-  <si>
-    <t>パスワード（ラベル）</t>
-  </si>
-  <si>
-    <t>lblPassword</t>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>btnLogin</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>メニュー画面へ移動</t>
-  </si>
-  <si>
-    <t>新規登録</t>
-  </si>
-  <si>
-    <t>btnRegister</t>
-  </si>
-  <si>
-    <t>新規登録画面に移動</t>
-  </si>
-  <si>
-    <t>メニュー画面設計</t>
-  </si>
-  <si>
-    <t>メニュー画面</t>
-  </si>
-  <si>
-    <t>買い物管理アプリ</t>
-  </si>
-  <si>
-    <t>登録</t>
-  </si>
-  <si>
-    <t>履歴</t>
-  </si>
-  <si>
-    <t>在庫</t>
-  </si>
-  <si>
-    <t>ユーザー情報</t>
-  </si>
-  <si>
-    <t>ユーザー一覧</t>
-  </si>
-  <si>
-    <t>FrmMenu</t>
-  </si>
-  <si>
-    <t>lblTredeName</t>
-  </si>
-  <si>
-    <t>買い物登録画面に移動</t>
-  </si>
-  <si>
-    <t>btnHistory</t>
-  </si>
-  <si>
-    <t>買い物履歴画面に移動</t>
-  </si>
-  <si>
-    <t>btnStock</t>
-  </si>
-  <si>
-    <t>在庫リスト画面に移動</t>
-  </si>
-  <si>
-    <t>btnUserInfo</t>
-  </si>
-  <si>
-    <t>ユーザー情報画面に移動</t>
-  </si>
-  <si>
-    <t>btnUserList</t>
-  </si>
-  <si>
-    <t>ユーザー一覧画面に移動</t>
-  </si>
-  <si>
-    <t>買い物登録画面</t>
-  </si>
-  <si>
-    <t>金額</t>
-  </si>
-  <si>
-    <t>frmRegister</t>
-  </si>
-  <si>
-    <t>商品名（ラベル）</t>
-  </si>
-  <si>
-    <t>lblTradeName</t>
-  </si>
-  <si>
-    <t>txtTradeName</t>
-  </si>
-  <si>
-    <t>商品名を入力</t>
-  </si>
-  <si>
-    <t>金額（ラベル）</t>
-  </si>
-  <si>
-    <t>lblMoney</t>
-  </si>
-  <si>
-    <t>txtMoney</t>
-  </si>
-  <si>
-    <t>金額を入力</t>
-  </si>
-  <si>
-    <t>場所（ラベル）</t>
-  </si>
-  <si>
-    <t>lblPlace</t>
-  </si>
-  <si>
-    <t>txtPlace</t>
-  </si>
-  <si>
-    <t>場所を入力</t>
-  </si>
-  <si>
-    <t>日付（ラベル）</t>
-  </si>
-  <si>
-    <t>lblDate</t>
-  </si>
-  <si>
-    <t>dtpDate</t>
-  </si>
-  <si>
-    <t>DateTimePicker</t>
-  </si>
-  <si>
-    <t>日付を入力</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>買い物テーブルと在庫テーブルに登録される。</t>
-  </si>
-  <si>
-    <t>買い物履歴画面</t>
-  </si>
-  <si>
-    <t>買い物日付</t>
-  </si>
-  <si>
-    <t>XXXX/XX/XX</t>
-  </si>
-  <si>
-    <t>検索</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>frmShoppingHistory</t>
-  </si>
-  <si>
-    <t>買い物日付（ラベル）</t>
-  </si>
-  <si>
-    <t>lblShoppingDate</t>
-  </si>
-  <si>
-    <t>dtpShoppingDate</t>
-  </si>
-  <si>
-    <t>初期値は現在の日付</t>
-  </si>
-  <si>
-    <t>btnSearch</t>
-  </si>
-  <si>
-    <t>dtpに入力された日付の買い物を表示</t>
-  </si>
-  <si>
-    <t>履歴にない日付チェック</t>
-  </si>
-  <si>
-    <t>dgvHistory</t>
-  </si>
-  <si>
-    <t>DateGridView</t>
-  </si>
-  <si>
-    <t>在庫リスト画面</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>frmInventory</t>
-  </si>
-  <si>
-    <t>在庫リスト</t>
-  </si>
-  <si>
-    <t>dgvInventory</t>
-  </si>
-  <si>
-    <t>日付の降順に商品を表示</t>
-  </si>
-  <si>
-    <t>チェックボックスの未入力チェック</t>
-  </si>
-  <si>
-    <t>btnDelete</t>
-  </si>
-  <si>
-    <t>チェックボックスで選択された商品を削除</t>
-  </si>
-  <si>
-    <t>ログイン画面詳細設計</t>
-  </si>
-  <si>
-    <t>１．初期表示</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>２．ログインボタン</t>
-  </si>
-  <si>
-    <t>2-1　ログイン検証</t>
-  </si>
-  <si>
-    <t>・データベースに先にinsertしたユーザー名とパスワードを入力し検証する。</t>
-  </si>
-  <si>
-    <t>TANAKA　TAROU</t>
-  </si>
-  <si>
-    <t>abcd1234</t>
-  </si>
-  <si>
-    <t>(半角英数字で入力)</t>
-  </si>
-  <si>
-    <t>2-1-1　該当するユーザー名またはパスワードがない場合、エラーメッセージを表示する。</t>
-  </si>
-  <si>
-    <t>MsesageBox　</t>
-  </si>
-  <si>
-    <t>引数１：</t>
-  </si>
-  <si>
-    <t>”ユーザー名またはパスワードが入力されていません。”</t>
-  </si>
-  <si>
-    <t>2-1-2　該当するユーザー名とパスワードが一致した場合、メニュー画面に遷移する。</t>
-  </si>
-  <si>
-    <t>・メニュー画面に引数を受け渡す。</t>
-  </si>
-  <si>
-    <t>2-2　入力チェック</t>
-  </si>
-  <si>
-    <t>・ユーザー名またはパスワードが未入力の場合、エラーメッセージを表示する。</t>
-  </si>
-  <si>
-    <t>3.　新規登録ボタン</t>
-  </si>
-  <si>
-    <t>新規登録画面に遷移する。</t>
-  </si>
-  <si>
-    <t>メニュー画面詳細設計</t>
-  </si>
-  <si>
-    <t>１.　初期表示</t>
-  </si>
-  <si>
-    <t>２．登録ボタン</t>
-  </si>
-  <si>
-    <t>買い物登録画面に遷移する。</t>
-  </si>
-  <si>
-    <t>３．履歴ボタン</t>
-  </si>
-  <si>
-    <t>買い物履歴画面に遷移する。</t>
-  </si>
-  <si>
-    <t>４．在庫ボタン</t>
-  </si>
-  <si>
-    <t>在庫リスト画面に遷移する。</t>
-  </si>
-  <si>
-    <t>５．ユーザー情報ボタン</t>
-  </si>
-  <si>
-    <t>ユーザー情報画面に遷移する。</t>
-  </si>
-  <si>
-    <t>６．ユーザー一覧ボタン</t>
-  </si>
-  <si>
-    <t>ユーザー一覧画面に遷移する。</t>
-  </si>
-  <si>
-    <t>買い物登録詳細設計</t>
-  </si>
-  <si>
-    <t>1.初期表示</t>
-  </si>
-  <si>
-    <t>2.登録ボタン</t>
-  </si>
-  <si>
-    <t>2-1 エラー表示検証</t>
-  </si>
-  <si>
-    <t>2-1-1 テキストボックスに空白がある場合、エラーメッセージを表示する。</t>
-  </si>
-  <si>
-    <t>MessageBox</t>
-  </si>
-  <si>
-    <t>”空白があります。”</t>
-  </si>
-  <si>
-    <t>引数２：</t>
-  </si>
-  <si>
-    <t>”エラー”</t>
-  </si>
-  <si>
-    <t>2-1-2 テキストボックスに空白がない場合、OKメッセージを表示する。</t>
-  </si>
-  <si>
-    <t>”登録しました。”</t>
-  </si>
-  <si>
-    <t>”登録完了”</t>
-  </si>
-  <si>
-    <t>買い物履歴詳細設計</t>
-  </si>
-  <si>
-    <t>1. 初期画面</t>
-  </si>
-  <si>
-    <t>買い物日付DateTimePickerが現在の日付を表示。</t>
-  </si>
-  <si>
-    <t>2. 検索ボタン</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>2-1 データベースにない日付を入れた場合、エラーメッセージを表示する。</t>
-  </si>
-  <si>
-    <t>Mesaegebox</t>
-  </si>
-  <si>
-    <t>"データが存在しません。"</t>
-  </si>
-  <si>
-    <t>”日付不明”</t>
-  </si>
-  <si>
-    <t>2-2 データベースに存在する日付が入力された場合、買い物データを表示する。</t>
-  </si>
-  <si>
-    <t>・買い物履歴画面に引数を受け渡す。</t>
-  </si>
-  <si>
-    <t>2-3 入力された日付をM PRODUCTテーブルから検索し存在するかチェックする。</t>
-  </si>
-  <si>
-    <t>対象テーブル：</t>
-  </si>
-  <si>
     <t>条件：</t>
   </si>
   <si>
@@ -1045,22 +1054,13 @@
     <t>INVENTORY_CONTROL_DB</t>
   </si>
   <si>
-    <t>M_USER</t>
-  </si>
-  <si>
     <t>商品テーブル</t>
   </si>
   <si>
-    <t>M_PRODUCT</t>
-  </si>
-  <si>
     <t>商品情報を保有するマスタテーブル</t>
   </si>
   <si>
     <t>商品明細テーブル</t>
-  </si>
-  <si>
-    <t>PRODUCT_DETAIL</t>
   </si>
   <si>
     <t>商品明細情報を保有するテーブル</t>
@@ -2786,8 +2786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4937760" y="2771775"/>
-          <a:ext cx="320040" cy="447675"/>
+          <a:off x="4937760" y="2717165"/>
+          <a:ext cx="320040" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2840,8 +2840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4937760" y="3962400"/>
-          <a:ext cx="320040" cy="447675"/>
+          <a:off x="4937760" y="3885565"/>
+          <a:ext cx="320040" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2894,8 +2894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4937760" y="5153025"/>
-          <a:ext cx="320040" cy="447675"/>
+          <a:off x="4937760" y="5053965"/>
+          <a:ext cx="320040" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2948,8 +2948,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4937760" y="6343650"/>
-          <a:ext cx="320040" cy="447675"/>
+          <a:off x="4937760" y="6222365"/>
+          <a:ext cx="320040" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3002,8 +3002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="626745" y="2600325"/>
-          <a:ext cx="2406015" cy="904875"/>
+          <a:off x="626745" y="2550160"/>
+          <a:ext cx="2406015" cy="887095"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3060,8 +3060,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="6186170"/>
-          <a:ext cx="1485900" cy="1009015"/>
+          <a:off x="3048000" y="6069330"/>
+          <a:ext cx="1485900" cy="991235"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3109,8 +3109,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3048000" y="5974080"/>
-          <a:ext cx="1470660" cy="212090"/>
+          <a:off x="3048000" y="5861685"/>
+          <a:ext cx="1470660" cy="207645"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3156,8 +3156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="636270" y="3981450"/>
-          <a:ext cx="2329815" cy="885825"/>
+          <a:off x="636270" y="3904615"/>
+          <a:ext cx="2329815" cy="872490"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3219,8 +3219,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2966085" y="3676650"/>
-          <a:ext cx="1537335" cy="742950"/>
+          <a:off x="2966085" y="3608705"/>
+          <a:ext cx="1537335" cy="729615"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3271,8 +3271,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2966085" y="4419600"/>
-          <a:ext cx="1560195" cy="340995"/>
+          <a:off x="2966085" y="4338320"/>
+          <a:ext cx="1560195" cy="332105"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3323,8 +3323,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3048000" y="4783455"/>
-          <a:ext cx="1470660" cy="1402715"/>
+          <a:off x="3048000" y="4693285"/>
+          <a:ext cx="1470660" cy="1376045"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3372,8 +3372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3032760" y="2394585"/>
-          <a:ext cx="1485900" cy="657860"/>
+          <a:off x="3032760" y="2348865"/>
+          <a:ext cx="1485900" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3424,8 +3424,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3032760" y="3052445"/>
-          <a:ext cx="1463040" cy="548005"/>
+          <a:off x="3032760" y="2993390"/>
+          <a:ext cx="1463040" cy="539115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3474,8 +3474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4937760" y="7534275"/>
-          <a:ext cx="320040" cy="447675"/>
+          <a:off x="4937760" y="7390765"/>
+          <a:ext cx="320040" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3528,8 +3528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="5391150"/>
-          <a:ext cx="2430780" cy="1590675"/>
+          <a:off x="617220" y="5287645"/>
+          <a:ext cx="2430780" cy="1564005"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3592,8 +3592,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13098780" y="2318385"/>
-          <a:ext cx="0" cy="6168390"/>
+          <a:off x="13098780" y="2272665"/>
+          <a:ext cx="0" cy="6052820"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3665,7 +3665,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5748655" y="2440305"/>
+          <a:off x="5748655" y="2394585"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3712,7 +3712,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5748655" y="3624580"/>
+          <a:off x="5748655" y="3556635"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3759,7 +3759,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5748655" y="4808855"/>
+          <a:off x="5748655" y="4718685"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3806,7 +3806,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5748655" y="5993765"/>
+          <a:off x="5748655" y="5881370"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3853,7 +3853,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5748655" y="7178040"/>
+          <a:off x="5748655" y="7043420"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3900,7 +3900,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5748655" y="8362950"/>
+          <a:off x="5748655" y="8206105"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6509,7 +6509,7 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Noto Sans JP"/>
+              <a:latin typeface="Noto Sans JP" panose="020B0200000000000000" charset="-122"/>
             </a:rPr>
             <a:t>どのぐらいの画面があるのか、どの画面からどの画面に移動できるのか</a:t>
           </a:r>
@@ -6556,8 +6556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="544830" y="2136775"/>
-          <a:ext cx="3598545" cy="515620"/>
+          <a:off x="544830" y="2123440"/>
+          <a:ext cx="3598545" cy="506730"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6883,8 +6883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1912620" y="4758690"/>
-          <a:ext cx="2369820" cy="1207770"/>
+          <a:off x="1912620" y="4696460"/>
+          <a:ext cx="2369820" cy="1185545"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6955,8 +6955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4573905" y="4842510"/>
-          <a:ext cx="2009775" cy="1133475"/>
+          <a:off x="4573905" y="4775835"/>
+          <a:ext cx="2009775" cy="1115695"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7015,8 +7015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6873240" y="4667250"/>
-          <a:ext cx="2695575" cy="1350010"/>
+          <a:off x="6873240" y="4605020"/>
+          <a:ext cx="2695575" cy="1323340"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7083,8 +7083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10566400" y="5404485"/>
-          <a:ext cx="2554605" cy="750570"/>
+          <a:off x="10566400" y="5328920"/>
+          <a:ext cx="2554605" cy="737235"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7143,8 +7143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6764655" y="13820775"/>
-          <a:ext cx="4078605" cy="697230"/>
+          <a:off x="6764655" y="13594080"/>
+          <a:ext cx="4078605" cy="683895"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7224,7 +7224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7764780" y="1198245"/>
-          <a:ext cx="4187190" cy="1816735"/>
+          <a:ext cx="4187190" cy="1785620"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7340,8 +7340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7875270" y="9766935"/>
-          <a:ext cx="4000500" cy="2116455"/>
+          <a:off x="7875270" y="9615805"/>
+          <a:ext cx="4000500" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7513,8 +7513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="17221200"/>
-          <a:ext cx="4000500" cy="1003935"/>
+          <a:off x="8023860" y="16932275"/>
+          <a:ext cx="4000500" cy="986155"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7657,8 +7657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5875020" y="15344140"/>
-          <a:ext cx="3225165" cy="1628775"/>
+          <a:off x="5875020" y="15090775"/>
+          <a:ext cx="3225165" cy="1597660"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7733,8 +7733,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="468630" y="10420350"/>
-          <a:ext cx="2516505" cy="981075"/>
+          <a:off x="468630" y="10260330"/>
+          <a:ext cx="2516505" cy="958850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7796,8 +7796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3975100" y="10441305"/>
-          <a:ext cx="3622040" cy="1493520"/>
+          <a:off x="3975100" y="10276840"/>
+          <a:ext cx="3622040" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7880,8 +7880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3095625" y="9563100"/>
-          <a:ext cx="2994660" cy="819150"/>
+          <a:off x="3095625" y="9416415"/>
+          <a:ext cx="2994660" cy="805815"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7985,8 +7985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15466695" y="6362700"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="15466695" y="6247130"/>
+          <a:ext cx="914400" cy="896620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8051,8 +8051,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457835" y="600710"/>
-          <a:ext cx="2667000" cy="1447800"/>
+          <a:off x="457835" y="591820"/>
+          <a:ext cx="2667000" cy="1421130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8093,8 +8093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648075" y="619125"/>
-          <a:ext cx="6553200" cy="1819275"/>
+          <a:off x="3648075" y="610235"/>
+          <a:ext cx="6553200" cy="1783715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8135,8 +8135,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="3028950"/>
-          <a:ext cx="6543675" cy="4114800"/>
+          <a:off x="228600" y="2975610"/>
+          <a:ext cx="6543675" cy="4034790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8177,8 +8177,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="6686550"/>
-          <a:ext cx="10610850" cy="4876800"/>
+          <a:off x="238125" y="6562090"/>
+          <a:ext cx="10610850" cy="4787900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8219,8 +8219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="220345" y="12011025"/>
-          <a:ext cx="12468225" cy="3695700"/>
+          <a:off x="220345" y="11788775"/>
+          <a:ext cx="12468225" cy="3629025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17176,8 +17176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3649980" y="3006090"/>
-          <a:ext cx="2324100" cy="647700"/>
+          <a:off x="3649980" y="3002915"/>
+          <a:ext cx="2324100" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -17236,7 +17236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3535680" y="5356860"/>
+          <a:off x="3535680" y="5350510"/>
           <a:ext cx="2354580" cy="883285"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -17324,7 +17324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6536055" y="5343525"/>
+          <a:off x="6536055" y="5337175"/>
           <a:ext cx="2943225" cy="889635"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -17400,7 +17400,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10654665" y="3752850"/>
+          <a:off x="10654665" y="3746500"/>
           <a:ext cx="3320415" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -17497,7 +17497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9144000" y="457200"/>
-          <a:ext cx="4198620" cy="621030"/>
+          <a:ext cx="4198620" cy="617855"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -17564,8 +17564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="1238250"/>
-          <a:ext cx="5852160" cy="1962150"/>
+          <a:off x="8229600" y="1235075"/>
+          <a:ext cx="5852160" cy="1958975"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -17787,7 +17787,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="2358390"/>
+          <a:off x="419100" y="2355215"/>
           <a:ext cx="2354580" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -17848,7 +17848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2476500" y="541020"/>
-          <a:ext cx="3238500" cy="384810"/>
+          <a:ext cx="3238500" cy="381635"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -17907,7 +17907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10382250" y="5524500"/>
+          <a:off x="10382250" y="5518150"/>
           <a:ext cx="3396615" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -18240,14 +18240,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18.4"/>
   <sheetData>
-    <row r="2" ht="25.5" spans="3:3">
+    <row r="2" ht="25.25" spans="3:3">
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="72" customFormat="1" ht="24" spans="3:3">
+    <row r="4" s="72" customFormat="1" ht="23.1" spans="3:3">
       <c r="C4" s="73" t="s">
         <v>1</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" s="72" customFormat="1" ht="24" spans="3:3">
+    <row r="39" s="72" customFormat="1" ht="23.1" spans="3:3">
       <c r="C39" s="73" t="s">
         <v>35</v>
       </c>
@@ -20170,7 +20170,7 @@
       <c r="AW72" s="75"/>
       <c r="AX72" s="75"/>
     </row>
-    <row r="74" s="72" customFormat="1" ht="24" spans="3:3">
+    <row r="74" s="72" customFormat="1" ht="23.1" spans="3:3">
       <c r="C74" s="73" t="s">
         <v>68</v>
       </c>
@@ -20607,7 +20607,7 @@
       <c r="AW87" s="86"/>
       <c r="AX87" s="86"/>
     </row>
-    <row r="88" spans="5:50">
+    <row r="88" ht="18.45" spans="5:50">
       <c r="E88" s="86"/>
       <c r="F88" s="86" t="s">
         <v>43</v>
@@ -20826,7 +20826,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -21016,14 +21016,14 @@
     <row r="5" customHeight="1" spans="2:59">
       <c r="B5" s="16"/>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="BG5" s="49"/>
     </row>
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BG6" s="49"/>
     </row>
@@ -21034,14 +21034,14 @@
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="BG8" s="49"/>
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BG9" s="49"/>
     </row>
@@ -21052,14 +21052,14 @@
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BG11" s="49"/>
     </row>
     <row r="12" customHeight="1" spans="2:59">
       <c r="B12" s="16"/>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BG12" s="49"/>
     </row>
@@ -21070,14 +21070,14 @@
     <row r="14" customHeight="1" spans="2:59">
       <c r="B14" s="16"/>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BG14" s="49"/>
     </row>
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BG15" s="49"/>
     </row>
@@ -21088,14 +21088,14 @@
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BG17" s="49"/>
     </row>
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BG18" s="49"/>
     </row>
@@ -21106,14 +21106,14 @@
     <row r="20" customHeight="1" spans="2:59">
       <c r="B20" s="16"/>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BG20" s="49"/>
     </row>
     <row r="21" customHeight="1" spans="2:59">
       <c r="B21" s="16"/>
       <c r="E21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BG21" s="49"/>
     </row>
@@ -21293,7 +21293,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -21482,14 +21482,14 @@
     <row r="5" customHeight="1" spans="2:59">
       <c r="B5" s="16"/>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BG5" s="49"/>
     </row>
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BG6" s="49"/>
     </row>
@@ -21500,14 +21500,14 @@
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BG8" s="49"/>
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BG9" s="49"/>
     </row>
@@ -21518,30 +21518,30 @@
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BG11" s="49"/>
     </row>
     <row r="12" customHeight="1" spans="2:59">
       <c r="B12" s="16"/>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="BG12" s="49"/>
     </row>
     <row r="13" customHeight="1" spans="2:59">
       <c r="B13" s="16"/>
       <c r="K13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BG13" s="49"/>
     </row>
@@ -21552,30 +21552,30 @@
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BG15" s="49"/>
     </row>
     <row r="16" customHeight="1" spans="2:59">
       <c r="B16" s="16"/>
       <c r="F16" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG16" s="49"/>
     </row>
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
       <c r="K17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BG17" s="49"/>
     </row>
@@ -21774,7 +21774,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -21963,14 +21963,14 @@
     <row r="5" customHeight="1" spans="2:59">
       <c r="B5" s="16"/>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="BG5" s="49"/>
     </row>
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="BG6" s="49"/>
     </row>
@@ -21981,40 +21981,40 @@
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="BG8" s="49"/>
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="BG9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="2:59">
       <c r="B10" s="16"/>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="BG10" s="49"/>
     </row>
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
       <c r="H11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="BG11" s="49"/>
     </row>
@@ -22025,21 +22025,21 @@
     <row r="13" customHeight="1" spans="2:59">
       <c r="B13" s="16"/>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="BG13" s="49"/>
     </row>
     <row r="14" customHeight="1" spans="2:59">
       <c r="B14" s="16"/>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="BG14" s="49"/>
     </row>
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BG15" s="49"/>
     </row>
@@ -22050,29 +22050,29 @@
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BG17" s="49"/>
     </row>
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="O18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="T18" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="BG18" s="49"/>
     </row>
@@ -22264,7 +22264,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -22453,7 +22453,7 @@
     <row r="5" customHeight="1" spans="2:59">
       <c r="B5" s="16"/>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="BG5" s="49"/>
     </row>
@@ -22496,37 +22496,37 @@
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BG15" s="49"/>
     </row>
     <row r="16" customHeight="1" spans="2:59">
       <c r="B16" s="16"/>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="BG16" s="49"/>
     </row>
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
       <c r="F17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="BG17" s="49"/>
     </row>
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
       <c r="J18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="BG18" s="49"/>
     </row>
@@ -22537,21 +22537,21 @@
     <row r="20" customHeight="1" spans="2:59">
       <c r="B20" s="16"/>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="BG20" s="49"/>
     </row>
     <row r="21" customHeight="1" spans="2:59">
       <c r="B21" s="16"/>
       <c r="F21" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="BG21" s="49"/>
     </row>
     <row r="22" customHeight="1" spans="2:59">
       <c r="B22" s="16"/>
       <c r="G22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="BG22" s="49"/>
     </row>
@@ -22693,7 +22693,7 @@
   </sheetPr>
   <dimension ref="A1:BH47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -22712,7 +22712,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -22758,7 +22758,7 @@
       <c r="AQ1" s="7"/>
       <c r="AR1" s="7"/>
       <c r="AS1" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AT1" s="8"/>
       <c r="AU1" s="8"/>
@@ -22850,7 +22850,7 @@
       <c r="BG2" s="45"/>
       <c r="BH2" s="47"/>
     </row>
-    <row r="3" s="5" customFormat="1" ht="25.5" spans="2:2">
+    <row r="3" s="5" customFormat="1" ht="25.25" spans="2:2">
       <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
@@ -22863,7 +22863,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -22940,7 +22940,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -22979,7 +22979,7 @@
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -22988,7 +22988,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>327</v>
+        <v>101</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -22997,7 +22997,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -23027,7 +23027,7 @@
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -23036,7 +23036,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -23069,7 +23069,7 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
     </row>
-    <row r="13" s="5" customFormat="1" ht="25.5" spans="2:2">
+    <row r="13" s="5" customFormat="1" ht="25.25" spans="2:2">
       <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
@@ -23084,7 +23084,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="3" t="s">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -23764,7 +23764,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="3" t="s">
-        <v>327</v>
+        <v>101</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -23789,31 +23789,31 @@
         <v>344</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:49">
@@ -24025,25 +24025,25 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>346</v>
@@ -24113,25 +24113,25 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>348</v>
@@ -24302,7 +24302,7 @@
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
       <c r="H36" s="3" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -24324,7 +24324,7 @@
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
       <c r="H37" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>349</v>
@@ -24563,25 +24563,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>346</v>
@@ -24652,22 +24652,22 @@
         <v>353</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>354</v>
@@ -24724,7 +24724,7 @@
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -24733,43 +24733,43 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q42" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
@@ -24808,7 +24808,7 @@
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -24817,43 +24817,43 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
@@ -24908,7 +24908,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -25036,7 +25036,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -25537,7 +25537,7 @@
     <row r="5" customHeight="1" spans="62:74">
       <c r="BJ5" s="51"/>
       <c r="BK5" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BL5" s="52"/>
       <c r="BM5" s="52"/>
@@ -25573,10 +25573,10 @@
     </row>
     <row r="11" customHeight="1" spans="10:74">
       <c r="J11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="X11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BJ11" s="28"/>
       <c r="BV11" s="40"/>
@@ -25607,7 +25607,7 @@
     </row>
     <row r="18" customHeight="1" spans="10:74">
       <c r="J18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s">
         <v>365</v>
@@ -25695,7 +25695,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18.4"/>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:60">
       <c r="A1" s="6" t="s">
@@ -25950,7 +25950,7 @@
     <row r="12" spans="2:59">
       <c r="B12" s="16"/>
       <c r="Q12" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
@@ -26050,13 +26050,13 @@
       <c r="B18" s="16"/>
       <c r="Q18" s="28"/>
       <c r="AA18" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB18" s="32"/>
       <c r="AC18" s="32"/>
       <c r="AD18" s="33"/>
       <c r="AH18" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI18" s="32"/>
       <c r="AJ18" s="32"/>
@@ -26115,7 +26115,7 @@
       <c r="B24" s="16"/>
       <c r="BG24" s="49"/>
     </row>
-    <row r="25" ht="19.5" spans="2:59">
+    <row r="25" ht="19.15" spans="2:59">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -26175,7 +26175,7 @@
       <c r="BF25" s="18"/>
       <c r="BG25" s="50"/>
     </row>
-    <row r="26" ht="19.5" spans="2:59">
+    <row r="26" ht="19.15" spans="2:59">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -26242,7 +26242,7 @@
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -26250,7 +26250,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="20"/>
       <c r="K27" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -26258,7 +26258,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -26279,7 +26279,7 @@
       <c r="AF27" s="21"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI27" s="21"/>
       <c r="AJ27" s="21"/>
@@ -26292,7 +26292,7 @@
       <c r="AQ27" s="21"/>
       <c r="AR27" s="20"/>
       <c r="AS27" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AT27" s="21"/>
       <c r="AU27" s="21"/>
@@ -26316,7 +26316,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -26324,7 +26324,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -26332,7 +26332,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -26392,7 +26392,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -26400,7 +26400,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
@@ -26460,7 +26460,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -26475,7 +26475,7 @@
       <c r="T30" s="21"/>
       <c r="U30" s="20"/>
       <c r="V30" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
@@ -26489,7 +26489,7 @@
       <c r="AF30" s="21"/>
       <c r="AG30" s="20"/>
       <c r="AH30" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21"/>
@@ -26502,7 +26502,7 @@
       <c r="AQ30" s="21"/>
       <c r="AR30" s="20"/>
       <c r="AS30" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT30" s="21"/>
       <c r="AU30" s="21"/>
@@ -26534,7 +26534,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -26542,7 +26542,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
@@ -26602,7 +26602,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -26617,7 +26617,7 @@
       <c r="T32" s="21"/>
       <c r="U32" s="20"/>
       <c r="V32" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -26668,7 +26668,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -26676,7 +26676,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -26684,7 +26684,7 @@
       <c r="O33" s="21"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -26738,7 +26738,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -26746,7 +26746,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
@@ -26754,7 +26754,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
@@ -26861,7 +26861,7 @@
       <c r="BF35" s="20"/>
       <c r="BG35" s="49"/>
     </row>
-    <row r="36" ht="19.5" spans="2:59">
+    <row r="36" ht="19.15" spans="2:59">
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -26921,14 +26921,14 @@
       <c r="BF36" s="18"/>
       <c r="BG36" s="50"/>
     </row>
-    <row r="37" ht="19.5"/>
+    <row r="37" ht="19.15"/>
     <row r="38" s="5" customFormat="1" ht="25.95" customHeight="1" spans="2:2">
       <c r="B38" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="39" ht="19.5"/>
-    <row r="40" ht="19.5" spans="2:59">
+    <row r="39" ht="19.15"/>
+    <row r="40" ht="19.15" spans="2:59">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -26991,14 +26991,14 @@
     <row r="41" spans="2:59">
       <c r="B41" s="16"/>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BG41" s="49"/>
     </row>
     <row r="42" spans="2:59">
       <c r="B42" s="16"/>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BG42" s="49"/>
     </row>
@@ -27062,10 +27062,10 @@
     <row r="52" spans="2:59">
       <c r="B52" s="16"/>
       <c r="G52" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O52" t="s">
         <v>388</v>
@@ -27078,7 +27078,7 @@
     <row r="53" spans="2:59">
       <c r="B53" s="16"/>
       <c r="L53" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O53" t="s">
         <v>390</v>
@@ -27134,13 +27134,13 @@
     <row r="58" spans="2:59">
       <c r="B58" s="16"/>
       <c r="G58" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L58" t="s">
         <v>400</v>
       </c>
       <c r="P58" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S58" t="s">
         <v>401</v>
@@ -27180,10 +27180,10 @@
     <row r="62" spans="2:59">
       <c r="B62" s="16"/>
       <c r="H62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M62" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P62" t="s">
         <v>407</v>
@@ -27193,7 +27193,7 @@
     <row r="63" spans="2:59">
       <c r="B63" s="16"/>
       <c r="M63" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P63" t="s">
         <v>390</v>
@@ -27281,7 +27281,7 @@
       <c r="B75" s="16"/>
       <c r="BG75" s="49"/>
     </row>
-    <row r="76" ht="19.5" spans="2:59">
+    <row r="76" ht="19.15" spans="2:59">
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -27341,7 +27341,7 @@
       <c r="BF76" s="18"/>
       <c r="BG76" s="50"/>
     </row>
-    <row r="77" ht="19.5"/>
+    <row r="77" ht="19.15"/>
   </sheetData>
   <mergeCells count="77">
     <mergeCell ref="A1:F1"/>
@@ -27440,7 +27440,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.4"/>
   <cols>
     <col min="1" max="6" width="12.2" customWidth="1"/>
     <col min="7" max="8" width="26.4" customWidth="1"/>
@@ -29498,7 +29498,7 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -29529,7 +29529,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -29630,10 +29630,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BH47"/>
+  <dimension ref="A1:BH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33:AI33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -29791,7 +29791,7 @@
       <c r="BG2" s="45"/>
       <c r="BH2" s="47"/>
     </row>
-    <row r="3" s="5" customFormat="1" ht="25.5" spans="2:2">
+    <row r="3" s="5" customFormat="1" ht="25.25" spans="2:2">
       <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
@@ -30010,58 +30010,40 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
     </row>
-    <row r="10" customHeight="1" spans="2:39">
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="25.5" spans="2:2">
-      <c r="B14" s="12" t="s">
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="25.25" spans="2:2">
+      <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:17">
+      <c r="B15" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" customHeight="1" spans="2:17">
       <c r="B16" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -30069,7 +30051,7 @@
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -30081,101 +30063,143 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" customHeight="1" spans="2:17">
+    <row r="17" customHeight="1" spans="2:49">
       <c r="B17" s="54" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="D17" s="54" t="s">
+        <v>107</v>
+      </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="59"/>
     </row>
     <row r="18" customHeight="1" spans="2:49">
-      <c r="B18" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="59"/>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="21"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="20"/>
     </row>
     <row r="19" customHeight="1" spans="2:49">
       <c r="B19" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -30184,7 +30208,7 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
       <c r="K19" s="19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -30193,16 +30217,14 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
@@ -30216,9 +30238,7 @@
       <c r="AG19" s="69"/>
       <c r="AH19" s="69"/>
       <c r="AI19" s="71"/>
-      <c r="AJ19" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="AJ19" s="19"/>
       <c r="AK19" s="21"/>
       <c r="AL19" s="21"/>
       <c r="AM19" s="21"/>
@@ -30235,11 +30255,11 @@
     </row>
     <row r="20" customHeight="1" spans="2:49">
       <c r="B20" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -30248,7 +30268,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
       <c r="K20" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -30295,11 +30315,11 @@
     </row>
     <row r="21" customHeight="1" spans="2:49">
       <c r="B21" s="55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -30308,7 +30328,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="20"/>
       <c r="K21" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -30317,7 +30337,7 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -30333,12 +30353,16 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="68"/>
+      <c r="AE21" s="68">
+        <v>0</v>
+      </c>
       <c r="AF21" s="69"/>
       <c r="AG21" s="69"/>
       <c r="AH21" s="69"/>
       <c r="AI21" s="71"/>
-      <c r="AJ21" s="19"/>
+      <c r="AJ21" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="21"/>
@@ -30355,11 +30379,11 @@
     </row>
     <row r="22" customHeight="1" spans="2:49">
       <c r="B22" s="55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -30368,7 +30392,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="20"/>
       <c r="K22" s="19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -30401,7 +30425,7 @@
       <c r="AH22" s="69"/>
       <c r="AI22" s="71"/>
       <c r="AJ22" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
@@ -30417,73 +30441,31 @@
       <c r="AV22" s="21"/>
       <c r="AW22" s="20"/>
     </row>
-    <row r="23" customHeight="1" spans="2:49">
-      <c r="B23" s="55">
-        <v>5</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="68">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="20"/>
+    <row r="25" customHeight="1" spans="2:17">
+      <c r="B25" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="2:17">
       <c r="B26" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -30491,7 +30473,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -30503,101 +30485,143 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" customHeight="1" spans="2:17">
+    <row r="27" customHeight="1" spans="2:49">
       <c r="B27" s="54" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="D27" s="54" t="s">
+        <v>107</v>
+      </c>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
-      <c r="H27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK27" s="58"/>
+      <c r="AL27" s="58"/>
+      <c r="AM27" s="58"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="58"/>
+      <c r="AR27" s="58"/>
+      <c r="AS27" s="58"/>
+      <c r="AT27" s="58"/>
+      <c r="AU27" s="58"/>
+      <c r="AV27" s="58"/>
+      <c r="AW27" s="59"/>
     </row>
     <row r="28" customHeight="1" spans="2:49">
-      <c r="B28" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="59"/>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="20"/>
     </row>
     <row r="29" customHeight="1" spans="2:49">
       <c r="B29" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="19" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -30623,7 +30647,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
@@ -30639,7 +30663,7 @@
       <c r="AH29" s="69"/>
       <c r="AI29" s="71"/>
       <c r="AJ29" s="19" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AK29" s="21"/>
       <c r="AL29" s="21"/>
@@ -30657,11 +30681,11 @@
     </row>
     <row r="30" customHeight="1" spans="2:49">
       <c r="B30" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -30670,7 +30694,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="20"/>
       <c r="K30" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -30717,11 +30741,11 @@
     </row>
     <row r="31" customHeight="1" spans="2:49">
       <c r="B31" s="55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -30730,7 +30754,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="20"/>
       <c r="K31" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -30777,11 +30801,11 @@
     </row>
     <row r="32" customHeight="1" spans="2:49">
       <c r="B32" s="55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -30790,7 +30814,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="20"/>
       <c r="K32" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -30799,7 +30823,7 @@
       <c r="P32" s="21"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -30815,12 +30839,16 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="68"/>
+      <c r="AE32" s="68">
+        <v>0</v>
+      </c>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="69"/>
       <c r="AI32" s="71"/>
-      <c r="AJ32" s="19"/>
+      <c r="AJ32" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
@@ -30835,316 +30863,318 @@
       <c r="AV32" s="21"/>
       <c r="AW32" s="20"/>
     </row>
-    <row r="33" customHeight="1" spans="2:49">
-      <c r="B33" s="55">
-        <v>4</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="19" t="s">
+    <row r="33" customHeight="1" spans="2:35">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="70"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:17">
+      <c r="B36" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:17">
+      <c r="B37" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:49">
+      <c r="B38" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="59"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:49">
+      <c r="B39" s="55">
+        <v>1</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="69"/>
+      <c r="AH39" s="69"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="20"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:49">
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="19" t="s">
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="69"/>
+      <c r="AG40" s="69"/>
+      <c r="AH40" s="69"/>
+      <c r="AI40" s="71"/>
+      <c r="AJ40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="20"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:49">
+      <c r="B41" s="55">
+        <v>2</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="21"/>
-      <c r="AL33" s="21"/>
-      <c r="AM33" s="21"/>
-      <c r="AN33" s="21"/>
-      <c r="AO33" s="21"/>
-      <c r="AP33" s="21"/>
-      <c r="AQ33" s="21"/>
-      <c r="AR33" s="21"/>
-      <c r="AS33" s="21"/>
-      <c r="AT33" s="21"/>
-      <c r="AU33" s="21"/>
-      <c r="AV33" s="21"/>
-      <c r="AW33" s="20"/>
-    </row>
-    <row r="34" customHeight="1" spans="2:49">
-      <c r="B34" s="55">
-        <v>5</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="20"/>
-    </row>
-    <row r="35" customHeight="1" spans="2:49">
-      <c r="B35" s="55">
-        <v>7</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="68">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="20"/>
-    </row>
-    <row r="36" customHeight="1" spans="2:35">
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="AE36" s="70"/>
-      <c r="AF36" s="70"/>
-      <c r="AG36" s="70"/>
-      <c r="AH36" s="70"/>
-      <c r="AI36" s="70"/>
-    </row>
-    <row r="39" customHeight="1" spans="2:17">
-      <c r="B39" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" customHeight="1" spans="2:17">
-      <c r="B40" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" customHeight="1" spans="2:49">
-      <c r="B41" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="58"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="59"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="69"/>
+      <c r="AH41" s="69"/>
+      <c r="AI41" s="71"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="20"/>
     </row>
     <row r="42" customHeight="1" spans="2:49">
       <c r="B42" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="19" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -31153,7 +31183,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="20"/>
       <c r="K42" s="19" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
@@ -31162,16 +31192,14 @@
       <c r="P42" s="21"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3" t="s">
@@ -31185,9 +31213,7 @@
       <c r="AG42" s="69"/>
       <c r="AH42" s="69"/>
       <c r="AI42" s="71"/>
-      <c r="AJ42" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="AJ42" s="19"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="21"/>
       <c r="AM42" s="21"/>
@@ -31204,11 +31230,11 @@
     </row>
     <row r="43" customHeight="1" spans="2:49">
       <c r="B43" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -31217,7 +31243,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="20"/>
       <c r="K43" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
@@ -31226,7 +31252,7 @@
       <c r="P43" s="21"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -31264,11 +31290,11 @@
     </row>
     <row r="44" customHeight="1" spans="2:49">
       <c r="B44" s="55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="19" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -31277,7 +31303,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="20"/>
       <c r="K44" s="19" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
@@ -31286,7 +31312,7 @@
       <c r="P44" s="21"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -31328,7 +31354,7 @@
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="19" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -31337,7 +31363,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="20"/>
       <c r="K45" s="19" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
@@ -31346,7 +31372,7 @@
       <c r="P45" s="21"/>
       <c r="Q45" s="20"/>
       <c r="R45" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
@@ -31362,12 +31388,16 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="68"/>
+      <c r="AE45" s="68">
+        <v>0</v>
+      </c>
       <c r="AF45" s="69"/>
       <c r="AG45" s="69"/>
       <c r="AH45" s="69"/>
       <c r="AI45" s="71"/>
-      <c r="AJ45" s="19"/>
+      <c r="AJ45" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
       <c r="AM45" s="21"/>
@@ -31382,132 +31412,8 @@
       <c r="AV45" s="21"/>
       <c r="AW45" s="20"/>
     </row>
-    <row r="46" customHeight="1" spans="2:49">
-      <c r="B46" s="55">
-        <v>5</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="68"/>
-      <c r="AF46" s="69"/>
-      <c r="AG46" s="69"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="71"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="20"/>
-    </row>
-    <row r="47" customHeight="1" spans="2:49">
-      <c r="B47" s="55">
-        <v>7</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="68">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="71"/>
-      <c r="AJ47" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21"/>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21"/>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21"/>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="216">
+  <mergeCells count="204">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="AO1:AR1"/>
@@ -31538,14 +31444,18 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="R9:AM9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="R10:AM10"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:Q15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AW17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="K18:Q18"/>
@@ -31586,18 +31496,18 @@
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="AE22:AI22"/>
     <mergeCell ref="AJ22:AW22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AW23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:Q25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="H26:Q26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:Q27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AJ27:AW27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:J28"/>
     <mergeCell ref="K28:Q28"/>
@@ -31638,34 +31548,34 @@
     <mergeCell ref="AA32:AD32"/>
     <mergeCell ref="AE32:AI32"/>
     <mergeCell ref="AJ32:AW32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="AJ33:AW33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="AJ34:AW34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="R35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="AE35:AI35"/>
-    <mergeCell ref="AJ35:AW35"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:Q39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:Q40"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:Q36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AE38:AI38"/>
+    <mergeCell ref="AJ38:AW38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AE39:AI39"/>
+    <mergeCell ref="AJ39:AW39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AI40"/>
+    <mergeCell ref="AJ40:AW40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:J41"/>
     <mergeCell ref="K41:Q41"/>
@@ -31706,22 +31616,6 @@
     <mergeCell ref="AA45:AD45"/>
     <mergeCell ref="AE45:AI45"/>
     <mergeCell ref="AJ45:AW45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="AE46:AI46"/>
-    <mergeCell ref="AJ46:AW46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AE47:AI47"/>
-    <mergeCell ref="AJ47:AW47"/>
     <mergeCell ref="P1:V2"/>
     <mergeCell ref="W1:AN2"/>
   </mergeCells>
@@ -31739,7 +31633,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
   </cols>
@@ -31787,7 +31681,7 @@
   <sheetPr/>
   <dimension ref="A1:BV22"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
@@ -31954,7 +31848,7 @@
     <row r="4" customHeight="1" spans="62:74">
       <c r="BJ4" s="51"/>
       <c r="BK4" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BL4" s="52"/>
       <c r="BM4" s="52"/>
@@ -32002,10 +31896,10 @@
     </row>
     <row r="13" customHeight="1" spans="9:74">
       <c r="I13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BJ13" s="28"/>
       <c r="BV13" s="40"/>
@@ -32044,19 +31938,19 @@
     </row>
     <row r="22" customHeight="1" spans="9:74">
       <c r="I22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AO22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BA22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BJ22" s="29"/>
       <c r="BK22" s="30"/>
@@ -32104,7 +31998,7 @@
   <sheetPr/>
   <dimension ref="A1:BH34"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH30" sqref="AH30:AR30"/>
     </sheetView>
   </sheetViews>
@@ -32141,7 +32035,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -32338,7 +32232,7 @@
     <row r="7" customHeight="1" spans="2:59">
       <c r="B7" s="16"/>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BG7" s="49"/>
     </row>
@@ -32383,7 +32277,7 @@
         <v>124</v>
       </c>
       <c r="R14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BG14" s="49"/>
     </row>
@@ -32406,10 +32300,10 @@
     <row r="19" customHeight="1" spans="2:59">
       <c r="B19" s="16"/>
       <c r="R19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BG19" s="49"/>
     </row>
@@ -32556,7 +32450,7 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -32564,7 +32458,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -32572,7 +32466,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -32593,7 +32487,7 @@
       <c r="AF26" s="21"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI26" s="21"/>
       <c r="AJ26" s="21"/>
@@ -32606,7 +32500,7 @@
       <c r="AQ26" s="21"/>
       <c r="AR26" s="20"/>
       <c r="AS26" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AT26" s="21"/>
       <c r="AU26" s="21"/>
@@ -32630,7 +32524,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -32638,7 +32532,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -32646,7 +32540,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -32706,7 +32600,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -32714,14 +32608,14 @@
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="20"/>
       <c r="V28" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
@@ -32735,7 +32629,7 @@
       <c r="AF28" s="21"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI28" s="21"/>
       <c r="AJ28" s="21"/>
@@ -32748,7 +32642,7 @@
       <c r="AQ28" s="21"/>
       <c r="AR28" s="20"/>
       <c r="AS28" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT28" s="21"/>
       <c r="AU28" s="21"/>
@@ -32772,7 +32666,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -32780,7 +32674,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -32788,7 +32682,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
@@ -32848,7 +32742,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -32856,14 +32750,14 @@
       <c r="O30" s="21"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="20"/>
       <c r="V30" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
@@ -32877,7 +32771,7 @@
       <c r="AF30" s="21"/>
       <c r="AG30" s="20"/>
       <c r="AH30" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21"/>
@@ -32890,7 +32784,7 @@
       <c r="AQ30" s="21"/>
       <c r="AR30" s="20"/>
       <c r="AS30" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AT30" s="21"/>
       <c r="AU30" s="21"/>
@@ -32914,7 +32808,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -32922,7 +32816,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -32930,7 +32824,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
@@ -32982,7 +32876,7 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -32990,7 +32884,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -32998,14 +32892,14 @@
       <c r="O32" s="21"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="20"/>
       <c r="V32" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -33052,7 +32946,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -33060,7 +32954,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -33068,14 +32962,14 @@
       <c r="O33" s="21"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="20"/>
       <c r="V33" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
@@ -33259,8 +33153,8 @@
   <sheetPr/>
   <dimension ref="A1:BH34"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -33296,7 +33190,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -33485,14 +33379,14 @@
     <row r="5" customHeight="1" spans="2:59">
       <c r="B5" s="16"/>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BG5" s="49"/>
     </row>
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="F6" s="65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
@@ -33524,7 +33418,7 @@
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="L9" s="66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
@@ -33532,7 +33426,7 @@
       <c r="P9" s="66"/>
       <c r="Q9" s="66"/>
       <c r="W9" s="66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="X9" s="66"/>
       <c r="Y9" s="66"/>
@@ -33584,12 +33478,12 @@
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
       <c r="M15" s="66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
       <c r="W15" s="66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="X15" s="66"/>
       <c r="Y15" s="66"/>
@@ -33636,7 +33530,7 @@
     <row r="22" customHeight="1" spans="2:59">
       <c r="B22" s="16"/>
       <c r="AD22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BG22" s="49"/>
     </row>
@@ -33771,7 +33665,7 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -33779,7 +33673,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -33787,7 +33681,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -33808,7 +33702,7 @@
       <c r="AF26" s="21"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI26" s="21"/>
       <c r="AJ26" s="21"/>
@@ -33821,7 +33715,7 @@
       <c r="AQ26" s="21"/>
       <c r="AR26" s="20"/>
       <c r="AS26" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AT26" s="21"/>
       <c r="AU26" s="21"/>
@@ -33845,7 +33739,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -33853,7 +33747,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -33861,7 +33755,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -33913,7 +33807,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -33921,7 +33815,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -33929,7 +33823,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -33981,7 +33875,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -33989,7 +33883,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -33997,14 +33891,14 @@
       <c r="O29" s="21"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="20"/>
       <c r="V29" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
@@ -34051,7 +33945,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -34059,7 +33953,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -34067,14 +33961,14 @@
       <c r="O30" s="21"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="20"/>
       <c r="V30" s="19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
@@ -34121,7 +34015,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -34129,7 +34023,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -34137,14 +34031,14 @@
       <c r="O31" s="21"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="20"/>
       <c r="V31" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
@@ -34191,7 +34085,7 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -34199,7 +34093,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -34207,14 +34101,14 @@
       <c r="O32" s="21"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="20"/>
       <c r="V32" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -34261,7 +34155,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -34269,7 +34163,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -34277,14 +34171,14 @@
       <c r="O33" s="21"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="20"/>
       <c r="V33" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
@@ -34473,8 +34367,8 @@
   <sheetPr/>
   <dimension ref="A1:BH37"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -34510,7 +34404,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -34704,7 +34598,7 @@
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="BG6" s="49"/>
     </row>
@@ -34715,7 +34609,7 @@
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
       <c r="J8" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -34735,7 +34629,7 @@
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
       <c r="J11" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -34766,7 +34660,7 @@
     <row r="14" customHeight="1" spans="2:59">
       <c r="B14" s="16"/>
       <c r="J14" s="13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -34789,7 +34683,7 @@
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
       <c r="J17" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -34809,7 +34703,7 @@
     <row r="20" customHeight="1" spans="2:59">
       <c r="B20" s="16"/>
       <c r="AD20" s="64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AE20" s="64"/>
       <c r="BG20" s="49"/>
@@ -34955,7 +34849,7 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -34963,7 +34857,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -34971,7 +34865,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -34992,7 +34886,7 @@
       <c r="AF26" s="21"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI26" s="21"/>
       <c r="AJ26" s="21"/>
@@ -35005,7 +34899,7 @@
       <c r="AQ26" s="21"/>
       <c r="AR26" s="20"/>
       <c r="AS26" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AT26" s="21"/>
       <c r="AU26" s="21"/>
@@ -35029,7 +34923,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -35037,7 +34931,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -35045,7 +34939,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -35097,7 +34991,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -35105,7 +34999,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -35113,7 +35007,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -35165,7 +35059,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -35173,7 +35067,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -35181,14 +35075,14 @@
       <c r="O29" s="21"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="20"/>
       <c r="V29" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
@@ -35202,7 +35096,7 @@
       <c r="AF29" s="21"/>
       <c r="AG29" s="20"/>
       <c r="AH29" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="21"/>
@@ -35215,7 +35109,7 @@
       <c r="AQ29" s="21"/>
       <c r="AR29" s="20"/>
       <c r="AS29" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT29" s="21"/>
       <c r="AU29" s="21"/>
@@ -35239,7 +35133,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -35247,7 +35141,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -35255,7 +35149,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
@@ -35307,7 +35201,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -35315,7 +35209,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -35323,14 +35217,14 @@
       <c r="O31" s="21"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="20"/>
       <c r="V31" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
@@ -35344,7 +35238,7 @@
       <c r="AF31" s="21"/>
       <c r="AG31" s="20"/>
       <c r="AH31" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI31" s="21"/>
       <c r="AJ31" s="21"/>
@@ -35357,7 +35251,7 @@
       <c r="AQ31" s="21"/>
       <c r="AR31" s="20"/>
       <c r="AS31" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT31" s="21"/>
       <c r="AU31" s="21"/>
@@ -35381,7 +35275,7 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -35389,7 +35283,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -35397,7 +35291,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
@@ -35449,7 +35343,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -35457,7 +35351,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -35465,14 +35359,14 @@
       <c r="O33" s="21"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="20"/>
       <c r="V33" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
@@ -35486,7 +35380,7 @@
       <c r="AF33" s="21"/>
       <c r="AG33" s="20"/>
       <c r="AH33" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="21"/>
@@ -35499,7 +35393,7 @@
       <c r="AQ33" s="21"/>
       <c r="AR33" s="20"/>
       <c r="AS33" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT33" s="21"/>
       <c r="AU33" s="21"/>
@@ -35523,7 +35417,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -35531,7 +35425,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
@@ -35539,7 +35433,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
@@ -35591,7 +35485,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -35599,7 +35493,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -35607,14 +35501,14 @@
       <c r="O35" s="21"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
       <c r="U35" s="20"/>
       <c r="V35" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
@@ -35661,7 +35555,7 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -35669,7 +35563,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -35677,14 +35571,14 @@
       <c r="O36" s="21"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
       <c r="U36" s="20"/>
       <c r="V36" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
@@ -35894,8 +35788,8 @@
   <sheetPr/>
   <dimension ref="A1:BH32"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -35931,7 +35825,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -36129,7 +36023,7 @@
     <row r="7" customHeight="1" spans="2:59">
       <c r="B7" s="16"/>
       <c r="I7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="BG7" s="49"/>
     </row>
@@ -36140,13 +36034,13 @@
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AB9" s="63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AC9" s="63"/>
       <c r="AD9" s="63"/>
@@ -36166,19 +36060,19 @@
     <row r="12" customHeight="1" spans="2:59">
       <c r="B12" s="16"/>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AD12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BG12" s="49"/>
     </row>
@@ -36368,7 +36262,7 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -36376,7 +36270,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -36384,7 +36278,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -36405,7 +36299,7 @@
       <c r="AF26" s="21"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI26" s="21"/>
       <c r="AJ26" s="21"/>
@@ -36418,7 +36312,7 @@
       <c r="AQ26" s="21"/>
       <c r="AR26" s="20"/>
       <c r="AS26" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AT26" s="21"/>
       <c r="AU26" s="21"/>
@@ -36442,7 +36336,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -36450,7 +36344,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -36458,7 +36352,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -36510,7 +36404,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -36518,7 +36412,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -36526,7 +36420,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -36578,7 +36472,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -36586,7 +36480,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -36594,7 +36488,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
@@ -36613,7 +36507,7 @@
       <c r="AF29" s="21"/>
       <c r="AG29" s="20"/>
       <c r="AH29" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="21"/>
@@ -36648,7 +36542,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -36656,7 +36550,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -36664,14 +36558,14 @@
       <c r="O30" s="21"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="20"/>
       <c r="V30" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
@@ -36696,7 +36590,7 @@
       <c r="AQ30" s="21"/>
       <c r="AR30" s="20"/>
       <c r="AS30" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AT30" s="21"/>
       <c r="AU30" s="21"/>
@@ -36720,7 +36614,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -36728,7 +36622,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -36736,7 +36630,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
@@ -36912,7 +36806,7 @@
   <sheetPr/>
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D5" workbookViewId="0">
       <selection activeCell="BU6" sqref="BU6"/>
     </sheetView>
   </sheetViews>
@@ -36949,7 +36843,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -37143,7 +37037,7 @@
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BG6" s="49"/>
     </row>
@@ -37154,10 +37048,10 @@
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
       <c r="Q8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AB8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BG8" s="49"/>
     </row>
@@ -37208,7 +37102,7 @@
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
       <c r="U18" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
@@ -37364,7 +37258,7 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -37372,7 +37266,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -37380,7 +37274,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -37401,7 +37295,7 @@
       <c r="AF26" s="21"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI26" s="21"/>
       <c r="AJ26" s="21"/>
@@ -37414,7 +37308,7 @@
       <c r="AQ26" s="21"/>
       <c r="AR26" s="20"/>
       <c r="AS26" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AT26" s="21"/>
       <c r="AU26" s="21"/>
@@ -37438,7 +37332,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -37446,7 +37340,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -37454,7 +37348,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -37506,7 +37400,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -37514,7 +37408,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -37522,7 +37416,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -37541,7 +37435,7 @@
       <c r="AF28" s="21"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AI28" s="21"/>
       <c r="AJ28" s="21"/>
@@ -37554,7 +37448,7 @@
       <c r="AQ28" s="21"/>
       <c r="AR28" s="20"/>
       <c r="AS28" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AT28" s="21"/>
       <c r="AU28" s="21"/>
@@ -37578,7 +37472,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -37586,7 +37480,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -37594,14 +37488,14 @@
       <c r="O29" s="21"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="20"/>
       <c r="V29" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
@@ -37795,7 +37689,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -37985,14 +37879,14 @@
     <row r="5" customHeight="1" spans="2:59">
       <c r="B5" s="16"/>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BG5" s="49"/>
     </row>
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BG6" s="49"/>
     </row>
@@ -38003,21 +37897,21 @@
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="BG8" s="49"/>
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="BG9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="2:59">
       <c r="B10" s="16"/>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="BG10" s="49"/>
     </row>
@@ -38027,7 +37921,7 @@
         <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BG11" s="49"/>
     </row>
@@ -38037,10 +37931,10 @@
         <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BG12" s="49"/>
     </row>
@@ -38051,20 +37945,20 @@
     <row r="14" customHeight="1" spans="2:59">
       <c r="B14" s="16"/>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BG14" s="49"/>
     </row>
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BG15" s="49"/>
     </row>
@@ -38075,14 +37969,14 @@
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="BG17" s="49"/>
     </row>
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG18" s="49"/>
     </row>
@@ -38107,27 +38001,27 @@
     <row r="22" customHeight="1" spans="2:59">
       <c r="B22" s="16"/>
       <c r="E22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BG22" s="49"/>
     </row>
     <row r="23" customHeight="1" spans="2:59">
       <c r="B23" s="16"/>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BG23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="2:59">
       <c r="B24" s="16"/>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BG24" s="49"/>
     </row>
@@ -38138,14 +38032,14 @@
     <row r="26" customHeight="1" spans="2:59">
       <c r="B26" s="16"/>
       <c r="D26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BG26" s="49"/>
     </row>
     <row r="27" customHeight="1" spans="2:59">
       <c r="B27" s="16"/>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BG27" s="49"/>
     </row>

--- a/設計書課題　OBM村山.xlsx
+++ b/設計書課題　OBM村山.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="442">
   <si>
     <t>設計書課題について</t>
   </si>
@@ -457,7 +457,7 @@
     <t>0：GENERAL(全般)　１：ADMIN(管理者)</t>
   </si>
   <si>
-    <t>DLETE FLAG</t>
+    <t>DELETE_FLAG</t>
   </si>
   <si>
     <t>削除フラグ</t>
@@ -502,7 +502,7 @@
     <t>INT(20)</t>
   </si>
   <si>
-    <t>PLICE</t>
+    <t>PLACE</t>
   </si>
   <si>
     <t>場所</t>
@@ -1091,9 +1091,6 @@
   </si>
   <si>
     <t>ADMIN or GENERAL</t>
-  </si>
-  <si>
-    <t>DELETE_FLAG</t>
   </si>
   <si>
     <t>0：無効　1：有効</t>
@@ -23636,25 +23633,25 @@
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="19" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>130</v>
@@ -23712,46 +23709,46 @@
       <c r="AH22" s="56"/>
       <c r="AI22" s="56"/>
       <c r="AJ22" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK22" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AK22" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="AL22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AW22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:17">
@@ -23786,7 +23783,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>328</v>
@@ -24016,7 +24013,7 @@
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -24046,7 +24043,7 @@
         <v>136</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>122</v>
@@ -24104,7 +24101,7 @@
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -24134,7 +24131,7 @@
         <v>138</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -24174,25 +24171,25 @@
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="19" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>130</v>
@@ -24250,46 +24247,46 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="56"/>
       <c r="AJ32" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK32" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AK32" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="AL32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AN32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AS32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AV32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AW32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:17">
@@ -24327,31 +24324,31 @@
         <v>330</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:49">
@@ -24554,7 +24551,7 @@
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -24584,7 +24581,7 @@
         <v>136</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>122</v>
@@ -24602,7 +24599,7 @@
         <v>122</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
@@ -24618,7 +24615,7 @@
       <c r="AH40" s="56"/>
       <c r="AI40" s="56"/>
       <c r="AJ40" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
@@ -24640,7 +24637,7 @@
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -24649,7 +24646,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>136</v>
@@ -24670,7 +24667,7 @@
         <v>136</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>122</v>
@@ -24688,7 +24685,7 @@
         <v>122</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
@@ -24890,7 +24887,7 @@
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -24899,7 +24896,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -24923,7 +24920,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF44" s="56"/>
       <c r="AG44" s="56"/>
@@ -24950,7 +24947,7 @@
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -24959,7 +24956,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -24968,7 +24965,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>122</v>
@@ -25018,7 +25015,7 @@
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -25027,7 +25024,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -25078,7 +25075,7 @@
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -25096,7 +25093,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>122</v>
@@ -25121,7 +25118,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF47" s="56"/>
       <c r="AG47" s="56"/>
@@ -25610,13 +25607,13 @@
         <v>158</v>
       </c>
       <c r="X18" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL18" t="s">
         <v>365</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AZ18" t="s">
         <v>366</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>367</v>
       </c>
       <c r="BJ18" s="28"/>
       <c r="BV18" s="40"/>
@@ -25654,10 +25651,10 @@
     </row>
     <row r="25" customHeight="1" spans="38:52">
       <c r="AL25" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>368</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -25728,7 +25725,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -25857,7 +25854,7 @@
     </row>
     <row r="3" s="5" customFormat="1" ht="25.95" customHeight="1" spans="2:2">
       <c r="B3" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:2">
@@ -25993,7 +25990,7 @@
         <v>121</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
@@ -26023,7 +26020,7 @@
         <v>124</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
@@ -26384,7 +26381,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -26468,7 +26465,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
@@ -26526,7 +26523,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -26610,7 +26607,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
@@ -26631,7 +26628,7 @@
       <c r="AF32" s="21"/>
       <c r="AG32" s="20"/>
       <c r="AH32" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI32" s="21"/>
       <c r="AJ32" s="21"/>
@@ -26644,7 +26641,7 @@
       <c r="AQ32" s="21"/>
       <c r="AR32" s="20"/>
       <c r="AS32" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AT32" s="21"/>
       <c r="AU32" s="21"/>
@@ -26691,7 +26688,7 @@
       <c r="T33" s="21"/>
       <c r="U33" s="20"/>
       <c r="V33" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
@@ -26761,7 +26758,7 @@
       <c r="T34" s="21"/>
       <c r="U34" s="20"/>
       <c r="V34" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
@@ -26924,7 +26921,7 @@
     <row r="37" ht="19.15"/>
     <row r="38" s="5" customFormat="1" ht="25.95" customHeight="1" spans="2:2">
       <c r="B38" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" ht="19.15"/>
@@ -27009,14 +27006,14 @@
     <row r="44" spans="2:59">
       <c r="B44" s="16"/>
       <c r="D44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BG44" s="49"/>
     </row>
     <row r="45" spans="2:59">
       <c r="B45" s="16"/>
       <c r="E45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BG45" s="49"/>
     </row>
@@ -27035,14 +27032,14 @@
     <row r="49" spans="2:59">
       <c r="B49" s="16"/>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG49" s="49"/>
     </row>
     <row r="50" spans="2:59">
       <c r="B50" s="16"/>
       <c r="E50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BG50" s="49"/>
     </row>
@@ -27052,10 +27049,10 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM51" t="s">
         <v>386</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>387</v>
       </c>
       <c r="BG51" s="49"/>
     </row>
@@ -27068,10 +27065,10 @@
         <v>267</v>
       </c>
       <c r="O52" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF52" t="s">
         <v>388</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>389</v>
       </c>
       <c r="BG52" s="49"/>
     </row>
@@ -27081,43 +27078,43 @@
         <v>294</v>
       </c>
       <c r="O53" t="s">
+        <v>389</v>
+      </c>
+      <c r="R53" t="s">
         <v>390</v>
-      </c>
-      <c r="R53" t="s">
-        <v>391</v>
       </c>
       <c r="BG53" s="49"/>
     </row>
     <row r="54" spans="2:59">
       <c r="B54" s="16"/>
       <c r="L54" t="s">
+        <v>391</v>
+      </c>
+      <c r="O54" t="s">
         <v>392</v>
       </c>
-      <c r="O54" t="s">
+      <c r="W54" t="s">
         <v>393</v>
-      </c>
-      <c r="W54" t="s">
-        <v>394</v>
       </c>
       <c r="BG54" s="49"/>
     </row>
     <row r="55" spans="2:59">
       <c r="B55" s="16"/>
       <c r="L55" t="s">
+        <v>394</v>
+      </c>
+      <c r="O55" t="s">
         <v>395</v>
       </c>
-      <c r="O55" t="s">
+      <c r="W55" t="s">
         <v>396</v>
-      </c>
-      <c r="W55" t="s">
-        <v>397</v>
       </c>
       <c r="BG55" s="49"/>
     </row>
     <row r="56" spans="2:59">
       <c r="B56" s="16"/>
       <c r="E56" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BG56" s="49"/>
     </row>
@@ -27127,7 +27124,7 @@
         <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BG57" s="49"/>
     </row>
@@ -27137,32 +27134,32 @@
         <v>311</v>
       </c>
       <c r="L58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P58" t="s">
         <v>313</v>
       </c>
       <c r="S58" t="s">
+        <v>400</v>
+      </c>
+      <c r="W58" t="s">
         <v>401</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>402</v>
-      </c>
-      <c r="X58" t="s">
-        <v>403</v>
       </c>
       <c r="BG58" s="49"/>
     </row>
     <row r="59" spans="2:59">
       <c r="B59" s="16"/>
       <c r="S59" t="s">
+        <v>403</v>
+      </c>
+      <c r="W59" t="s">
+        <v>401</v>
+      </c>
+      <c r="X59" t="s">
         <v>404</v>
-      </c>
-      <c r="W59" t="s">
-        <v>402</v>
-      </c>
-      <c r="X59" t="s">
-        <v>405</v>
       </c>
       <c r="BG59" s="49"/>
     </row>
@@ -27173,7 +27170,7 @@
     <row r="61" spans="2:59">
       <c r="B61" s="16"/>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BG61" s="49"/>
     </row>
@@ -27186,7 +27183,7 @@
         <v>267</v>
       </c>
       <c r="P62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BG62" s="49"/>
     </row>
@@ -27196,27 +27193,27 @@
         <v>294</v>
       </c>
       <c r="P63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BG63" s="49"/>
     </row>
     <row r="64" spans="2:59">
       <c r="B64" s="16"/>
       <c r="M64" t="s">
+        <v>391</v>
+      </c>
+      <c r="P64" t="s">
         <v>392</v>
-      </c>
-      <c r="P64" t="s">
-        <v>393</v>
       </c>
       <c r="BG64" s="49"/>
     </row>
     <row r="65" spans="2:59">
       <c r="B65" s="16"/>
       <c r="M65" t="s">
+        <v>394</v>
+      </c>
+      <c r="P65" t="s">
         <v>395</v>
-      </c>
-      <c r="P65" t="s">
-        <v>396</v>
       </c>
       <c r="BG65" s="49"/>
     </row>
@@ -27227,7 +27224,7 @@
     <row r="67" spans="2:59">
       <c r="B67" s="16"/>
       <c r="F67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BG67" s="49"/>
     </row>
@@ -27237,7 +27234,7 @@
         <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BG68" s="49"/>
     </row>
@@ -27262,14 +27259,14 @@
     <row r="72" spans="2:59">
       <c r="B72" s="16"/>
       <c r="D72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BG72" s="49"/>
     </row>
     <row r="73" spans="2:59">
       <c r="B73" s="16"/>
       <c r="E73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BG73" s="49"/>
     </row>
@@ -27452,34 +27449,34 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -29502,7 +29499,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -29510,7 +29507,7 @@
         <v>45465</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -29533,80 +29530,80 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -29632,8 +29629,8 @@
   <sheetPr/>
   <dimension ref="A1:BH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:Q37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -31048,7 +31045,7 @@
     </row>
     <row r="40" customHeight="1" spans="2:49">
       <c r="B40" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="19" t="s">
@@ -31110,7 +31107,7 @@
     </row>
     <row r="41" customHeight="1" spans="2:49">
       <c r="B41" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="19" t="s">
@@ -31170,7 +31167,7 @@
     </row>
     <row r="42" customHeight="1" spans="2:49">
       <c r="B42" s="55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="19" t="s">
@@ -31230,7 +31227,7 @@
     </row>
     <row r="43" customHeight="1" spans="2:49">
       <c r="B43" s="55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="19" t="s">
@@ -31290,7 +31287,7 @@
     </row>
     <row r="44" customHeight="1" spans="2:49">
       <c r="B44" s="55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="19" t="s">
@@ -31350,7 +31347,7 @@
     </row>
     <row r="45" customHeight="1" spans="2:49">
       <c r="B45" s="55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="19" t="s">
@@ -31640,7 +31637,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -31648,7 +31645,7 @@
         <v>44965</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -31656,17 +31653,17 @@
         <v>44975</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -31681,7 +31678,7 @@
   <sheetPr/>
   <dimension ref="A1:BV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H7" workbookViewId="0">
       <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>

--- a/設計書課題　OBM村山.xlsx
+++ b/設計書課題　OBM村山.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18592" windowHeight="8940" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="18592" windowHeight="8940" tabRatio="930" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="751">
   <si>
     <t>設計書課題について</t>
   </si>
@@ -942,6 +942,9 @@
     <t>プルダウンでジャンルを表示</t>
   </si>
   <si>
+    <t>未入力チェック</t>
+  </si>
+  <si>
     <t>商品名（ラベル）</t>
   </si>
   <si>
@@ -955,9 +958,6 @@
   </si>
   <si>
     <t>プルダウンで商品名を表示</t>
-  </si>
-  <si>
-    <t>未入力チェック</t>
   </si>
   <si>
     <t>金額（ラベル）</t>
@@ -1821,7 +1821,13 @@
     <t>対象：金額（下限）、金額（上限）、日付（開始日）、日付（終了日）</t>
   </si>
   <si>
+    <t>桁数チェック</t>
+  </si>
+  <si>
     <t>対象：金額（下限）、金額（上限）</t>
+  </si>
+  <si>
+    <t>相関チェック</t>
   </si>
   <si>
     <t>YYYY/MM/DDのフォーマットで取得</t>
@@ -30075,7 +30081,7 @@
   <sheetPr/>
   <dimension ref="A1:BH68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -33209,7 +33215,7 @@
   <sheetPr/>
   <dimension ref="A1:BH76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -34102,7 +34108,7 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="BG44" s="49"/>
     </row>
@@ -34845,8 +34851,8 @@
   <sheetPr/>
   <dimension ref="A1:BH85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -35742,7 +35748,7 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="BG44" s="49"/>
     </row>
@@ -35773,21 +35779,27 @@
     <row r="48" customHeight="1" spans="2:59">
       <c r="B48" s="16"/>
       <c r="F48" t="s">
-        <v>530</v>
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>545</v>
       </c>
       <c r="BG48" s="49"/>
     </row>
     <row r="49" customHeight="1" spans="2:59">
       <c r="B49" s="16"/>
       <c r="G49" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="BG49" s="49"/>
     </row>
     <row r="50" customHeight="1" spans="2:59">
       <c r="B50" s="16"/>
       <c r="F50" t="s">
-        <v>477</v>
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>547</v>
       </c>
       <c r="BG50" s="49"/>
     </row>
@@ -36027,7 +36039,7 @@
       <c r="R63" s="30"/>
       <c r="S63" s="30"/>
       <c r="T63" s="247" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="U63" s="30"/>
       <c r="V63" s="30"/>
@@ -36106,7 +36118,7 @@
       <c r="N67" s="88"/>
       <c r="O67" s="103"/>
       <c r="P67" s="135" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
@@ -36142,7 +36154,7 @@
       <c r="N68" s="88"/>
       <c r="O68" s="103"/>
       <c r="P68" s="135" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
@@ -36254,7 +36266,7 @@
       <c r="K73" s="130"/>
       <c r="L73" s="137"/>
       <c r="M73" s="30" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N73" s="30"/>
       <c r="O73" s="30"/>
@@ -36263,7 +36275,7 @@
       <c r="R73" s="30"/>
       <c r="S73" s="30"/>
       <c r="T73" s="247" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="U73" s="30"/>
       <c r="V73" s="30"/>
@@ -36288,7 +36300,7 @@
       <c r="K74" s="147"/>
       <c r="L74" s="148"/>
       <c r="M74" s="30" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N74" s="30"/>
       <c r="O74" s="30"/>
@@ -36297,7 +36309,7 @@
       <c r="R74" s="30"/>
       <c r="S74" s="30"/>
       <c r="T74" s="247" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="U74" s="30"/>
       <c r="V74" s="30"/>
@@ -36322,7 +36334,7 @@
       <c r="K75" s="147"/>
       <c r="L75" s="148"/>
       <c r="M75" s="30" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N75" s="30"/>
       <c r="O75" s="30"/>
@@ -36331,7 +36343,7 @@
       <c r="R75" s="30"/>
       <c r="S75" s="30"/>
       <c r="T75" s="247" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="U75" s="30"/>
       <c r="V75" s="30"/>
@@ -36356,7 +36368,7 @@
       <c r="K76" s="147"/>
       <c r="L76" s="148"/>
       <c r="M76" s="30" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N76" s="30"/>
       <c r="O76" s="30"/>
@@ -36365,7 +36377,7 @@
       <c r="R76" s="30"/>
       <c r="S76" s="30"/>
       <c r="T76" s="247" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="U76" s="30"/>
       <c r="V76" s="30"/>
@@ -36390,7 +36402,7 @@
       <c r="K77" s="147"/>
       <c r="L77" s="148"/>
       <c r="M77" s="30" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N77" s="30"/>
       <c r="O77" s="30"/>
@@ -36399,7 +36411,7 @@
       <c r="R77" s="30"/>
       <c r="S77" s="30"/>
       <c r="T77" s="247" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="U77" s="30"/>
       <c r="V77" s="30"/>
@@ -36424,7 +36436,7 @@
       <c r="K78" s="132"/>
       <c r="L78" s="138"/>
       <c r="M78" s="30" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N78" s="30"/>
       <c r="O78" s="30"/>
@@ -36433,7 +36445,7 @@
       <c r="R78" s="30"/>
       <c r="S78" s="30"/>
       <c r="T78" s="247" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="U78" s="30"/>
       <c r="V78" s="30"/>
@@ -36451,7 +36463,7 @@
     <row r="79" customHeight="1" spans="2:59">
       <c r="B79" s="16"/>
       <c r="G79" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="BG79" s="49"/>
     </row>
@@ -36462,7 +36474,7 @@
     <row r="81" customHeight="1" spans="2:59">
       <c r="B81" s="16"/>
       <c r="F81" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="BG81" s="49"/>
     </row>
@@ -36476,14 +36488,14 @@
     <row r="83" customHeight="1" spans="2:59">
       <c r="B83" s="16"/>
       <c r="F83" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="BG83" s="49"/>
     </row>
     <row r="84" customHeight="1" spans="2:59">
       <c r="B84" s="16"/>
       <c r="G84" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="BG84" s="49"/>
     </row>
@@ -36594,7 +36606,7 @@
   <sheetPr/>
   <dimension ref="A1:BH57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -36634,7 +36646,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -36848,14 +36860,14 @@
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="E9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="BG9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="2:59">
       <c r="B10" s="16"/>
       <c r="F10" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="BG10" s="49"/>
     </row>
@@ -36991,7 +37003,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="247" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="U15" s="30"/>
       <c r="V15" s="30"/>
@@ -37070,7 +37082,7 @@
       <c r="N19" s="88"/>
       <c r="O19" s="103"/>
       <c r="P19" s="135" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
@@ -37106,7 +37118,7 @@
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="135" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -37218,7 +37230,7 @@
       <c r="K25" s="130"/>
       <c r="L25" s="137"/>
       <c r="M25" s="30" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
@@ -37227,7 +37239,7 @@
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
       <c r="T25" s="247" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="U25" s="30"/>
       <c r="V25" s="30"/>
@@ -37252,7 +37264,7 @@
       <c r="K26" s="132"/>
       <c r="L26" s="138"/>
       <c r="M26" s="30" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -37261,7 +37273,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
       <c r="T26" s="247" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="U26" s="30"/>
       <c r="V26" s="30"/>
@@ -37279,7 +37291,7 @@
     <row r="27" customHeight="1" spans="2:59">
       <c r="B27" s="16"/>
       <c r="G27" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="BG27" s="49"/>
     </row>
@@ -37297,7 +37309,7 @@
     <row r="30" customHeight="1" spans="2:59">
       <c r="B30" s="16"/>
       <c r="G30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="BG30" s="49"/>
     </row>
@@ -37318,14 +37330,14 @@
     <row r="33" customHeight="1" spans="2:59">
       <c r="B33" s="16"/>
       <c r="F33" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="BG33" s="49"/>
     </row>
     <row r="34" customHeight="1" spans="2:59">
       <c r="B34" s="16"/>
       <c r="G34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="BG34" s="49"/>
     </row>
@@ -37343,14 +37355,14 @@
     <row r="37" customHeight="1" spans="2:59">
       <c r="B37" s="16"/>
       <c r="E37" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="BG37" s="49"/>
     </row>
     <row r="38" customHeight="1" spans="2:59">
       <c r="B38" s="16"/>
       <c r="F38" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="BG38" s="49"/>
     </row>
@@ -37411,7 +37423,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="20"/>
       <c r="T40" s="247" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -37516,7 +37528,7 @@
     <row r="46" customHeight="1" spans="2:59">
       <c r="B46" s="16"/>
       <c r="F46" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="BG46" s="49"/>
     </row>
@@ -37577,7 +37589,7 @@
       <c r="R48" s="111"/>
       <c r="S48" s="111"/>
       <c r="T48" s="247" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -37602,7 +37614,7 @@
       <c r="K49" s="92"/>
       <c r="L49" s="105"/>
       <c r="M49" s="111" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N49" s="111"/>
       <c r="O49" s="111"/>
@@ -37611,7 +37623,7 @@
       <c r="R49" s="111"/>
       <c r="S49" s="111"/>
       <c r="T49" s="247" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="U49" s="30"/>
       <c r="V49" s="30"/>
@@ -37633,7 +37645,7 @@
     <row r="51" customHeight="1" spans="2:59">
       <c r="B51" s="16"/>
       <c r="F51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="BG51" s="49"/>
     </row>
@@ -37647,28 +37659,28 @@
     <row r="53" customHeight="1" spans="2:59">
       <c r="B53" s="16"/>
       <c r="F53" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="BG53" s="49"/>
     </row>
     <row r="54" customHeight="1" spans="2:59">
       <c r="B54" s="16"/>
       <c r="G54" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BG54" s="49"/>
     </row>
     <row r="55" customHeight="1" spans="2:59">
       <c r="B55" s="16"/>
       <c r="F55" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="BG55" s="49"/>
     </row>
     <row r="56" customHeight="1" spans="2:59">
       <c r="B56" s="16"/>
       <c r="G56" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="BG56" s="49"/>
     </row>
@@ -37817,7 +37829,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -38062,7 +38074,7 @@
     <row r="13" customHeight="1" spans="2:59">
       <c r="B13" s="16"/>
       <c r="G13" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="BG13" s="49"/>
     </row>
@@ -38091,7 +38103,7 @@
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
       <c r="F18" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="BG18" s="49"/>
     </row>
@@ -38116,7 +38128,7 @@
     <row r="22" customHeight="1" spans="2:59">
       <c r="B22" s="16"/>
       <c r="G22" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="BG22" s="49"/>
     </row>
@@ -38415,7 +38427,7 @@
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
       <c r="T35" s="247" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="U35" s="30"/>
       <c r="V35" s="30"/>
@@ -38467,7 +38479,7 @@
     <row r="37" customHeight="1" spans="2:59">
       <c r="B37" s="16"/>
       <c r="G37" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="BG37" s="49"/>
     </row>
@@ -38485,21 +38497,21 @@
     <row r="40" customHeight="1" spans="2:59">
       <c r="B40" s="16"/>
       <c r="G40" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="BG40" s="49"/>
     </row>
     <row r="41" customHeight="1" spans="2:59">
       <c r="B41" s="16"/>
       <c r="G41" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="BG41" s="49"/>
     </row>
     <row r="42" customHeight="1" spans="2:59">
       <c r="B42" s="16"/>
       <c r="F42" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="BG42" s="49"/>
     </row>
@@ -38580,7 +38592,7 @@
     <row r="46" customHeight="1" spans="2:59">
       <c r="B46" s="16"/>
       <c r="F46" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="BG46" s="49"/>
     </row>
@@ -38663,7 +38675,7 @@
     <row r="50" customHeight="1" spans="2:59">
       <c r="B50" s="16"/>
       <c r="F50" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="BG50" s="49"/>
     </row>
@@ -38727,7 +38739,7 @@
       <c r="R52" s="30"/>
       <c r="S52" s="30"/>
       <c r="T52" s="247" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="U52" s="30"/>
       <c r="V52" s="30"/>
@@ -38761,7 +38773,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
       <c r="T53" s="247" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="U53" s="30"/>
       <c r="V53" s="30"/>
@@ -38783,7 +38795,7 @@
     <row r="55" customHeight="1" spans="2:59">
       <c r="B55" s="16"/>
       <c r="G55" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="BG55" s="49"/>
     </row>
@@ -38893,8 +38905,8 @@
   <sheetPr/>
   <dimension ref="A1:BH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57:W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -42345,7 +42357,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -42559,14 +42571,14 @@
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="E9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="BG9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="2:59">
       <c r="B10" s="16"/>
       <c r="F10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="BG10" s="49"/>
     </row>
@@ -42873,7 +42885,7 @@
     <row r="23" customHeight="1" spans="2:59">
       <c r="B23" s="16"/>
       <c r="F23" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="BG23" s="49"/>
     </row>
@@ -42891,14 +42903,14 @@
     <row r="26" customHeight="1" spans="2:59">
       <c r="B26" s="16"/>
       <c r="E26" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="BG26" s="49"/>
     </row>
     <row r="27" customHeight="1" spans="2:59">
       <c r="B27" s="16"/>
       <c r="F27" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="BG27" s="49"/>
     </row>
@@ -43013,7 +43025,7 @@
     <row r="32" customHeight="1" spans="2:59">
       <c r="B32" s="16"/>
       <c r="F32" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="R32" s="30"/>
       <c r="BG32" s="49"/>
@@ -43133,7 +43145,7 @@
     <row r="37" customHeight="1" spans="2:59">
       <c r="B37" s="16"/>
       <c r="F37" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="BG37" s="49"/>
     </row>
@@ -43158,7 +43170,7 @@
       <c r="R38" s="102"/>
       <c r="S38" s="102"/>
       <c r="T38" s="101" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="U38" s="102"/>
       <c r="V38" s="102"/>
@@ -43194,7 +43206,7 @@
       <c r="R39" s="111"/>
       <c r="S39" s="111"/>
       <c r="T39" s="247" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="U39" s="30"/>
       <c r="V39" s="30"/>
@@ -43230,7 +43242,7 @@
       <c r="R40" s="111"/>
       <c r="S40" s="111"/>
       <c r="T40" s="247" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -43252,7 +43264,7 @@
     <row r="42" customHeight="1" spans="2:59">
       <c r="B42" s="16"/>
       <c r="F42" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="BG42" s="49"/>
     </row>
@@ -43266,28 +43278,28 @@
     <row r="44" customHeight="1" spans="2:59">
       <c r="B44" s="16"/>
       <c r="F44" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="BG44" s="49"/>
     </row>
     <row r="45" customHeight="1" spans="2:59">
       <c r="B45" s="16"/>
       <c r="G45" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BG45" s="49"/>
     </row>
     <row r="46" customHeight="1" spans="2:59">
       <c r="B46" s="16"/>
       <c r="F46" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="BG46" s="49"/>
     </row>
     <row r="47" customHeight="1" spans="2:59">
       <c r="B47" s="16"/>
       <c r="G47" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="BG47" s="49"/>
     </row>
@@ -43298,14 +43310,14 @@
     <row r="49" customHeight="1" spans="2:59">
       <c r="B49" s="16"/>
       <c r="E49" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="BG49" s="49"/>
     </row>
     <row r="50" customHeight="1" spans="2:59">
       <c r="B50" s="16"/>
       <c r="F50" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="BG50" s="49"/>
     </row>
@@ -43319,21 +43331,21 @@
     <row r="52" customHeight="1" spans="2:59">
       <c r="B52" s="16"/>
       <c r="F52" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="BG52" s="49"/>
     </row>
     <row r="53" customHeight="1" spans="2:59">
       <c r="B53" s="16"/>
       <c r="F53" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="BG53" s="49"/>
     </row>
     <row r="54" customHeight="1" spans="2:59">
       <c r="B54" s="16"/>
       <c r="G54" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="BG54" s="49"/>
     </row>
@@ -43344,14 +43356,14 @@
     <row r="56" customHeight="1" spans="2:59">
       <c r="B56" s="16"/>
       <c r="E56" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="BG56" s="49"/>
     </row>
     <row r="57" customHeight="1" spans="2:59">
       <c r="B57" s="16"/>
       <c r="F57" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="BG57" s="49"/>
     </row>
@@ -43365,14 +43377,14 @@
     <row r="59" customHeight="1" spans="2:59">
       <c r="B59" s="16"/>
       <c r="F59" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="BG59" s="49"/>
     </row>
     <row r="60" customHeight="1" spans="2:59">
       <c r="B60" s="16"/>
       <c r="F60" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="BG60" s="49"/>
     </row>
@@ -43517,7 +43529,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -43713,42 +43725,42 @@
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
       <c r="E6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="BG6" s="49"/>
     </row>
     <row r="7" customHeight="1" spans="2:59">
       <c r="B7" s="16"/>
       <c r="F7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="BG7" s="49"/>
     </row>
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
       <c r="G8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="BG8" s="49"/>
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
       <c r="E9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="BG9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="2:59">
       <c r="B10" s="16"/>
       <c r="F10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="BG10" s="49"/>
     </row>
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
       <c r="G11" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="BG11" s="49"/>
     </row>
@@ -43838,14 +43850,14 @@
     <row r="26" customHeight="1" spans="2:59">
       <c r="B26" s="16"/>
       <c r="E26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="BG26" s="49"/>
     </row>
     <row r="27" customHeight="1" spans="2:59">
       <c r="B27" s="16"/>
       <c r="F27" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="BG27" s="49"/>
     </row>
@@ -43970,7 +43982,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="20"/>
       <c r="T31" s="248" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="U31" s="82"/>
       <c r="V31" s="82"/>
@@ -44004,7 +44016,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="20"/>
       <c r="T32" s="248" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="U32" s="82"/>
       <c r="V32" s="82"/>
@@ -44141,7 +44153,7 @@
     <row r="39" customHeight="1" spans="2:59">
       <c r="B39" s="16"/>
       <c r="F39" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="BG39" s="49"/>
     </row>
@@ -44281,7 +44293,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="8" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -44327,7 +44339,7 @@
       <c r="AQ1" s="7"/>
       <c r="AR1" s="7"/>
       <c r="AS1" s="8" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AT1" s="8"/>
       <c r="AU1" s="8"/>
@@ -44432,7 +44444,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -44500,7 +44512,7 @@
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -44548,7 +44560,7 @@
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -44596,7 +44608,7 @@
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -44605,7 +44617,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -44614,7 +44626,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -44759,46 +44771,46 @@
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>125</v>
@@ -44839,46 +44851,46 @@
       <c r="AH18" s="56"/>
       <c r="AI18" s="56"/>
       <c r="AJ18" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:49">
@@ -44947,13 +44959,13 @@
         <v>131</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AA19" s="3" t="s">
         <v>127</v>
@@ -44987,25 +44999,25 @@
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="19" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>133</v>
@@ -45123,22 +45135,22 @@
         <v>135</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -45157,46 +45169,46 @@
       <c r="AH21" s="56"/>
       <c r="AI21" s="56"/>
       <c r="AJ21" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AU21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AW21" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:49">
@@ -45247,22 +45259,22 @@
         <v>139</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -45281,46 +45293,46 @@
       <c r="AH22" s="56"/>
       <c r="AI22" s="56"/>
       <c r="AJ22" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AW22" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:17">
@@ -45358,31 +45370,31 @@
         <v>103</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:49">
@@ -45457,46 +45469,46 @@
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>125</v>
@@ -45537,46 +45549,46 @@
       <c r="AH29" s="56"/>
       <c r="AI29" s="56"/>
       <c r="AJ29" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AQ29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AS29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AT29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AU29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AV29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AW29" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:49">
@@ -45615,7 +45627,7 @@
         <v>150</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>131</v>
@@ -45633,13 +45645,13 @@
         <v>131</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>127</v>
@@ -45703,7 +45715,7 @@
         <v>154</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -45785,22 +45797,22 @@
         <v>139</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -45819,46 +45831,46 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="56"/>
       <c r="AJ32" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AL32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AM32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AN32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AO32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AQ32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AS32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AT32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AV32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AW32" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:17">
@@ -45871,7 +45883,7 @@
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
       <c r="H36" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -45893,34 +45905,34 @@
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
       <c r="H37" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:49">
@@ -45995,46 +46007,46 @@
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>125</v>
@@ -46075,46 +46087,46 @@
       <c r="AH39" s="56"/>
       <c r="AI39" s="56"/>
       <c r="AJ39" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AK39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AL39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AM39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AN39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AO39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AP39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AQ39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AR39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AS39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AT39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AU39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AV39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AW39" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:49">
@@ -46153,7 +46165,7 @@
         <v>150</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>131</v>
@@ -46171,7 +46183,7 @@
         <v>131</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
@@ -46187,7 +46199,7 @@
       <c r="AH40" s="56"/>
       <c r="AI40" s="56"/>
       <c r="AJ40" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
@@ -46209,7 +46221,7 @@
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -46218,7 +46230,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="19" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>150</v>
@@ -46239,7 +46251,7 @@
         <v>150</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>131</v>
@@ -46257,7 +46269,7 @@
         <v>131</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
@@ -46293,7 +46305,7 @@
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -46323,22 +46335,22 @@
         <v>165</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
@@ -46377,7 +46389,7 @@
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -46386,43 +46398,43 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>652</v>
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
@@ -46459,7 +46471,7 @@
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -46468,7 +46480,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -46492,7 +46504,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="56" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AF44" s="56"/>
       <c r="AG44" s="56"/>
@@ -46519,7 +46531,7 @@
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -46528,7 +46540,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -46537,7 +46549,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>131</v>
@@ -46587,7 +46599,7 @@
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -46596,7 +46608,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -46647,7 +46659,7 @@
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -46665,7 +46677,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>131</v>
@@ -46690,7 +46702,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="56" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AF47" s="56"/>
       <c r="AG47" s="56"/>
@@ -47179,13 +47191,13 @@
         <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AL18" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AZ18" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="BJ18" s="28"/>
       <c r="BV18" s="40"/>
@@ -47223,10 +47235,10 @@
     </row>
     <row r="25" customHeight="1" spans="38:52">
       <c r="AL25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AZ25" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -47297,7 +47309,7 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="24" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
@@ -47426,7 +47438,7 @@
     </row>
     <row r="3" s="5" customFormat="1" ht="25.95" customHeight="1" spans="2:2">
       <c r="B3" s="12" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:2">
@@ -47562,7 +47574,7 @@
         <v>130</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
@@ -47592,7 +47604,7 @@
         <v>133</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
@@ -47893,7 +47905,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="19" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -47953,7 +47965,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -48037,7 +48049,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="19" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
@@ -48071,7 +48083,7 @@
       <c r="AQ30" s="21"/>
       <c r="AR30" s="20"/>
       <c r="AS30" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AT30" s="21"/>
       <c r="AU30" s="21"/>
@@ -48095,7 +48107,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -48179,7 +48191,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="19" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
@@ -48200,7 +48212,7 @@
       <c r="AF32" s="21"/>
       <c r="AG32" s="20"/>
       <c r="AH32" s="19" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AI32" s="21"/>
       <c r="AJ32" s="21"/>
@@ -48213,7 +48225,7 @@
       <c r="AQ32" s="21"/>
       <c r="AR32" s="20"/>
       <c r="AS32" s="19" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AT32" s="21"/>
       <c r="AU32" s="21"/>
@@ -48260,7 +48272,7 @@
       <c r="T33" s="21"/>
       <c r="U33" s="20"/>
       <c r="V33" s="19" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
@@ -48330,7 +48342,7 @@
       <c r="T34" s="21"/>
       <c r="U34" s="20"/>
       <c r="V34" s="19" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
@@ -48493,7 +48505,7 @@
     <row r="37" ht="18.35"/>
     <row r="38" s="5" customFormat="1" ht="25.95" customHeight="1" spans="2:2">
       <c r="B38" s="12" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" ht="18.35"/>
@@ -48560,14 +48572,14 @@
     <row r="41" spans="2:59">
       <c r="B41" s="16"/>
       <c r="D41" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="BG41" s="49"/>
     </row>
     <row r="42" spans="2:59">
       <c r="B42" s="16"/>
       <c r="E42" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="BG42" s="49"/>
     </row>
@@ -48578,14 +48590,14 @@
     <row r="44" spans="2:59">
       <c r="B44" s="16"/>
       <c r="D44" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="BG44" s="49"/>
     </row>
     <row r="45" spans="2:59">
       <c r="B45" s="16"/>
       <c r="E45" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="BG45" s="49"/>
     </row>
@@ -48604,14 +48616,14 @@
     <row r="49" spans="2:59">
       <c r="B49" s="16"/>
       <c r="D49" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="BG49" s="49"/>
     </row>
     <row r="50" spans="2:59">
       <c r="B50" s="16"/>
       <c r="E50" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="BG50" s="49"/>
     </row>
@@ -48621,72 +48633,72 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AM51" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="BG51" s="49"/>
     </row>
     <row r="52" spans="2:59">
       <c r="B52" s="16"/>
       <c r="G52" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L52" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="O52" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AF52" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="BG52" s="49"/>
     </row>
     <row r="53" spans="2:59">
       <c r="B53" s="16"/>
       <c r="L53" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O53" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="R53" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="BG53" s="49"/>
     </row>
     <row r="54" spans="2:59">
       <c r="B54" s="16"/>
       <c r="L54" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="O54" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="W54" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="BG54" s="49"/>
     </row>
     <row r="55" spans="2:59">
       <c r="B55" s="16"/>
       <c r="L55" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O55" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="W55" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="BG55" s="49"/>
     </row>
     <row r="56" spans="2:59">
       <c r="B56" s="16"/>
       <c r="E56" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="BG56" s="49"/>
     </row>
@@ -48696,42 +48708,42 @@
         <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="BG57" s="49"/>
     </row>
     <row r="58" spans="2:59">
       <c r="B58" s="16"/>
       <c r="G58" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L58" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="P58" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="S58" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="W58" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="X58" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="BG58" s="49"/>
     </row>
     <row r="59" spans="2:59">
       <c r="B59" s="16"/>
       <c r="S59" t="s">
+        <v>713</v>
+      </c>
+      <c r="W59" t="s">
         <v>711</v>
       </c>
-      <c r="W59" t="s">
-        <v>709</v>
-      </c>
       <c r="X59" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="BG59" s="49"/>
     </row>
@@ -48742,50 +48754,50 @@
     <row r="61" spans="2:59">
       <c r="B61" s="16"/>
       <c r="F61" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="BG61" s="49"/>
     </row>
     <row r="62" spans="2:59">
       <c r="B62" s="16"/>
       <c r="H62" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M62" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="P62" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="BG62" s="49"/>
     </row>
     <row r="63" spans="2:59">
       <c r="B63" s="16"/>
       <c r="M63" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="P63" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="BG63" s="49"/>
     </row>
     <row r="64" spans="2:59">
       <c r="B64" s="16"/>
       <c r="M64" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="P64" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="BG64" s="49"/>
     </row>
     <row r="65" spans="2:59">
       <c r="B65" s="16"/>
       <c r="M65" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="P65" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="BG65" s="49"/>
     </row>
@@ -48796,7 +48808,7 @@
     <row r="67" spans="2:59">
       <c r="B67" s="16"/>
       <c r="F67" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="BG67" s="49"/>
     </row>
@@ -48806,7 +48818,7 @@
         <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="BG68" s="49"/>
     </row>
@@ -48831,14 +48843,14 @@
     <row r="72" spans="2:59">
       <c r="B72" s="16"/>
       <c r="D72" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="BG72" s="49"/>
     </row>
     <row r="73" spans="2:59">
       <c r="B73" s="16"/>
       <c r="E73" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="BG73" s="49"/>
     </row>
@@ -49021,34 +49033,34 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -51071,7 +51083,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -51079,7 +51091,7 @@
         <v>45465</v>
       </c>
       <c r="C2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -51102,7 +51114,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -51110,72 +51122,72 @@
         <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -51212,7 +51224,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -51220,7 +51232,7 @@
         <v>44965</v>
       </c>
       <c r="B2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -51228,17 +51240,17 @@
         <v>44975</v>
       </c>
       <c r="B3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -55727,8 +55739,8 @@
   <sheetPr/>
   <dimension ref="A1:BH42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AS32" sqref="AS32:BF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -56631,7 +56643,9 @@
       <c r="AP32" s="21"/>
       <c r="AQ32" s="21"/>
       <c r="AR32" s="20"/>
-      <c r="AS32" s="19"/>
+      <c r="AS32" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="AT32" s="21"/>
       <c r="AU32" s="21"/>
       <c r="AV32" s="21"/>
@@ -56654,7 +56668,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -56662,7 +56676,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -56730,7 +56744,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
@@ -56745,7 +56759,7 @@
       <c r="T34" s="21"/>
       <c r="U34" s="20"/>
       <c r="V34" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
@@ -56759,7 +56773,7 @@
       <c r="AF34" s="21"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AI34" s="21"/>
       <c r="AJ34" s="21"/>
@@ -56772,7 +56786,7 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="20"/>
       <c r="AS34" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AT34" s="21"/>
       <c r="AU34" s="21"/>
@@ -57462,7 +57476,7 @@
   <sheetPr/>
   <dimension ref="A1:BH55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -58720,7 +58734,7 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -58728,7 +58742,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -58796,7 +58810,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
@@ -58811,7 +58825,7 @@
       <c r="T40" s="21"/>
       <c r="U40" s="20"/>
       <c r="V40" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
@@ -58825,7 +58839,7 @@
       <c r="AF40" s="21"/>
       <c r="AG40" s="20"/>
       <c r="AH40" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AI40" s="21"/>
       <c r="AJ40" s="21"/>
@@ -58838,7 +58852,7 @@
       <c r="AQ40" s="21"/>
       <c r="AR40" s="20"/>
       <c r="AS40" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AT40" s="21"/>
       <c r="AU40" s="21"/>

--- a/設計書課題　OBM村山.xlsx
+++ b/設計書課題　OBM村山.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18592" windowHeight="8940" tabRatio="930" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="18592" windowHeight="8940" tabRatio="930" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="15" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
     <t>ユーザー・一覧画面</t>
   </si>
   <si>
-    <t>ユーザー買い物一覧</t>
+    <t>ユーザー一覧</t>
   </si>
   <si>
     <t>ユーザー</t>
@@ -2052,7 +2052,7 @@
     <t>ログアウトのSQLを実施</t>
   </si>
   <si>
-    <t>＝ログイン失敗の種別コード</t>
+    <t>＝ログアウトの種別コード</t>
   </si>
   <si>
     <t>＝ログタイムスタンプ</t>
@@ -3808,7 +3808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4246,7 +4246,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -21849,8 +21848,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="230" customFormat="1" ht="22.1" spans="3:3">
-      <c r="C4" s="231" t="s">
+    <row r="4" s="229" customFormat="1" ht="22.1" spans="3:3">
+      <c r="C4" s="230" t="s">
         <v>1</v>
       </c>
     </row>
@@ -21865,12 +21864,12 @@
       </c>
     </row>
     <row r="9" spans="23:63">
-      <c r="W9" s="234"/>
-      <c r="X9" s="235"/>
-      <c r="Y9" s="235"/>
-      <c r="Z9" s="235"/>
-      <c r="AA9" s="235"/>
-      <c r="AB9" s="240"/>
+      <c r="W9" s="233"/>
+      <c r="X9" s="234"/>
+      <c r="Y9" s="234"/>
+      <c r="Z9" s="234"/>
+      <c r="AA9" s="234"/>
+      <c r="AB9" s="239"/>
       <c r="AE9" s="51" t="s">
         <v>4</v>
       </c>
@@ -21909,29 +21908,29 @@
       </c>
     </row>
     <row r="10" spans="23:61">
-      <c r="W10" s="236" t="s">
+      <c r="W10" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="237"/>
-      <c r="Z10" s="237"/>
-      <c r="AA10" s="237"/>
-      <c r="AB10" s="241"/>
-      <c r="AC10" s="242"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="236"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
+      <c r="AB10" s="240"/>
+      <c r="AC10" s="241"/>
       <c r="AE10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BI10" s="40"/>
     </row>
     <row r="11" spans="23:61">
-      <c r="W11" s="238" t="s">
+      <c r="W11" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="239"/>
-      <c r="Y11" s="239"/>
-      <c r="Z11" s="239"/>
-      <c r="AA11" s="239"/>
-      <c r="AB11" s="243"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="242"/>
       <c r="AE11" s="29" t="s">
         <v>9</v>
       </c>
@@ -21967,12 +21966,12 @@
       <c r="BI11" s="41"/>
     </row>
     <row r="14" spans="23:61">
-      <c r="W14" s="234"/>
-      <c r="X14" s="235"/>
-      <c r="Y14" s="235"/>
-      <c r="Z14" s="235"/>
-      <c r="AA14" s="235"/>
-      <c r="AB14" s="240"/>
+      <c r="W14" s="233"/>
+      <c r="X14" s="234"/>
+      <c r="Y14" s="234"/>
+      <c r="Z14" s="234"/>
+      <c r="AA14" s="234"/>
+      <c r="AB14" s="239"/>
       <c r="AE14" s="51" t="s">
         <v>10</v>
       </c>
@@ -22008,29 +22007,29 @@
       <c r="BI14" s="53"/>
     </row>
     <row r="15" spans="23:61">
-      <c r="W15" s="236" t="s">
+      <c r="W15" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="X15" s="237"/>
-      <c r="Y15" s="237"/>
-      <c r="Z15" s="237"/>
-      <c r="AA15" s="237"/>
-      <c r="AB15" s="241"/>
-      <c r="AC15" s="242"/>
+      <c r="X15" s="236"/>
+      <c r="Y15" s="236"/>
+      <c r="Z15" s="236"/>
+      <c r="AA15" s="236"/>
+      <c r="AB15" s="240"/>
+      <c r="AC15" s="241"/>
       <c r="AE15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="BI15" s="40"/>
     </row>
     <row r="16" spans="23:61">
-      <c r="W16" s="238" t="s">
+      <c r="W16" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="X16" s="239"/>
-      <c r="Y16" s="239"/>
-      <c r="Z16" s="239"/>
-      <c r="AA16" s="239"/>
-      <c r="AB16" s="243"/>
+      <c r="X16" s="238"/>
+      <c r="Y16" s="238"/>
+      <c r="Z16" s="238"/>
+      <c r="AA16" s="238"/>
+      <c r="AB16" s="242"/>
       <c r="AE16" s="29" t="s">
         <v>14</v>
       </c>
@@ -22066,12 +22065,12 @@
       <c r="BI16" s="41"/>
     </row>
     <row r="19" spans="23:61">
-      <c r="W19" s="234"/>
-      <c r="X19" s="235"/>
-      <c r="Y19" s="235"/>
-      <c r="Z19" s="235"/>
-      <c r="AA19" s="235"/>
-      <c r="AB19" s="240"/>
+      <c r="W19" s="233"/>
+      <c r="X19" s="234"/>
+      <c r="Y19" s="234"/>
+      <c r="Z19" s="234"/>
+      <c r="AA19" s="234"/>
+      <c r="AB19" s="239"/>
       <c r="AE19" s="51" t="s">
         <v>15</v>
       </c>
@@ -22107,29 +22106,29 @@
       <c r="BI19" s="53"/>
     </row>
     <row r="20" spans="23:61">
-      <c r="W20" s="236" t="s">
+      <c r="W20" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="X20" s="237"/>
-      <c r="Y20" s="237"/>
-      <c r="Z20" s="237"/>
-      <c r="AA20" s="237"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="242"/>
+      <c r="X20" s="236"/>
+      <c r="Y20" s="236"/>
+      <c r="Z20" s="236"/>
+      <c r="AA20" s="236"/>
+      <c r="AB20" s="240"/>
+      <c r="AC20" s="241"/>
       <c r="AE20" s="28" t="s">
         <v>17</v>
       </c>
       <c r="BI20" s="40"/>
     </row>
     <row r="21" spans="23:61">
-      <c r="W21" s="238" t="s">
+      <c r="W21" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="X21" s="239"/>
-      <c r="Y21" s="239"/>
-      <c r="Z21" s="239"/>
-      <c r="AA21" s="239"/>
-      <c r="AB21" s="243"/>
+      <c r="X21" s="238"/>
+      <c r="Y21" s="238"/>
+      <c r="Z21" s="238"/>
+      <c r="AA21" s="238"/>
+      <c r="AB21" s="242"/>
       <c r="AE21" s="29" t="s">
         <v>19</v>
       </c>
@@ -22165,12 +22164,12 @@
       <c r="BI21" s="41"/>
     </row>
     <row r="24" spans="23:61">
-      <c r="W24" s="234"/>
-      <c r="X24" s="235"/>
-      <c r="Y24" s="235"/>
-      <c r="Z24" s="235"/>
-      <c r="AA24" s="235"/>
-      <c r="AB24" s="240"/>
+      <c r="W24" s="233"/>
+      <c r="X24" s="234"/>
+      <c r="Y24" s="234"/>
+      <c r="Z24" s="234"/>
+      <c r="AA24" s="234"/>
+      <c r="AB24" s="239"/>
       <c r="AE24" s="51" t="s">
         <v>20</v>
       </c>
@@ -22206,29 +22205,29 @@
       <c r="BI24" s="53"/>
     </row>
     <row r="25" spans="23:61">
-      <c r="W25" s="236" t="s">
+      <c r="W25" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="X25" s="237"/>
-      <c r="Y25" s="237"/>
-      <c r="Z25" s="237"/>
-      <c r="AA25" s="237"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="242"/>
+      <c r="X25" s="236"/>
+      <c r="Y25" s="236"/>
+      <c r="Z25" s="236"/>
+      <c r="AA25" s="236"/>
+      <c r="AB25" s="240"/>
+      <c r="AC25" s="241"/>
       <c r="AE25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="BI25" s="40"/>
     </row>
     <row r="26" spans="23:61">
-      <c r="W26" s="238" t="s">
+      <c r="W26" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="X26" s="239"/>
-      <c r="Y26" s="239"/>
-      <c r="Z26" s="239"/>
-      <c r="AA26" s="239"/>
-      <c r="AB26" s="243"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="238"/>
+      <c r="Z26" s="238"/>
+      <c r="AA26" s="238"/>
+      <c r="AB26" s="242"/>
       <c r="AE26" s="29" t="s">
         <v>24</v>
       </c>
@@ -22264,12 +22263,12 @@
       <c r="BI26" s="41"/>
     </row>
     <row r="29" spans="23:61">
-      <c r="W29" s="234"/>
-      <c r="X29" s="235"/>
-      <c r="Y29" s="235"/>
-      <c r="Z29" s="235"/>
-      <c r="AA29" s="235"/>
-      <c r="AB29" s="240"/>
+      <c r="W29" s="233"/>
+      <c r="X29" s="234"/>
+      <c r="Y29" s="234"/>
+      <c r="Z29" s="234"/>
+      <c r="AA29" s="234"/>
+      <c r="AB29" s="239"/>
       <c r="AE29" s="51" t="s">
         <v>25</v>
       </c>
@@ -22305,29 +22304,29 @@
       <c r="BI29" s="53"/>
     </row>
     <row r="30" spans="23:61">
-      <c r="W30" s="236" t="s">
+      <c r="W30" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="X30" s="237"/>
-      <c r="Y30" s="237"/>
-      <c r="Z30" s="237"/>
-      <c r="AA30" s="237"/>
-      <c r="AB30" s="241"/>
-      <c r="AC30" s="242"/>
+      <c r="X30" s="236"/>
+      <c r="Y30" s="236"/>
+      <c r="Z30" s="236"/>
+      <c r="AA30" s="236"/>
+      <c r="AB30" s="240"/>
+      <c r="AC30" s="241"/>
       <c r="AE30" s="28" t="s">
         <v>27</v>
       </c>
       <c r="BI30" s="40"/>
     </row>
     <row r="31" spans="23:61">
-      <c r="W31" s="238" t="s">
+      <c r="W31" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="X31" s="239"/>
-      <c r="Y31" s="239"/>
-      <c r="Z31" s="239"/>
-      <c r="AA31" s="239"/>
-      <c r="AB31" s="243"/>
+      <c r="X31" s="238"/>
+      <c r="Y31" s="238"/>
+      <c r="Z31" s="238"/>
+      <c r="AA31" s="238"/>
+      <c r="AB31" s="242"/>
       <c r="AE31" s="29"/>
       <c r="AF31" s="30"/>
       <c r="AG31" s="30"/>
@@ -22361,12 +22360,12 @@
       <c r="BI31" s="41"/>
     </row>
     <row r="34" spans="23:61">
-      <c r="W34" s="234"/>
-      <c r="X34" s="235"/>
-      <c r="Y34" s="235"/>
-      <c r="Z34" s="235"/>
-      <c r="AA34" s="235"/>
-      <c r="AB34" s="240"/>
+      <c r="W34" s="233"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="234"/>
+      <c r="Z34" s="234"/>
+      <c r="AA34" s="234"/>
+      <c r="AB34" s="239"/>
       <c r="AE34" s="51" t="s">
         <v>29</v>
       </c>
@@ -22402,29 +22401,29 @@
       <c r="BI34" s="53"/>
     </row>
     <row r="35" spans="23:61">
-      <c r="W35" s="236" t="s">
+      <c r="W35" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="X35" s="237"/>
-      <c r="Y35" s="237"/>
-      <c r="Z35" s="237"/>
-      <c r="AA35" s="237"/>
-      <c r="AB35" s="241"/>
-      <c r="AC35" s="242"/>
+      <c r="X35" s="236"/>
+      <c r="Y35" s="236"/>
+      <c r="Z35" s="236"/>
+      <c r="AA35" s="236"/>
+      <c r="AB35" s="240"/>
+      <c r="AC35" s="241"/>
       <c r="AE35" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BI35" s="40"/>
     </row>
     <row r="36" spans="23:63">
-      <c r="W36" s="238" t="s">
+      <c r="W36" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="X36" s="239"/>
-      <c r="Y36" s="239"/>
-      <c r="Z36" s="239"/>
-      <c r="AA36" s="239"/>
-      <c r="AB36" s="243"/>
+      <c r="X36" s="238"/>
+      <c r="Y36" s="238"/>
+      <c r="Z36" s="238"/>
+      <c r="AA36" s="238"/>
+      <c r="AB36" s="242"/>
       <c r="AE36" s="29" t="s">
         <v>33</v>
       </c>
@@ -22462,8 +22461,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" s="230" customFormat="1" ht="22.1" spans="3:3">
-      <c r="C39" s="231" t="s">
+    <row r="39" s="229" customFormat="1" ht="22.1" spans="3:3">
+      <c r="C39" s="230" t="s">
         <v>35</v>
       </c>
     </row>
@@ -22493,1287 +22492,1287 @@
       </c>
     </row>
     <row r="48" spans="5:50">
-      <c r="E48" s="232" t="s">
+      <c r="E48" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="232" t="s">
+      <c r="F48" s="231" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="233"/>
-      <c r="H48" s="233"/>
-      <c r="I48" s="233"/>
-      <c r="J48" s="233"/>
-      <c r="K48" s="233"/>
-      <c r="L48" s="233"/>
-      <c r="M48" s="233"/>
-      <c r="N48" s="233"/>
-      <c r="O48" s="233"/>
-      <c r="P48" s="233"/>
-      <c r="Q48" s="233"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="233"/>
-      <c r="T48" s="233"/>
-      <c r="U48" s="233"/>
-      <c r="V48" s="233"/>
-      <c r="W48" s="233"/>
-      <c r="X48" s="233"/>
-      <c r="Y48" s="233"/>
-      <c r="Z48" s="233"/>
-      <c r="AA48" s="233"/>
-      <c r="AB48" s="233"/>
-      <c r="AC48" s="233"/>
-      <c r="AD48" s="233"/>
-      <c r="AE48" s="233"/>
-      <c r="AF48" s="233"/>
-      <c r="AG48" s="233"/>
-      <c r="AH48" s="233"/>
-      <c r="AI48" s="233"/>
-      <c r="AJ48" s="233"/>
-      <c r="AK48" s="233"/>
-      <c r="AL48" s="233"/>
-      <c r="AM48" s="233"/>
-      <c r="AN48" s="233"/>
-      <c r="AO48" s="233"/>
-      <c r="AP48" s="233"/>
-      <c r="AQ48" s="233"/>
-      <c r="AR48" s="233"/>
-      <c r="AS48" s="233"/>
-      <c r="AT48" s="233"/>
-      <c r="AU48" s="233"/>
-      <c r="AV48" s="233"/>
-      <c r="AW48" s="233"/>
-      <c r="AX48" s="233"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="232"/>
+      <c r="I48" s="232"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="232"/>
+      <c r="L48" s="232"/>
+      <c r="M48" s="232"/>
+      <c r="N48" s="232"/>
+      <c r="O48" s="232"/>
+      <c r="P48" s="232"/>
+      <c r="Q48" s="232"/>
+      <c r="R48" s="232"/>
+      <c r="S48" s="232"/>
+      <c r="T48" s="232"/>
+      <c r="U48" s="232"/>
+      <c r="V48" s="232"/>
+      <c r="W48" s="232"/>
+      <c r="X48" s="232"/>
+      <c r="Y48" s="232"/>
+      <c r="Z48" s="232"/>
+      <c r="AA48" s="232"/>
+      <c r="AB48" s="232"/>
+      <c r="AC48" s="232"/>
+      <c r="AD48" s="232"/>
+      <c r="AE48" s="232"/>
+      <c r="AF48" s="232"/>
+      <c r="AG48" s="232"/>
+      <c r="AH48" s="232"/>
+      <c r="AI48" s="232"/>
+      <c r="AJ48" s="232"/>
+      <c r="AK48" s="232"/>
+      <c r="AL48" s="232"/>
+      <c r="AM48" s="232"/>
+      <c r="AN48" s="232"/>
+      <c r="AO48" s="232"/>
+      <c r="AP48" s="232"/>
+      <c r="AQ48" s="232"/>
+      <c r="AR48" s="232"/>
+      <c r="AS48" s="232"/>
+      <c r="AT48" s="232"/>
+      <c r="AU48" s="232"/>
+      <c r="AV48" s="232"/>
+      <c r="AW48" s="232"/>
+      <c r="AX48" s="232"/>
     </row>
     <row r="49" spans="5:50">
-      <c r="E49" s="233"/>
-      <c r="F49" s="233" t="s">
+      <c r="E49" s="232"/>
+      <c r="F49" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="233" t="s">
+      <c r="G49" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="233"/>
-      <c r="I49" s="233"/>
-      <c r="J49" s="233"/>
-      <c r="K49" s="233"/>
-      <c r="L49" s="233"/>
-      <c r="M49" s="233"/>
-      <c r="N49" s="233"/>
-      <c r="O49" s="233"/>
-      <c r="P49" s="233"/>
-      <c r="Q49" s="233"/>
-      <c r="R49" s="233"/>
-      <c r="S49" s="233"/>
-      <c r="T49" s="233"/>
-      <c r="U49" s="233"/>
-      <c r="V49" s="233"/>
-      <c r="W49" s="233"/>
-      <c r="X49" s="233"/>
-      <c r="Y49" s="233"/>
-      <c r="Z49" s="233"/>
-      <c r="AA49" s="233"/>
-      <c r="AB49" s="233"/>
-      <c r="AC49" s="233"/>
-      <c r="AD49" s="233"/>
-      <c r="AE49" s="233"/>
-      <c r="AF49" s="233"/>
-      <c r="AG49" s="233"/>
-      <c r="AH49" s="233"/>
-      <c r="AI49" s="233"/>
-      <c r="AJ49" s="233"/>
-      <c r="AK49" s="233"/>
-      <c r="AL49" s="233"/>
-      <c r="AM49" s="233"/>
-      <c r="AN49" s="233"/>
-      <c r="AO49" s="233"/>
-      <c r="AP49" s="233"/>
-      <c r="AQ49" s="233"/>
-      <c r="AR49" s="233"/>
-      <c r="AS49" s="233"/>
-      <c r="AT49" s="233"/>
-      <c r="AU49" s="233"/>
-      <c r="AV49" s="233"/>
-      <c r="AW49" s="233"/>
-      <c r="AX49" s="233"/>
+      <c r="H49" s="232"/>
+      <c r="I49" s="232"/>
+      <c r="J49" s="232"/>
+      <c r="K49" s="232"/>
+      <c r="L49" s="232"/>
+      <c r="M49" s="232"/>
+      <c r="N49" s="232"/>
+      <c r="O49" s="232"/>
+      <c r="P49" s="232"/>
+      <c r="Q49" s="232"/>
+      <c r="R49" s="232"/>
+      <c r="S49" s="232"/>
+      <c r="T49" s="232"/>
+      <c r="U49" s="232"/>
+      <c r="V49" s="232"/>
+      <c r="W49" s="232"/>
+      <c r="X49" s="232"/>
+      <c r="Y49" s="232"/>
+      <c r="Z49" s="232"/>
+      <c r="AA49" s="232"/>
+      <c r="AB49" s="232"/>
+      <c r="AC49" s="232"/>
+      <c r="AD49" s="232"/>
+      <c r="AE49" s="232"/>
+      <c r="AF49" s="232"/>
+      <c r="AG49" s="232"/>
+      <c r="AH49" s="232"/>
+      <c r="AI49" s="232"/>
+      <c r="AJ49" s="232"/>
+      <c r="AK49" s="232"/>
+      <c r="AL49" s="232"/>
+      <c r="AM49" s="232"/>
+      <c r="AN49" s="232"/>
+      <c r="AO49" s="232"/>
+      <c r="AP49" s="232"/>
+      <c r="AQ49" s="232"/>
+      <c r="AR49" s="232"/>
+      <c r="AS49" s="232"/>
+      <c r="AT49" s="232"/>
+      <c r="AU49" s="232"/>
+      <c r="AV49" s="232"/>
+      <c r="AW49" s="232"/>
+      <c r="AX49" s="232"/>
     </row>
     <row r="50" spans="5:50">
-      <c r="E50" s="233"/>
-      <c r="F50" s="233" t="s">
+      <c r="E50" s="232"/>
+      <c r="F50" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="233" t="s">
+      <c r="G50" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="233"/>
-      <c r="I50" s="233"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="233"/>
-      <c r="L50" s="233"/>
-      <c r="M50" s="233"/>
-      <c r="N50" s="233"/>
-      <c r="O50" s="233"/>
-      <c r="P50" s="233"/>
-      <c r="Q50" s="233"/>
-      <c r="R50" s="233"/>
-      <c r="S50" s="233"/>
-      <c r="T50" s="233"/>
-      <c r="U50" s="233"/>
-      <c r="V50" s="233"/>
-      <c r="W50" s="233"/>
-      <c r="X50" s="233"/>
-      <c r="Y50" s="233"/>
-      <c r="Z50" s="233"/>
-      <c r="AA50" s="233"/>
-      <c r="AB50" s="233"/>
-      <c r="AC50" s="233"/>
-      <c r="AD50" s="233"/>
-      <c r="AE50" s="233"/>
-      <c r="AF50" s="233"/>
-      <c r="AG50" s="233"/>
-      <c r="AH50" s="233"/>
-      <c r="AI50" s="233"/>
-      <c r="AJ50" s="233"/>
-      <c r="AK50" s="233"/>
-      <c r="AL50" s="233"/>
-      <c r="AM50" s="233"/>
-      <c r="AN50" s="233"/>
-      <c r="AO50" s="233"/>
-      <c r="AP50" s="233"/>
-      <c r="AQ50" s="233"/>
-      <c r="AR50" s="233"/>
-      <c r="AS50" s="233"/>
-      <c r="AT50" s="233"/>
-      <c r="AU50" s="233"/>
-      <c r="AV50" s="233"/>
-      <c r="AW50" s="233"/>
-      <c r="AX50" s="233"/>
+      <c r="H50" s="232"/>
+      <c r="I50" s="232"/>
+      <c r="J50" s="232"/>
+      <c r="K50" s="232"/>
+      <c r="L50" s="232"/>
+      <c r="M50" s="232"/>
+      <c r="N50" s="232"/>
+      <c r="O50" s="232"/>
+      <c r="P50" s="232"/>
+      <c r="Q50" s="232"/>
+      <c r="R50" s="232"/>
+      <c r="S50" s="232"/>
+      <c r="T50" s="232"/>
+      <c r="U50" s="232"/>
+      <c r="V50" s="232"/>
+      <c r="W50" s="232"/>
+      <c r="X50" s="232"/>
+      <c r="Y50" s="232"/>
+      <c r="Z50" s="232"/>
+      <c r="AA50" s="232"/>
+      <c r="AB50" s="232"/>
+      <c r="AC50" s="232"/>
+      <c r="AD50" s="232"/>
+      <c r="AE50" s="232"/>
+      <c r="AF50" s="232"/>
+      <c r="AG50" s="232"/>
+      <c r="AH50" s="232"/>
+      <c r="AI50" s="232"/>
+      <c r="AJ50" s="232"/>
+      <c r="AK50" s="232"/>
+      <c r="AL50" s="232"/>
+      <c r="AM50" s="232"/>
+      <c r="AN50" s="232"/>
+      <c r="AO50" s="232"/>
+      <c r="AP50" s="232"/>
+      <c r="AQ50" s="232"/>
+      <c r="AR50" s="232"/>
+      <c r="AS50" s="232"/>
+      <c r="AT50" s="232"/>
+      <c r="AU50" s="232"/>
+      <c r="AV50" s="232"/>
+      <c r="AW50" s="232"/>
+      <c r="AX50" s="232"/>
     </row>
     <row r="51" spans="5:50">
-      <c r="E51" s="233"/>
-      <c r="F51" s="233" t="s">
+      <c r="E51" s="232"/>
+      <c r="F51" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="233" t="s">
+      <c r="G51" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="233"/>
-      <c r="I51" s="233"/>
-      <c r="J51" s="233"/>
-      <c r="K51" s="233"/>
-      <c r="L51" s="233"/>
-      <c r="M51" s="233"/>
-      <c r="N51" s="233"/>
-      <c r="O51" s="233"/>
-      <c r="P51" s="233"/>
-      <c r="Q51" s="233"/>
-      <c r="R51" s="233"/>
-      <c r="S51" s="233"/>
-      <c r="T51" s="233"/>
-      <c r="U51" s="233"/>
-      <c r="V51" s="233"/>
-      <c r="W51" s="233"/>
-      <c r="X51" s="233"/>
-      <c r="Y51" s="233"/>
-      <c r="Z51" s="233"/>
-      <c r="AA51" s="233"/>
-      <c r="AB51" s="233"/>
-      <c r="AC51" s="233"/>
-      <c r="AD51" s="233"/>
-      <c r="AE51" s="233"/>
-      <c r="AF51" s="233"/>
-      <c r="AG51" s="233"/>
-      <c r="AH51" s="233"/>
-      <c r="AI51" s="233"/>
-      <c r="AJ51" s="233"/>
-      <c r="AK51" s="233"/>
-      <c r="AL51" s="233"/>
-      <c r="AM51" s="233"/>
-      <c r="AN51" s="233"/>
-      <c r="AO51" s="233"/>
-      <c r="AP51" s="233"/>
-      <c r="AQ51" s="233"/>
-      <c r="AR51" s="233"/>
-      <c r="AS51" s="233"/>
-      <c r="AT51" s="233"/>
-      <c r="AU51" s="233"/>
-      <c r="AV51" s="233"/>
-      <c r="AW51" s="233"/>
-      <c r="AX51" s="233"/>
+      <c r="H51" s="232"/>
+      <c r="I51" s="232"/>
+      <c r="J51" s="232"/>
+      <c r="K51" s="232"/>
+      <c r="L51" s="232"/>
+      <c r="M51" s="232"/>
+      <c r="N51" s="232"/>
+      <c r="O51" s="232"/>
+      <c r="P51" s="232"/>
+      <c r="Q51" s="232"/>
+      <c r="R51" s="232"/>
+      <c r="S51" s="232"/>
+      <c r="T51" s="232"/>
+      <c r="U51" s="232"/>
+      <c r="V51" s="232"/>
+      <c r="W51" s="232"/>
+      <c r="X51" s="232"/>
+      <c r="Y51" s="232"/>
+      <c r="Z51" s="232"/>
+      <c r="AA51" s="232"/>
+      <c r="AB51" s="232"/>
+      <c r="AC51" s="232"/>
+      <c r="AD51" s="232"/>
+      <c r="AE51" s="232"/>
+      <c r="AF51" s="232"/>
+      <c r="AG51" s="232"/>
+      <c r="AH51" s="232"/>
+      <c r="AI51" s="232"/>
+      <c r="AJ51" s="232"/>
+      <c r="AK51" s="232"/>
+      <c r="AL51" s="232"/>
+      <c r="AM51" s="232"/>
+      <c r="AN51" s="232"/>
+      <c r="AO51" s="232"/>
+      <c r="AP51" s="232"/>
+      <c r="AQ51" s="232"/>
+      <c r="AR51" s="232"/>
+      <c r="AS51" s="232"/>
+      <c r="AT51" s="232"/>
+      <c r="AU51" s="232"/>
+      <c r="AV51" s="232"/>
+      <c r="AW51" s="232"/>
+      <c r="AX51" s="232"/>
     </row>
     <row r="52" spans="5:50">
-      <c r="E52" s="233"/>
-      <c r="F52" s="233" t="s">
+      <c r="E52" s="232"/>
+      <c r="F52" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="233" t="s">
+      <c r="G52" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="233"/>
-      <c r="K52" s="233"/>
-      <c r="L52" s="233"/>
-      <c r="M52" s="233"/>
-      <c r="N52" s="233"/>
-      <c r="O52" s="233"/>
-      <c r="P52" s="233"/>
-      <c r="Q52" s="233"/>
-      <c r="R52" s="233"/>
-      <c r="S52" s="233"/>
-      <c r="T52" s="233"/>
-      <c r="U52" s="233"/>
-      <c r="V52" s="233"/>
-      <c r="W52" s="233"/>
-      <c r="X52" s="233"/>
-      <c r="Y52" s="233"/>
-      <c r="Z52" s="233"/>
-      <c r="AA52" s="233"/>
-      <c r="AB52" s="233"/>
-      <c r="AC52" s="233"/>
-      <c r="AD52" s="233"/>
-      <c r="AE52" s="233"/>
-      <c r="AF52" s="233"/>
-      <c r="AG52" s="233"/>
-      <c r="AH52" s="233"/>
-      <c r="AI52" s="233"/>
-      <c r="AJ52" s="233"/>
-      <c r="AK52" s="233"/>
-      <c r="AL52" s="233"/>
-      <c r="AM52" s="233"/>
-      <c r="AN52" s="233"/>
-      <c r="AO52" s="233"/>
-      <c r="AP52" s="233"/>
-      <c r="AQ52" s="233"/>
-      <c r="AR52" s="233"/>
-      <c r="AS52" s="233"/>
-      <c r="AT52" s="233"/>
-      <c r="AU52" s="233"/>
-      <c r="AV52" s="233"/>
-      <c r="AW52" s="233"/>
-      <c r="AX52" s="233"/>
+      <c r="H52" s="232"/>
+      <c r="I52" s="232"/>
+      <c r="J52" s="232"/>
+      <c r="K52" s="232"/>
+      <c r="L52" s="232"/>
+      <c r="M52" s="232"/>
+      <c r="N52" s="232"/>
+      <c r="O52" s="232"/>
+      <c r="P52" s="232"/>
+      <c r="Q52" s="232"/>
+      <c r="R52" s="232"/>
+      <c r="S52" s="232"/>
+      <c r="T52" s="232"/>
+      <c r="U52" s="232"/>
+      <c r="V52" s="232"/>
+      <c r="W52" s="232"/>
+      <c r="X52" s="232"/>
+      <c r="Y52" s="232"/>
+      <c r="Z52" s="232"/>
+      <c r="AA52" s="232"/>
+      <c r="AB52" s="232"/>
+      <c r="AC52" s="232"/>
+      <c r="AD52" s="232"/>
+      <c r="AE52" s="232"/>
+      <c r="AF52" s="232"/>
+      <c r="AG52" s="232"/>
+      <c r="AH52" s="232"/>
+      <c r="AI52" s="232"/>
+      <c r="AJ52" s="232"/>
+      <c r="AK52" s="232"/>
+      <c r="AL52" s="232"/>
+      <c r="AM52" s="232"/>
+      <c r="AN52" s="232"/>
+      <c r="AO52" s="232"/>
+      <c r="AP52" s="232"/>
+      <c r="AQ52" s="232"/>
+      <c r="AR52" s="232"/>
+      <c r="AS52" s="232"/>
+      <c r="AT52" s="232"/>
+      <c r="AU52" s="232"/>
+      <c r="AV52" s="232"/>
+      <c r="AW52" s="232"/>
+      <c r="AX52" s="232"/>
     </row>
     <row r="53" spans="5:50">
-      <c r="E53" s="233"/>
-      <c r="F53" s="233"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="233"/>
-      <c r="K53" s="233"/>
-      <c r="L53" s="233"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="233"/>
-      <c r="O53" s="233"/>
-      <c r="P53" s="233"/>
-      <c r="Q53" s="233"/>
-      <c r="R53" s="233"/>
-      <c r="S53" s="233"/>
-      <c r="T53" s="233"/>
-      <c r="U53" s="233"/>
-      <c r="V53" s="233"/>
-      <c r="W53" s="233"/>
-      <c r="X53" s="233"/>
-      <c r="Y53" s="233"/>
-      <c r="Z53" s="233"/>
-      <c r="AA53" s="233"/>
-      <c r="AB53" s="233"/>
-      <c r="AC53" s="233"/>
-      <c r="AD53" s="233"/>
-      <c r="AE53" s="233"/>
-      <c r="AF53" s="233"/>
-      <c r="AG53" s="233"/>
-      <c r="AH53" s="233"/>
-      <c r="AI53" s="233"/>
-      <c r="AJ53" s="233"/>
-      <c r="AK53" s="233"/>
-      <c r="AL53" s="233"/>
-      <c r="AM53" s="233"/>
-      <c r="AN53" s="233"/>
-      <c r="AO53" s="233"/>
-      <c r="AP53" s="233"/>
-      <c r="AQ53" s="233"/>
-      <c r="AR53" s="233"/>
-      <c r="AS53" s="233"/>
-      <c r="AT53" s="233"/>
-      <c r="AU53" s="233"/>
-      <c r="AV53" s="233"/>
-      <c r="AW53" s="233"/>
-      <c r="AX53" s="233"/>
+      <c r="E53" s="232"/>
+      <c r="F53" s="232"/>
+      <c r="G53" s="232"/>
+      <c r="H53" s="232"/>
+      <c r="I53" s="232"/>
+      <c r="J53" s="232"/>
+      <c r="K53" s="232"/>
+      <c r="L53" s="232"/>
+      <c r="M53" s="232"/>
+      <c r="N53" s="232"/>
+      <c r="O53" s="232"/>
+      <c r="P53" s="232"/>
+      <c r="Q53" s="232"/>
+      <c r="R53" s="232"/>
+      <c r="S53" s="232"/>
+      <c r="T53" s="232"/>
+      <c r="U53" s="232"/>
+      <c r="V53" s="232"/>
+      <c r="W53" s="232"/>
+      <c r="X53" s="232"/>
+      <c r="Y53" s="232"/>
+      <c r="Z53" s="232"/>
+      <c r="AA53" s="232"/>
+      <c r="AB53" s="232"/>
+      <c r="AC53" s="232"/>
+      <c r="AD53" s="232"/>
+      <c r="AE53" s="232"/>
+      <c r="AF53" s="232"/>
+      <c r="AG53" s="232"/>
+      <c r="AH53" s="232"/>
+      <c r="AI53" s="232"/>
+      <c r="AJ53" s="232"/>
+      <c r="AK53" s="232"/>
+      <c r="AL53" s="232"/>
+      <c r="AM53" s="232"/>
+      <c r="AN53" s="232"/>
+      <c r="AO53" s="232"/>
+      <c r="AP53" s="232"/>
+      <c r="AQ53" s="232"/>
+      <c r="AR53" s="232"/>
+      <c r="AS53" s="232"/>
+      <c r="AT53" s="232"/>
+      <c r="AU53" s="232"/>
+      <c r="AV53" s="232"/>
+      <c r="AW53" s="232"/>
+      <c r="AX53" s="232"/>
     </row>
     <row r="54" spans="5:50">
-      <c r="E54" s="232" t="s">
+      <c r="E54" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="232" t="s">
+      <c r="F54" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="233"/>
-      <c r="H54" s="233"/>
-      <c r="I54" s="233"/>
-      <c r="J54" s="233"/>
-      <c r="K54" s="233"/>
-      <c r="L54" s="233"/>
-      <c r="M54" s="233"/>
-      <c r="N54" s="233"/>
-      <c r="O54" s="233"/>
-      <c r="P54" s="233"/>
-      <c r="Q54" s="233"/>
-      <c r="R54" s="233"/>
-      <c r="S54" s="233"/>
-      <c r="T54" s="233"/>
-      <c r="U54" s="233"/>
-      <c r="V54" s="233"/>
-      <c r="W54" s="233"/>
-      <c r="X54" s="233"/>
-      <c r="Y54" s="233"/>
-      <c r="Z54" s="233"/>
-      <c r="AA54" s="233"/>
-      <c r="AB54" s="233"/>
-      <c r="AC54" s="233"/>
-      <c r="AD54" s="233"/>
-      <c r="AE54" s="233"/>
-      <c r="AF54" s="233"/>
-      <c r="AG54" s="233"/>
-      <c r="AH54" s="233"/>
-      <c r="AI54" s="233"/>
-      <c r="AJ54" s="233"/>
-      <c r="AK54" s="233"/>
-      <c r="AL54" s="233"/>
-      <c r="AM54" s="233"/>
-      <c r="AN54" s="233"/>
-      <c r="AO54" s="233"/>
-      <c r="AP54" s="233"/>
-      <c r="AQ54" s="233"/>
-      <c r="AR54" s="233"/>
-      <c r="AS54" s="233"/>
-      <c r="AT54" s="233"/>
-      <c r="AU54" s="233"/>
-      <c r="AV54" s="233"/>
-      <c r="AW54" s="233"/>
-      <c r="AX54" s="233"/>
+      <c r="G54" s="232"/>
+      <c r="H54" s="232"/>
+      <c r="I54" s="232"/>
+      <c r="J54" s="232"/>
+      <c r="K54" s="232"/>
+      <c r="L54" s="232"/>
+      <c r="M54" s="232"/>
+      <c r="N54" s="232"/>
+      <c r="O54" s="232"/>
+      <c r="P54" s="232"/>
+      <c r="Q54" s="232"/>
+      <c r="R54" s="232"/>
+      <c r="S54" s="232"/>
+      <c r="T54" s="232"/>
+      <c r="U54" s="232"/>
+      <c r="V54" s="232"/>
+      <c r="W54" s="232"/>
+      <c r="X54" s="232"/>
+      <c r="Y54" s="232"/>
+      <c r="Z54" s="232"/>
+      <c r="AA54" s="232"/>
+      <c r="AB54" s="232"/>
+      <c r="AC54" s="232"/>
+      <c r="AD54" s="232"/>
+      <c r="AE54" s="232"/>
+      <c r="AF54" s="232"/>
+      <c r="AG54" s="232"/>
+      <c r="AH54" s="232"/>
+      <c r="AI54" s="232"/>
+      <c r="AJ54" s="232"/>
+      <c r="AK54" s="232"/>
+      <c r="AL54" s="232"/>
+      <c r="AM54" s="232"/>
+      <c r="AN54" s="232"/>
+      <c r="AO54" s="232"/>
+      <c r="AP54" s="232"/>
+      <c r="AQ54" s="232"/>
+      <c r="AR54" s="232"/>
+      <c r="AS54" s="232"/>
+      <c r="AT54" s="232"/>
+      <c r="AU54" s="232"/>
+      <c r="AV54" s="232"/>
+      <c r="AW54" s="232"/>
+      <c r="AX54" s="232"/>
     </row>
     <row r="55" spans="5:50">
-      <c r="E55" s="233"/>
-      <c r="F55" s="233" t="s">
+      <c r="E55" s="232"/>
+      <c r="F55" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="233" t="s">
+      <c r="G55" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="233"/>
-      <c r="I55" s="233"/>
-      <c r="J55" s="233"/>
-      <c r="K55" s="233"/>
-      <c r="L55" s="233"/>
-      <c r="M55" s="233"/>
-      <c r="N55" s="233"/>
-      <c r="O55" s="233"/>
-      <c r="P55" s="233"/>
-      <c r="Q55" s="233"/>
-      <c r="R55" s="233"/>
-      <c r="S55" s="233"/>
-      <c r="T55" s="233"/>
-      <c r="U55" s="233"/>
-      <c r="V55" s="233"/>
-      <c r="W55" s="233"/>
-      <c r="X55" s="233"/>
-      <c r="Y55" s="233"/>
-      <c r="Z55" s="233"/>
-      <c r="AA55" s="233"/>
-      <c r="AB55" s="233"/>
-      <c r="AC55" s="233"/>
-      <c r="AD55" s="233"/>
-      <c r="AE55" s="233"/>
-      <c r="AF55" s="233"/>
-      <c r="AG55" s="233"/>
-      <c r="AH55" s="233"/>
-      <c r="AI55" s="233"/>
-      <c r="AJ55" s="233"/>
-      <c r="AK55" s="233"/>
-      <c r="AL55" s="233"/>
-      <c r="AM55" s="233"/>
-      <c r="AN55" s="233"/>
-      <c r="AO55" s="233"/>
-      <c r="AP55" s="233"/>
-      <c r="AQ55" s="233"/>
-      <c r="AR55" s="233"/>
-      <c r="AS55" s="233"/>
-      <c r="AT55" s="233"/>
-      <c r="AU55" s="233"/>
-      <c r="AV55" s="233"/>
-      <c r="AW55" s="233"/>
-      <c r="AX55" s="233"/>
+      <c r="H55" s="232"/>
+      <c r="I55" s="232"/>
+      <c r="J55" s="232"/>
+      <c r="K55" s="232"/>
+      <c r="L55" s="232"/>
+      <c r="M55" s="232"/>
+      <c r="N55" s="232"/>
+      <c r="O55" s="232"/>
+      <c r="P55" s="232"/>
+      <c r="Q55" s="232"/>
+      <c r="R55" s="232"/>
+      <c r="S55" s="232"/>
+      <c r="T55" s="232"/>
+      <c r="U55" s="232"/>
+      <c r="V55" s="232"/>
+      <c r="W55" s="232"/>
+      <c r="X55" s="232"/>
+      <c r="Y55" s="232"/>
+      <c r="Z55" s="232"/>
+      <c r="AA55" s="232"/>
+      <c r="AB55" s="232"/>
+      <c r="AC55" s="232"/>
+      <c r="AD55" s="232"/>
+      <c r="AE55" s="232"/>
+      <c r="AF55" s="232"/>
+      <c r="AG55" s="232"/>
+      <c r="AH55" s="232"/>
+      <c r="AI55" s="232"/>
+      <c r="AJ55" s="232"/>
+      <c r="AK55" s="232"/>
+      <c r="AL55" s="232"/>
+      <c r="AM55" s="232"/>
+      <c r="AN55" s="232"/>
+      <c r="AO55" s="232"/>
+      <c r="AP55" s="232"/>
+      <c r="AQ55" s="232"/>
+      <c r="AR55" s="232"/>
+      <c r="AS55" s="232"/>
+      <c r="AT55" s="232"/>
+      <c r="AU55" s="232"/>
+      <c r="AV55" s="232"/>
+      <c r="AW55" s="232"/>
+      <c r="AX55" s="232"/>
     </row>
     <row r="56" spans="5:50">
-      <c r="E56" s="233"/>
-      <c r="F56" s="233" t="s">
+      <c r="E56" s="232"/>
+      <c r="F56" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="233" t="s">
+      <c r="G56" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="233"/>
-      <c r="I56" s="233"/>
-      <c r="J56" s="233"/>
-      <c r="K56" s="233"/>
-      <c r="L56" s="233"/>
-      <c r="M56" s="233"/>
-      <c r="N56" s="233"/>
-      <c r="O56" s="233"/>
-      <c r="P56" s="233"/>
-      <c r="Q56" s="233"/>
-      <c r="R56" s="233"/>
-      <c r="S56" s="233"/>
-      <c r="T56" s="233"/>
-      <c r="U56" s="233"/>
-      <c r="V56" s="233"/>
-      <c r="W56" s="233"/>
-      <c r="X56" s="233"/>
-      <c r="Y56" s="233"/>
-      <c r="Z56" s="233"/>
-      <c r="AA56" s="233"/>
-      <c r="AB56" s="233"/>
-      <c r="AC56" s="233"/>
-      <c r="AD56" s="233"/>
-      <c r="AE56" s="233"/>
-      <c r="AF56" s="233"/>
-      <c r="AG56" s="233"/>
-      <c r="AH56" s="233"/>
-      <c r="AI56" s="233"/>
-      <c r="AJ56" s="233"/>
-      <c r="AK56" s="233"/>
-      <c r="AL56" s="233"/>
-      <c r="AM56" s="233"/>
-      <c r="AN56" s="233"/>
-      <c r="AO56" s="233"/>
-      <c r="AP56" s="233"/>
-      <c r="AQ56" s="233"/>
-      <c r="AR56" s="233"/>
-      <c r="AS56" s="233"/>
-      <c r="AT56" s="233"/>
-      <c r="AU56" s="233"/>
-      <c r="AV56" s="233"/>
-      <c r="AW56" s="233"/>
-      <c r="AX56" s="233"/>
+      <c r="H56" s="232"/>
+      <c r="I56" s="232"/>
+      <c r="J56" s="232"/>
+      <c r="K56" s="232"/>
+      <c r="L56" s="232"/>
+      <c r="M56" s="232"/>
+      <c r="N56" s="232"/>
+      <c r="O56" s="232"/>
+      <c r="P56" s="232"/>
+      <c r="Q56" s="232"/>
+      <c r="R56" s="232"/>
+      <c r="S56" s="232"/>
+      <c r="T56" s="232"/>
+      <c r="U56" s="232"/>
+      <c r="V56" s="232"/>
+      <c r="W56" s="232"/>
+      <c r="X56" s="232"/>
+      <c r="Y56" s="232"/>
+      <c r="Z56" s="232"/>
+      <c r="AA56" s="232"/>
+      <c r="AB56" s="232"/>
+      <c r="AC56" s="232"/>
+      <c r="AD56" s="232"/>
+      <c r="AE56" s="232"/>
+      <c r="AF56" s="232"/>
+      <c r="AG56" s="232"/>
+      <c r="AH56" s="232"/>
+      <c r="AI56" s="232"/>
+      <c r="AJ56" s="232"/>
+      <c r="AK56" s="232"/>
+      <c r="AL56" s="232"/>
+      <c r="AM56" s="232"/>
+      <c r="AN56" s="232"/>
+      <c r="AO56" s="232"/>
+      <c r="AP56" s="232"/>
+      <c r="AQ56" s="232"/>
+      <c r="AR56" s="232"/>
+      <c r="AS56" s="232"/>
+      <c r="AT56" s="232"/>
+      <c r="AU56" s="232"/>
+      <c r="AV56" s="232"/>
+      <c r="AW56" s="232"/>
+      <c r="AX56" s="232"/>
     </row>
     <row r="57" spans="5:50">
-      <c r="E57" s="233"/>
-      <c r="F57" s="233" t="s">
+      <c r="E57" s="232"/>
+      <c r="F57" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="233" t="s">
+      <c r="G57" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="233"/>
-      <c r="I57" s="233"/>
-      <c r="J57" s="233"/>
-      <c r="K57" s="233"/>
-      <c r="L57" s="233"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="233"/>
-      <c r="O57" s="233"/>
-      <c r="P57" s="233"/>
-      <c r="Q57" s="233"/>
-      <c r="R57" s="233"/>
-      <c r="S57" s="233"/>
-      <c r="T57" s="233"/>
-      <c r="U57" s="233"/>
-      <c r="V57" s="233"/>
-      <c r="W57" s="233"/>
-      <c r="X57" s="233"/>
-      <c r="Y57" s="233"/>
-      <c r="Z57" s="233"/>
-      <c r="AA57" s="233"/>
-      <c r="AB57" s="233"/>
-      <c r="AC57" s="233"/>
-      <c r="AD57" s="233"/>
-      <c r="AE57" s="233"/>
-      <c r="AF57" s="233"/>
-      <c r="AG57" s="233"/>
-      <c r="AH57" s="233"/>
-      <c r="AI57" s="233"/>
-      <c r="AJ57" s="233"/>
-      <c r="AK57" s="233"/>
-      <c r="AL57" s="233"/>
-      <c r="AM57" s="233"/>
-      <c r="AN57" s="233"/>
-      <c r="AO57" s="233"/>
-      <c r="AP57" s="233"/>
-      <c r="AQ57" s="233"/>
-      <c r="AR57" s="233"/>
-      <c r="AS57" s="233"/>
-      <c r="AT57" s="233"/>
-      <c r="AU57" s="233"/>
-      <c r="AV57" s="233"/>
-      <c r="AW57" s="233"/>
-      <c r="AX57" s="233"/>
+      <c r="H57" s="232"/>
+      <c r="I57" s="232"/>
+      <c r="J57" s="232"/>
+      <c r="K57" s="232"/>
+      <c r="L57" s="232"/>
+      <c r="M57" s="232"/>
+      <c r="N57" s="232"/>
+      <c r="O57" s="232"/>
+      <c r="P57" s="232"/>
+      <c r="Q57" s="232"/>
+      <c r="R57" s="232"/>
+      <c r="S57" s="232"/>
+      <c r="T57" s="232"/>
+      <c r="U57" s="232"/>
+      <c r="V57" s="232"/>
+      <c r="W57" s="232"/>
+      <c r="X57" s="232"/>
+      <c r="Y57" s="232"/>
+      <c r="Z57" s="232"/>
+      <c r="AA57" s="232"/>
+      <c r="AB57" s="232"/>
+      <c r="AC57" s="232"/>
+      <c r="AD57" s="232"/>
+      <c r="AE57" s="232"/>
+      <c r="AF57" s="232"/>
+      <c r="AG57" s="232"/>
+      <c r="AH57" s="232"/>
+      <c r="AI57" s="232"/>
+      <c r="AJ57" s="232"/>
+      <c r="AK57" s="232"/>
+      <c r="AL57" s="232"/>
+      <c r="AM57" s="232"/>
+      <c r="AN57" s="232"/>
+      <c r="AO57" s="232"/>
+      <c r="AP57" s="232"/>
+      <c r="AQ57" s="232"/>
+      <c r="AR57" s="232"/>
+      <c r="AS57" s="232"/>
+      <c r="AT57" s="232"/>
+      <c r="AU57" s="232"/>
+      <c r="AV57" s="232"/>
+      <c r="AW57" s="232"/>
+      <c r="AX57" s="232"/>
     </row>
     <row r="58" spans="5:50">
-      <c r="E58" s="233"/>
-      <c r="F58" s="233"/>
-      <c r="G58" s="233"/>
-      <c r="H58" s="233"/>
-      <c r="I58" s="233"/>
-      <c r="J58" s="233"/>
-      <c r="K58" s="233"/>
-      <c r="L58" s="233"/>
-      <c r="M58" s="233"/>
-      <c r="N58" s="233"/>
-      <c r="O58" s="233"/>
-      <c r="P58" s="233"/>
-      <c r="Q58" s="233"/>
-      <c r="R58" s="233"/>
-      <c r="S58" s="233"/>
-      <c r="T58" s="233"/>
-      <c r="U58" s="233"/>
-      <c r="V58" s="233"/>
-      <c r="W58" s="233"/>
-      <c r="X58" s="233"/>
-      <c r="Y58" s="233"/>
-      <c r="Z58" s="233"/>
-      <c r="AA58" s="233"/>
-      <c r="AB58" s="233"/>
-      <c r="AC58" s="233"/>
-      <c r="AD58" s="233"/>
-      <c r="AE58" s="233"/>
-      <c r="AF58" s="233"/>
-      <c r="AG58" s="233"/>
-      <c r="AH58" s="233"/>
-      <c r="AI58" s="233"/>
-      <c r="AJ58" s="233"/>
-      <c r="AK58" s="233"/>
-      <c r="AL58" s="233"/>
-      <c r="AM58" s="233"/>
-      <c r="AN58" s="233"/>
-      <c r="AO58" s="233"/>
-      <c r="AP58" s="233"/>
-      <c r="AQ58" s="233"/>
-      <c r="AR58" s="233"/>
-      <c r="AS58" s="233"/>
-      <c r="AT58" s="233"/>
-      <c r="AU58" s="233"/>
-      <c r="AV58" s="233"/>
-      <c r="AW58" s="233"/>
-      <c r="AX58" s="233"/>
+      <c r="E58" s="232"/>
+      <c r="F58" s="232"/>
+      <c r="G58" s="232"/>
+      <c r="H58" s="232"/>
+      <c r="I58" s="232"/>
+      <c r="J58" s="232"/>
+      <c r="K58" s="232"/>
+      <c r="L58" s="232"/>
+      <c r="M58" s="232"/>
+      <c r="N58" s="232"/>
+      <c r="O58" s="232"/>
+      <c r="P58" s="232"/>
+      <c r="Q58" s="232"/>
+      <c r="R58" s="232"/>
+      <c r="S58" s="232"/>
+      <c r="T58" s="232"/>
+      <c r="U58" s="232"/>
+      <c r="V58" s="232"/>
+      <c r="W58" s="232"/>
+      <c r="X58" s="232"/>
+      <c r="Y58" s="232"/>
+      <c r="Z58" s="232"/>
+      <c r="AA58" s="232"/>
+      <c r="AB58" s="232"/>
+      <c r="AC58" s="232"/>
+      <c r="AD58" s="232"/>
+      <c r="AE58" s="232"/>
+      <c r="AF58" s="232"/>
+      <c r="AG58" s="232"/>
+      <c r="AH58" s="232"/>
+      <c r="AI58" s="232"/>
+      <c r="AJ58" s="232"/>
+      <c r="AK58" s="232"/>
+      <c r="AL58" s="232"/>
+      <c r="AM58" s="232"/>
+      <c r="AN58" s="232"/>
+      <c r="AO58" s="232"/>
+      <c r="AP58" s="232"/>
+      <c r="AQ58" s="232"/>
+      <c r="AR58" s="232"/>
+      <c r="AS58" s="232"/>
+      <c r="AT58" s="232"/>
+      <c r="AU58" s="232"/>
+      <c r="AV58" s="232"/>
+      <c r="AW58" s="232"/>
+      <c r="AX58" s="232"/>
     </row>
     <row r="59" spans="5:50">
-      <c r="E59" s="232" t="s">
+      <c r="E59" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="232" t="s">
+      <c r="F59" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="G59" s="233"/>
-      <c r="H59" s="233"/>
-      <c r="I59" s="233"/>
-      <c r="J59" s="233"/>
-      <c r="K59" s="233"/>
-      <c r="L59" s="233"/>
-      <c r="M59" s="233"/>
-      <c r="N59" s="233"/>
-      <c r="O59" s="233"/>
-      <c r="P59" s="233"/>
-      <c r="Q59" s="233"/>
-      <c r="R59" s="233"/>
-      <c r="S59" s="233"/>
-      <c r="T59" s="233"/>
-      <c r="U59" s="233"/>
-      <c r="V59" s="233"/>
-      <c r="W59" s="233"/>
-      <c r="X59" s="233"/>
-      <c r="Y59" s="233"/>
-      <c r="Z59" s="233"/>
-      <c r="AA59" s="233"/>
-      <c r="AB59" s="233"/>
-      <c r="AC59" s="233"/>
-      <c r="AD59" s="233"/>
-      <c r="AE59" s="233"/>
-      <c r="AF59" s="233"/>
-      <c r="AG59" s="233"/>
-      <c r="AH59" s="233"/>
-      <c r="AI59" s="233"/>
-      <c r="AJ59" s="233"/>
-      <c r="AK59" s="233"/>
-      <c r="AL59" s="233"/>
-      <c r="AM59" s="233"/>
-      <c r="AN59" s="233"/>
-      <c r="AO59" s="233"/>
-      <c r="AP59" s="233"/>
-      <c r="AQ59" s="233"/>
-      <c r="AR59" s="233"/>
-      <c r="AS59" s="233"/>
-      <c r="AT59" s="233"/>
-      <c r="AU59" s="233"/>
-      <c r="AV59" s="233"/>
-      <c r="AW59" s="233"/>
-      <c r="AX59" s="233"/>
+      <c r="G59" s="232"/>
+      <c r="H59" s="232"/>
+      <c r="I59" s="232"/>
+      <c r="J59" s="232"/>
+      <c r="K59" s="232"/>
+      <c r="L59" s="232"/>
+      <c r="M59" s="232"/>
+      <c r="N59" s="232"/>
+      <c r="O59" s="232"/>
+      <c r="P59" s="232"/>
+      <c r="Q59" s="232"/>
+      <c r="R59" s="232"/>
+      <c r="S59" s="232"/>
+      <c r="T59" s="232"/>
+      <c r="U59" s="232"/>
+      <c r="V59" s="232"/>
+      <c r="W59" s="232"/>
+      <c r="X59" s="232"/>
+      <c r="Y59" s="232"/>
+      <c r="Z59" s="232"/>
+      <c r="AA59" s="232"/>
+      <c r="AB59" s="232"/>
+      <c r="AC59" s="232"/>
+      <c r="AD59" s="232"/>
+      <c r="AE59" s="232"/>
+      <c r="AF59" s="232"/>
+      <c r="AG59" s="232"/>
+      <c r="AH59" s="232"/>
+      <c r="AI59" s="232"/>
+      <c r="AJ59" s="232"/>
+      <c r="AK59" s="232"/>
+      <c r="AL59" s="232"/>
+      <c r="AM59" s="232"/>
+      <c r="AN59" s="232"/>
+      <c r="AO59" s="232"/>
+      <c r="AP59" s="232"/>
+      <c r="AQ59" s="232"/>
+      <c r="AR59" s="232"/>
+      <c r="AS59" s="232"/>
+      <c r="AT59" s="232"/>
+      <c r="AU59" s="232"/>
+      <c r="AV59" s="232"/>
+      <c r="AW59" s="232"/>
+      <c r="AX59" s="232"/>
     </row>
     <row r="60" spans="5:50">
-      <c r="E60" s="233"/>
-      <c r="F60" s="233" t="s">
+      <c r="E60" s="232"/>
+      <c r="F60" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="233" t="s">
+      <c r="G60" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="233"/>
-      <c r="I60" s="233"/>
-      <c r="J60" s="233"/>
-      <c r="K60" s="233"/>
-      <c r="L60" s="233"/>
-      <c r="M60" s="233"/>
-      <c r="N60" s="233"/>
-      <c r="O60" s="233"/>
-      <c r="P60" s="233"/>
-      <c r="Q60" s="233"/>
-      <c r="R60" s="233"/>
-      <c r="S60" s="233"/>
-      <c r="T60" s="233"/>
-      <c r="U60" s="233"/>
-      <c r="V60" s="233"/>
-      <c r="W60" s="233"/>
-      <c r="X60" s="233"/>
-      <c r="Y60" s="233"/>
-      <c r="Z60" s="233"/>
-      <c r="AA60" s="233"/>
-      <c r="AB60" s="233"/>
-      <c r="AC60" s="233"/>
-      <c r="AD60" s="233"/>
-      <c r="AE60" s="233"/>
-      <c r="AF60" s="233"/>
-      <c r="AG60" s="233"/>
-      <c r="AH60" s="233"/>
-      <c r="AI60" s="233"/>
-      <c r="AJ60" s="233"/>
-      <c r="AK60" s="233"/>
-      <c r="AL60" s="233"/>
-      <c r="AM60" s="233"/>
-      <c r="AN60" s="233"/>
-      <c r="AO60" s="233"/>
-      <c r="AP60" s="233"/>
-      <c r="AQ60" s="233"/>
-      <c r="AR60" s="233"/>
-      <c r="AS60" s="233"/>
-      <c r="AT60" s="233"/>
-      <c r="AU60" s="233"/>
-      <c r="AV60" s="233"/>
-      <c r="AW60" s="233"/>
-      <c r="AX60" s="233"/>
+      <c r="H60" s="232"/>
+      <c r="I60" s="232"/>
+      <c r="J60" s="232"/>
+      <c r="K60" s="232"/>
+      <c r="L60" s="232"/>
+      <c r="M60" s="232"/>
+      <c r="N60" s="232"/>
+      <c r="O60" s="232"/>
+      <c r="P60" s="232"/>
+      <c r="Q60" s="232"/>
+      <c r="R60" s="232"/>
+      <c r="S60" s="232"/>
+      <c r="T60" s="232"/>
+      <c r="U60" s="232"/>
+      <c r="V60" s="232"/>
+      <c r="W60" s="232"/>
+      <c r="X60" s="232"/>
+      <c r="Y60" s="232"/>
+      <c r="Z60" s="232"/>
+      <c r="AA60" s="232"/>
+      <c r="AB60" s="232"/>
+      <c r="AC60" s="232"/>
+      <c r="AD60" s="232"/>
+      <c r="AE60" s="232"/>
+      <c r="AF60" s="232"/>
+      <c r="AG60" s="232"/>
+      <c r="AH60" s="232"/>
+      <c r="AI60" s="232"/>
+      <c r="AJ60" s="232"/>
+      <c r="AK60" s="232"/>
+      <c r="AL60" s="232"/>
+      <c r="AM60" s="232"/>
+      <c r="AN60" s="232"/>
+      <c r="AO60" s="232"/>
+      <c r="AP60" s="232"/>
+      <c r="AQ60" s="232"/>
+      <c r="AR60" s="232"/>
+      <c r="AS60" s="232"/>
+      <c r="AT60" s="232"/>
+      <c r="AU60" s="232"/>
+      <c r="AV60" s="232"/>
+      <c r="AW60" s="232"/>
+      <c r="AX60" s="232"/>
     </row>
     <row r="61" spans="5:50">
-      <c r="E61" s="233"/>
-      <c r="F61" s="233" t="s">
+      <c r="E61" s="232"/>
+      <c r="F61" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G61" s="233" t="s">
+      <c r="G61" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="233"/>
-      <c r="I61" s="233"/>
-      <c r="J61" s="233"/>
-      <c r="K61" s="233"/>
-      <c r="L61" s="233"/>
-      <c r="M61" s="233"/>
-      <c r="N61" s="233"/>
-      <c r="O61" s="233"/>
-      <c r="P61" s="233"/>
-      <c r="Q61" s="233"/>
-      <c r="R61" s="233"/>
-      <c r="S61" s="233"/>
-      <c r="T61" s="233"/>
-      <c r="U61" s="233"/>
-      <c r="V61" s="233"/>
-      <c r="W61" s="233"/>
-      <c r="X61" s="233"/>
-      <c r="Y61" s="233"/>
-      <c r="Z61" s="233"/>
-      <c r="AA61" s="233"/>
-      <c r="AB61" s="233"/>
-      <c r="AC61" s="233"/>
-      <c r="AD61" s="233"/>
-      <c r="AE61" s="233"/>
-      <c r="AF61" s="233"/>
-      <c r="AG61" s="233"/>
-      <c r="AH61" s="233"/>
-      <c r="AI61" s="233"/>
-      <c r="AJ61" s="233"/>
-      <c r="AK61" s="233"/>
-      <c r="AL61" s="233"/>
-      <c r="AM61" s="233"/>
-      <c r="AN61" s="233"/>
-      <c r="AO61" s="233"/>
-      <c r="AP61" s="233"/>
-      <c r="AQ61" s="233"/>
-      <c r="AR61" s="233"/>
-      <c r="AS61" s="233"/>
-      <c r="AT61" s="233"/>
-      <c r="AU61" s="233"/>
-      <c r="AV61" s="233"/>
-      <c r="AW61" s="233"/>
-      <c r="AX61" s="233"/>
+      <c r="H61" s="232"/>
+      <c r="I61" s="232"/>
+      <c r="J61" s="232"/>
+      <c r="K61" s="232"/>
+      <c r="L61" s="232"/>
+      <c r="M61" s="232"/>
+      <c r="N61" s="232"/>
+      <c r="O61" s="232"/>
+      <c r="P61" s="232"/>
+      <c r="Q61" s="232"/>
+      <c r="R61" s="232"/>
+      <c r="S61" s="232"/>
+      <c r="T61" s="232"/>
+      <c r="U61" s="232"/>
+      <c r="V61" s="232"/>
+      <c r="W61" s="232"/>
+      <c r="X61" s="232"/>
+      <c r="Y61" s="232"/>
+      <c r="Z61" s="232"/>
+      <c r="AA61" s="232"/>
+      <c r="AB61" s="232"/>
+      <c r="AC61" s="232"/>
+      <c r="AD61" s="232"/>
+      <c r="AE61" s="232"/>
+      <c r="AF61" s="232"/>
+      <c r="AG61" s="232"/>
+      <c r="AH61" s="232"/>
+      <c r="AI61" s="232"/>
+      <c r="AJ61" s="232"/>
+      <c r="AK61" s="232"/>
+      <c r="AL61" s="232"/>
+      <c r="AM61" s="232"/>
+      <c r="AN61" s="232"/>
+      <c r="AO61" s="232"/>
+      <c r="AP61" s="232"/>
+      <c r="AQ61" s="232"/>
+      <c r="AR61" s="232"/>
+      <c r="AS61" s="232"/>
+      <c r="AT61" s="232"/>
+      <c r="AU61" s="232"/>
+      <c r="AV61" s="232"/>
+      <c r="AW61" s="232"/>
+      <c r="AX61" s="232"/>
     </row>
     <row r="62" spans="5:50">
-      <c r="E62" s="233"/>
-      <c r="F62" s="233" t="s">
+      <c r="E62" s="232"/>
+      <c r="F62" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="233" t="s">
+      <c r="G62" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="233"/>
-      <c r="I62" s="233"/>
-      <c r="J62" s="233"/>
-      <c r="K62" s="233"/>
-      <c r="L62" s="233"/>
-      <c r="M62" s="233"/>
-      <c r="N62" s="233"/>
-      <c r="O62" s="233"/>
-      <c r="P62" s="233"/>
-      <c r="Q62" s="233"/>
-      <c r="R62" s="233"/>
-      <c r="S62" s="233"/>
-      <c r="T62" s="233"/>
-      <c r="U62" s="233"/>
-      <c r="V62" s="233"/>
-      <c r="W62" s="233"/>
-      <c r="X62" s="233"/>
-      <c r="Y62" s="233"/>
-      <c r="Z62" s="233"/>
-      <c r="AA62" s="233"/>
-      <c r="AB62" s="233"/>
-      <c r="AC62" s="233"/>
-      <c r="AD62" s="233"/>
-      <c r="AE62" s="233"/>
-      <c r="AF62" s="233"/>
-      <c r="AG62" s="233"/>
-      <c r="AH62" s="233"/>
-      <c r="AI62" s="233"/>
-      <c r="AJ62" s="233"/>
-      <c r="AK62" s="233"/>
-      <c r="AL62" s="233"/>
-      <c r="AM62" s="233"/>
-      <c r="AN62" s="233"/>
-      <c r="AO62" s="233"/>
-      <c r="AP62" s="233"/>
-      <c r="AQ62" s="233"/>
-      <c r="AR62" s="233"/>
-      <c r="AS62" s="233"/>
-      <c r="AT62" s="233"/>
-      <c r="AU62" s="233"/>
-      <c r="AV62" s="233"/>
-      <c r="AW62" s="233"/>
-      <c r="AX62" s="233"/>
+      <c r="H62" s="232"/>
+      <c r="I62" s="232"/>
+      <c r="J62" s="232"/>
+      <c r="K62" s="232"/>
+      <c r="L62" s="232"/>
+      <c r="M62" s="232"/>
+      <c r="N62" s="232"/>
+      <c r="O62" s="232"/>
+      <c r="P62" s="232"/>
+      <c r="Q62" s="232"/>
+      <c r="R62" s="232"/>
+      <c r="S62" s="232"/>
+      <c r="T62" s="232"/>
+      <c r="U62" s="232"/>
+      <c r="V62" s="232"/>
+      <c r="W62" s="232"/>
+      <c r="X62" s="232"/>
+      <c r="Y62" s="232"/>
+      <c r="Z62" s="232"/>
+      <c r="AA62" s="232"/>
+      <c r="AB62" s="232"/>
+      <c r="AC62" s="232"/>
+      <c r="AD62" s="232"/>
+      <c r="AE62" s="232"/>
+      <c r="AF62" s="232"/>
+      <c r="AG62" s="232"/>
+      <c r="AH62" s="232"/>
+      <c r="AI62" s="232"/>
+      <c r="AJ62" s="232"/>
+      <c r="AK62" s="232"/>
+      <c r="AL62" s="232"/>
+      <c r="AM62" s="232"/>
+      <c r="AN62" s="232"/>
+      <c r="AO62" s="232"/>
+      <c r="AP62" s="232"/>
+      <c r="AQ62" s="232"/>
+      <c r="AR62" s="232"/>
+      <c r="AS62" s="232"/>
+      <c r="AT62" s="232"/>
+      <c r="AU62" s="232"/>
+      <c r="AV62" s="232"/>
+      <c r="AW62" s="232"/>
+      <c r="AX62" s="232"/>
     </row>
     <row r="63" spans="5:50">
-      <c r="E63" s="233"/>
-      <c r="F63" s="233"/>
-      <c r="G63" s="233"/>
-      <c r="H63" s="233"/>
-      <c r="I63" s="233"/>
-      <c r="J63" s="233"/>
-      <c r="K63" s="233"/>
-      <c r="L63" s="233"/>
-      <c r="M63" s="233"/>
-      <c r="N63" s="233"/>
-      <c r="O63" s="233"/>
-      <c r="P63" s="233"/>
-      <c r="Q63" s="233"/>
-      <c r="R63" s="233"/>
-      <c r="S63" s="233"/>
-      <c r="T63" s="233"/>
-      <c r="U63" s="233"/>
-      <c r="V63" s="233"/>
-      <c r="W63" s="233"/>
-      <c r="X63" s="233"/>
-      <c r="Y63" s="233"/>
-      <c r="Z63" s="233"/>
-      <c r="AA63" s="233"/>
-      <c r="AB63" s="233"/>
-      <c r="AC63" s="233"/>
-      <c r="AD63" s="233"/>
-      <c r="AE63" s="233"/>
-      <c r="AF63" s="233"/>
-      <c r="AG63" s="233"/>
-      <c r="AH63" s="233"/>
-      <c r="AI63" s="233"/>
-      <c r="AJ63" s="233"/>
-      <c r="AK63" s="233"/>
-      <c r="AL63" s="233"/>
-      <c r="AM63" s="233"/>
-      <c r="AN63" s="233"/>
-      <c r="AO63" s="233"/>
-      <c r="AP63" s="233"/>
-      <c r="AQ63" s="233"/>
-      <c r="AR63" s="233"/>
-      <c r="AS63" s="233"/>
-      <c r="AT63" s="233"/>
-      <c r="AU63" s="233"/>
-      <c r="AV63" s="233"/>
-      <c r="AW63" s="233"/>
-      <c r="AX63" s="233"/>
+      <c r="E63" s="232"/>
+      <c r="F63" s="232"/>
+      <c r="G63" s="232"/>
+      <c r="H63" s="232"/>
+      <c r="I63" s="232"/>
+      <c r="J63" s="232"/>
+      <c r="K63" s="232"/>
+      <c r="L63" s="232"/>
+      <c r="M63" s="232"/>
+      <c r="N63" s="232"/>
+      <c r="O63" s="232"/>
+      <c r="P63" s="232"/>
+      <c r="Q63" s="232"/>
+      <c r="R63" s="232"/>
+      <c r="S63" s="232"/>
+      <c r="T63" s="232"/>
+      <c r="U63" s="232"/>
+      <c r="V63" s="232"/>
+      <c r="W63" s="232"/>
+      <c r="X63" s="232"/>
+      <c r="Y63" s="232"/>
+      <c r="Z63" s="232"/>
+      <c r="AA63" s="232"/>
+      <c r="AB63" s="232"/>
+      <c r="AC63" s="232"/>
+      <c r="AD63" s="232"/>
+      <c r="AE63" s="232"/>
+      <c r="AF63" s="232"/>
+      <c r="AG63" s="232"/>
+      <c r="AH63" s="232"/>
+      <c r="AI63" s="232"/>
+      <c r="AJ63" s="232"/>
+      <c r="AK63" s="232"/>
+      <c r="AL63" s="232"/>
+      <c r="AM63" s="232"/>
+      <c r="AN63" s="232"/>
+      <c r="AO63" s="232"/>
+      <c r="AP63" s="232"/>
+      <c r="AQ63" s="232"/>
+      <c r="AR63" s="232"/>
+      <c r="AS63" s="232"/>
+      <c r="AT63" s="232"/>
+      <c r="AU63" s="232"/>
+      <c r="AV63" s="232"/>
+      <c r="AW63" s="232"/>
+      <c r="AX63" s="232"/>
     </row>
     <row r="64" spans="5:50">
-      <c r="E64" s="232" t="s">
+      <c r="E64" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="232" t="s">
+      <c r="F64" s="231" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="233"/>
-      <c r="H64" s="233"/>
-      <c r="I64" s="233"/>
-      <c r="J64" s="233"/>
-      <c r="K64" s="233"/>
-      <c r="L64" s="233"/>
-      <c r="M64" s="233"/>
-      <c r="N64" s="233"/>
-      <c r="O64" s="233"/>
-      <c r="P64" s="233"/>
-      <c r="Q64" s="233"/>
-      <c r="R64" s="233"/>
-      <c r="S64" s="233"/>
-      <c r="T64" s="233"/>
-      <c r="U64" s="233"/>
-      <c r="V64" s="233"/>
-      <c r="W64" s="233"/>
-      <c r="X64" s="233"/>
-      <c r="Y64" s="233"/>
-      <c r="Z64" s="233"/>
-      <c r="AA64" s="233"/>
-      <c r="AB64" s="233"/>
-      <c r="AC64" s="233"/>
-      <c r="AD64" s="233"/>
-      <c r="AE64" s="233"/>
-      <c r="AF64" s="233"/>
-      <c r="AG64" s="233"/>
-      <c r="AH64" s="233"/>
-      <c r="AI64" s="233"/>
-      <c r="AJ64" s="233"/>
-      <c r="AK64" s="233"/>
-      <c r="AL64" s="233"/>
-      <c r="AM64" s="233"/>
-      <c r="AN64" s="233"/>
-      <c r="AO64" s="233"/>
-      <c r="AP64" s="233"/>
-      <c r="AQ64" s="233"/>
-      <c r="AR64" s="233"/>
-      <c r="AS64" s="233"/>
-      <c r="AT64" s="233"/>
-      <c r="AU64" s="233"/>
-      <c r="AV64" s="233"/>
-      <c r="AW64" s="233"/>
-      <c r="AX64" s="233"/>
+      <c r="G64" s="232"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="232"/>
+      <c r="J64" s="232"/>
+      <c r="K64" s="232"/>
+      <c r="L64" s="232"/>
+      <c r="M64" s="232"/>
+      <c r="N64" s="232"/>
+      <c r="O64" s="232"/>
+      <c r="P64" s="232"/>
+      <c r="Q64" s="232"/>
+      <c r="R64" s="232"/>
+      <c r="S64" s="232"/>
+      <c r="T64" s="232"/>
+      <c r="U64" s="232"/>
+      <c r="V64" s="232"/>
+      <c r="W64" s="232"/>
+      <c r="X64" s="232"/>
+      <c r="Y64" s="232"/>
+      <c r="Z64" s="232"/>
+      <c r="AA64" s="232"/>
+      <c r="AB64" s="232"/>
+      <c r="AC64" s="232"/>
+      <c r="AD64" s="232"/>
+      <c r="AE64" s="232"/>
+      <c r="AF64" s="232"/>
+      <c r="AG64" s="232"/>
+      <c r="AH64" s="232"/>
+      <c r="AI64" s="232"/>
+      <c r="AJ64" s="232"/>
+      <c r="AK64" s="232"/>
+      <c r="AL64" s="232"/>
+      <c r="AM64" s="232"/>
+      <c r="AN64" s="232"/>
+      <c r="AO64" s="232"/>
+      <c r="AP64" s="232"/>
+      <c r="AQ64" s="232"/>
+      <c r="AR64" s="232"/>
+      <c r="AS64" s="232"/>
+      <c r="AT64" s="232"/>
+      <c r="AU64" s="232"/>
+      <c r="AV64" s="232"/>
+      <c r="AW64" s="232"/>
+      <c r="AX64" s="232"/>
     </row>
     <row r="65" spans="5:50">
-      <c r="E65" s="233"/>
-      <c r="F65" s="233" t="s">
+      <c r="E65" s="232"/>
+      <c r="F65" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="233" t="s">
+      <c r="G65" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="H65" s="233"/>
-      <c r="I65" s="233"/>
-      <c r="J65" s="233"/>
-      <c r="K65" s="233"/>
-      <c r="L65" s="233"/>
-      <c r="M65" s="233"/>
-      <c r="N65" s="233"/>
-      <c r="O65" s="233"/>
-      <c r="P65" s="233"/>
-      <c r="Q65" s="233"/>
-      <c r="R65" s="233"/>
-      <c r="S65" s="233"/>
-      <c r="T65" s="233"/>
-      <c r="U65" s="233"/>
-      <c r="V65" s="233"/>
-      <c r="W65" s="233"/>
-      <c r="X65" s="233"/>
-      <c r="Y65" s="233"/>
-      <c r="Z65" s="233"/>
-      <c r="AA65" s="233"/>
-      <c r="AB65" s="233"/>
-      <c r="AC65" s="233"/>
-      <c r="AD65" s="233"/>
-      <c r="AE65" s="233"/>
-      <c r="AF65" s="233"/>
-      <c r="AG65" s="233"/>
-      <c r="AH65" s="233"/>
-      <c r="AI65" s="233"/>
-      <c r="AJ65" s="233"/>
-      <c r="AK65" s="233"/>
-      <c r="AL65" s="233"/>
-      <c r="AM65" s="233"/>
-      <c r="AN65" s="233"/>
-      <c r="AO65" s="233"/>
-      <c r="AP65" s="233"/>
-      <c r="AQ65" s="233"/>
-      <c r="AR65" s="233"/>
-      <c r="AS65" s="233"/>
-      <c r="AT65" s="233"/>
-      <c r="AU65" s="233"/>
-      <c r="AV65" s="233"/>
-      <c r="AW65" s="233"/>
-      <c r="AX65" s="233"/>
+      <c r="H65" s="232"/>
+      <c r="I65" s="232"/>
+      <c r="J65" s="232"/>
+      <c r="K65" s="232"/>
+      <c r="L65" s="232"/>
+      <c r="M65" s="232"/>
+      <c r="N65" s="232"/>
+      <c r="O65" s="232"/>
+      <c r="P65" s="232"/>
+      <c r="Q65" s="232"/>
+      <c r="R65" s="232"/>
+      <c r="S65" s="232"/>
+      <c r="T65" s="232"/>
+      <c r="U65" s="232"/>
+      <c r="V65" s="232"/>
+      <c r="W65" s="232"/>
+      <c r="X65" s="232"/>
+      <c r="Y65" s="232"/>
+      <c r="Z65" s="232"/>
+      <c r="AA65" s="232"/>
+      <c r="AB65" s="232"/>
+      <c r="AC65" s="232"/>
+      <c r="AD65" s="232"/>
+      <c r="AE65" s="232"/>
+      <c r="AF65" s="232"/>
+      <c r="AG65" s="232"/>
+      <c r="AH65" s="232"/>
+      <c r="AI65" s="232"/>
+      <c r="AJ65" s="232"/>
+      <c r="AK65" s="232"/>
+      <c r="AL65" s="232"/>
+      <c r="AM65" s="232"/>
+      <c r="AN65" s="232"/>
+      <c r="AO65" s="232"/>
+      <c r="AP65" s="232"/>
+      <c r="AQ65" s="232"/>
+      <c r="AR65" s="232"/>
+      <c r="AS65" s="232"/>
+      <c r="AT65" s="232"/>
+      <c r="AU65" s="232"/>
+      <c r="AV65" s="232"/>
+      <c r="AW65" s="232"/>
+      <c r="AX65" s="232"/>
     </row>
     <row r="66" spans="5:50">
-      <c r="E66" s="233"/>
-      <c r="F66" s="233" t="s">
+      <c r="E66" s="232"/>
+      <c r="F66" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="233" t="s">
+      <c r="G66" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="233"/>
-      <c r="I66" s="233"/>
-      <c r="J66" s="233"/>
-      <c r="K66" s="233"/>
-      <c r="L66" s="233"/>
-      <c r="M66" s="233"/>
-      <c r="N66" s="233"/>
-      <c r="O66" s="233"/>
-      <c r="P66" s="233"/>
-      <c r="Q66" s="233"/>
-      <c r="R66" s="233"/>
-      <c r="S66" s="233"/>
-      <c r="T66" s="233"/>
-      <c r="U66" s="233"/>
-      <c r="V66" s="233"/>
-      <c r="W66" s="233"/>
-      <c r="X66" s="233"/>
-      <c r="Y66" s="233"/>
-      <c r="Z66" s="233"/>
-      <c r="AA66" s="233"/>
-      <c r="AB66" s="233"/>
-      <c r="AC66" s="233"/>
-      <c r="AD66" s="233"/>
-      <c r="AE66" s="233"/>
-      <c r="AF66" s="233"/>
-      <c r="AG66" s="233"/>
-      <c r="AH66" s="233"/>
-      <c r="AI66" s="233"/>
-      <c r="AJ66" s="233"/>
-      <c r="AK66" s="233"/>
-      <c r="AL66" s="233"/>
-      <c r="AM66" s="233"/>
-      <c r="AN66" s="233"/>
-      <c r="AO66" s="233"/>
-      <c r="AP66" s="233"/>
-      <c r="AQ66" s="233"/>
-      <c r="AR66" s="233"/>
-      <c r="AS66" s="233"/>
-      <c r="AT66" s="233"/>
-      <c r="AU66" s="233"/>
-      <c r="AV66" s="233"/>
-      <c r="AW66" s="233"/>
-      <c r="AX66" s="233"/>
+      <c r="H66" s="232"/>
+      <c r="I66" s="232"/>
+      <c r="J66" s="232"/>
+      <c r="K66" s="232"/>
+      <c r="L66" s="232"/>
+      <c r="M66" s="232"/>
+      <c r="N66" s="232"/>
+      <c r="O66" s="232"/>
+      <c r="P66" s="232"/>
+      <c r="Q66" s="232"/>
+      <c r="R66" s="232"/>
+      <c r="S66" s="232"/>
+      <c r="T66" s="232"/>
+      <c r="U66" s="232"/>
+      <c r="V66" s="232"/>
+      <c r="W66" s="232"/>
+      <c r="X66" s="232"/>
+      <c r="Y66" s="232"/>
+      <c r="Z66" s="232"/>
+      <c r="AA66" s="232"/>
+      <c r="AB66" s="232"/>
+      <c r="AC66" s="232"/>
+      <c r="AD66" s="232"/>
+      <c r="AE66" s="232"/>
+      <c r="AF66" s="232"/>
+      <c r="AG66" s="232"/>
+      <c r="AH66" s="232"/>
+      <c r="AI66" s="232"/>
+      <c r="AJ66" s="232"/>
+      <c r="AK66" s="232"/>
+      <c r="AL66" s="232"/>
+      <c r="AM66" s="232"/>
+      <c r="AN66" s="232"/>
+      <c r="AO66" s="232"/>
+      <c r="AP66" s="232"/>
+      <c r="AQ66" s="232"/>
+      <c r="AR66" s="232"/>
+      <c r="AS66" s="232"/>
+      <c r="AT66" s="232"/>
+      <c r="AU66" s="232"/>
+      <c r="AV66" s="232"/>
+      <c r="AW66" s="232"/>
+      <c r="AX66" s="232"/>
     </row>
     <row r="67" spans="5:50">
-      <c r="E67" s="233"/>
-      <c r="F67" s="233" t="s">
+      <c r="E67" s="232"/>
+      <c r="F67" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G67" s="233" t="s">
+      <c r="G67" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="233"/>
-      <c r="I67" s="233"/>
-      <c r="J67" s="233"/>
-      <c r="K67" s="233"/>
-      <c r="L67" s="233"/>
-      <c r="M67" s="233"/>
-      <c r="N67" s="233"/>
-      <c r="O67" s="233"/>
-      <c r="P67" s="233"/>
-      <c r="Q67" s="233"/>
-      <c r="R67" s="233"/>
-      <c r="S67" s="233"/>
-      <c r="T67" s="233"/>
-      <c r="U67" s="233"/>
-      <c r="V67" s="233"/>
-      <c r="W67" s="233"/>
-      <c r="X67" s="233"/>
-      <c r="Y67" s="233"/>
-      <c r="Z67" s="233"/>
-      <c r="AA67" s="233"/>
-      <c r="AB67" s="233"/>
-      <c r="AC67" s="233"/>
-      <c r="AD67" s="233"/>
-      <c r="AE67" s="233"/>
-      <c r="AF67" s="233"/>
-      <c r="AG67" s="233"/>
-      <c r="AH67" s="233"/>
-      <c r="AI67" s="233"/>
-      <c r="AJ67" s="233"/>
-      <c r="AK67" s="233"/>
-      <c r="AL67" s="233"/>
-      <c r="AM67" s="233"/>
-      <c r="AN67" s="233"/>
-      <c r="AO67" s="233"/>
-      <c r="AP67" s="233"/>
-      <c r="AQ67" s="233"/>
-      <c r="AR67" s="233"/>
-      <c r="AS67" s="233"/>
-      <c r="AT67" s="233"/>
-      <c r="AU67" s="233"/>
-      <c r="AV67" s="233"/>
-      <c r="AW67" s="233"/>
-      <c r="AX67" s="233"/>
+      <c r="H67" s="232"/>
+      <c r="I67" s="232"/>
+      <c r="J67" s="232"/>
+      <c r="K67" s="232"/>
+      <c r="L67" s="232"/>
+      <c r="M67" s="232"/>
+      <c r="N67" s="232"/>
+      <c r="O67" s="232"/>
+      <c r="P67" s="232"/>
+      <c r="Q67" s="232"/>
+      <c r="R67" s="232"/>
+      <c r="S67" s="232"/>
+      <c r="T67" s="232"/>
+      <c r="U67" s="232"/>
+      <c r="V67" s="232"/>
+      <c r="W67" s="232"/>
+      <c r="X67" s="232"/>
+      <c r="Y67" s="232"/>
+      <c r="Z67" s="232"/>
+      <c r="AA67" s="232"/>
+      <c r="AB67" s="232"/>
+      <c r="AC67" s="232"/>
+      <c r="AD67" s="232"/>
+      <c r="AE67" s="232"/>
+      <c r="AF67" s="232"/>
+      <c r="AG67" s="232"/>
+      <c r="AH67" s="232"/>
+      <c r="AI67" s="232"/>
+      <c r="AJ67" s="232"/>
+      <c r="AK67" s="232"/>
+      <c r="AL67" s="232"/>
+      <c r="AM67" s="232"/>
+      <c r="AN67" s="232"/>
+      <c r="AO67" s="232"/>
+      <c r="AP67" s="232"/>
+      <c r="AQ67" s="232"/>
+      <c r="AR67" s="232"/>
+      <c r="AS67" s="232"/>
+      <c r="AT67" s="232"/>
+      <c r="AU67" s="232"/>
+      <c r="AV67" s="232"/>
+      <c r="AW67" s="232"/>
+      <c r="AX67" s="232"/>
     </row>
     <row r="68" spans="5:50">
-      <c r="E68" s="233"/>
-      <c r="F68" s="233"/>
-      <c r="G68" s="233"/>
-      <c r="H68" s="233"/>
-      <c r="I68" s="233"/>
-      <c r="J68" s="233"/>
-      <c r="K68" s="233"/>
-      <c r="L68" s="233"/>
-      <c r="M68" s="233"/>
-      <c r="N68" s="233"/>
-      <c r="O68" s="233"/>
-      <c r="P68" s="233"/>
-      <c r="Q68" s="233"/>
-      <c r="R68" s="233"/>
-      <c r="S68" s="233"/>
-      <c r="T68" s="233"/>
-      <c r="U68" s="233"/>
-      <c r="V68" s="233"/>
-      <c r="W68" s="233"/>
-      <c r="X68" s="233"/>
-      <c r="Y68" s="233"/>
-      <c r="Z68" s="233"/>
-      <c r="AA68" s="233"/>
-      <c r="AB68" s="233"/>
-      <c r="AC68" s="233"/>
-      <c r="AD68" s="233"/>
-      <c r="AE68" s="233"/>
-      <c r="AF68" s="233"/>
-      <c r="AG68" s="233"/>
-      <c r="AH68" s="233"/>
-      <c r="AI68" s="233"/>
-      <c r="AJ68" s="233"/>
-      <c r="AK68" s="233"/>
-      <c r="AL68" s="233"/>
-      <c r="AM68" s="233"/>
-      <c r="AN68" s="233"/>
-      <c r="AO68" s="233"/>
-      <c r="AP68" s="233"/>
-      <c r="AQ68" s="233"/>
-      <c r="AR68" s="233"/>
-      <c r="AS68" s="233"/>
-      <c r="AT68" s="233"/>
-      <c r="AU68" s="233"/>
-      <c r="AV68" s="233"/>
-      <c r="AW68" s="233"/>
-      <c r="AX68" s="233"/>
+      <c r="E68" s="232"/>
+      <c r="F68" s="232"/>
+      <c r="G68" s="232"/>
+      <c r="H68" s="232"/>
+      <c r="I68" s="232"/>
+      <c r="J68" s="232"/>
+      <c r="K68" s="232"/>
+      <c r="L68" s="232"/>
+      <c r="M68" s="232"/>
+      <c r="N68" s="232"/>
+      <c r="O68" s="232"/>
+      <c r="P68" s="232"/>
+      <c r="Q68" s="232"/>
+      <c r="R68" s="232"/>
+      <c r="S68" s="232"/>
+      <c r="T68" s="232"/>
+      <c r="U68" s="232"/>
+      <c r="V68" s="232"/>
+      <c r="W68" s="232"/>
+      <c r="X68" s="232"/>
+      <c r="Y68" s="232"/>
+      <c r="Z68" s="232"/>
+      <c r="AA68" s="232"/>
+      <c r="AB68" s="232"/>
+      <c r="AC68" s="232"/>
+      <c r="AD68" s="232"/>
+      <c r="AE68" s="232"/>
+      <c r="AF68" s="232"/>
+      <c r="AG68" s="232"/>
+      <c r="AH68" s="232"/>
+      <c r="AI68" s="232"/>
+      <c r="AJ68" s="232"/>
+      <c r="AK68" s="232"/>
+      <c r="AL68" s="232"/>
+      <c r="AM68" s="232"/>
+      <c r="AN68" s="232"/>
+      <c r="AO68" s="232"/>
+      <c r="AP68" s="232"/>
+      <c r="AQ68" s="232"/>
+      <c r="AR68" s="232"/>
+      <c r="AS68" s="232"/>
+      <c r="AT68" s="232"/>
+      <c r="AU68" s="232"/>
+      <c r="AV68" s="232"/>
+      <c r="AW68" s="232"/>
+      <c r="AX68" s="232"/>
     </row>
     <row r="69" spans="5:50">
-      <c r="E69" s="232" t="s">
+      <c r="E69" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="232" t="s">
+      <c r="F69" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="233"/>
-      <c r="H69" s="233"/>
-      <c r="I69" s="233"/>
-      <c r="J69" s="233"/>
-      <c r="K69" s="233"/>
-      <c r="L69" s="233"/>
-      <c r="M69" s="233"/>
-      <c r="N69" s="233"/>
-      <c r="O69" s="233"/>
-      <c r="P69" s="233"/>
-      <c r="Q69" s="233"/>
-      <c r="R69" s="233"/>
-      <c r="S69" s="233"/>
-      <c r="T69" s="233"/>
-      <c r="U69" s="233"/>
-      <c r="V69" s="233"/>
-      <c r="W69" s="233"/>
-      <c r="X69" s="233"/>
-      <c r="Y69" s="233"/>
-      <c r="Z69" s="233"/>
-      <c r="AA69" s="233"/>
-      <c r="AB69" s="233"/>
-      <c r="AC69" s="233"/>
-      <c r="AD69" s="233"/>
-      <c r="AE69" s="233"/>
-      <c r="AF69" s="233"/>
-      <c r="AG69" s="233"/>
-      <c r="AH69" s="233"/>
-      <c r="AI69" s="233"/>
-      <c r="AJ69" s="233"/>
-      <c r="AK69" s="233"/>
-      <c r="AL69" s="233"/>
-      <c r="AM69" s="233"/>
-      <c r="AN69" s="233"/>
-      <c r="AO69" s="233"/>
-      <c r="AP69" s="233"/>
-      <c r="AQ69" s="233"/>
-      <c r="AR69" s="233"/>
-      <c r="AS69" s="233"/>
-      <c r="AT69" s="233"/>
-      <c r="AU69" s="233"/>
-      <c r="AV69" s="233"/>
-      <c r="AW69" s="233"/>
-      <c r="AX69" s="233"/>
+      <c r="G69" s="232"/>
+      <c r="H69" s="232"/>
+      <c r="I69" s="232"/>
+      <c r="J69" s="232"/>
+      <c r="K69" s="232"/>
+      <c r="L69" s="232"/>
+      <c r="M69" s="232"/>
+      <c r="N69" s="232"/>
+      <c r="O69" s="232"/>
+      <c r="P69" s="232"/>
+      <c r="Q69" s="232"/>
+      <c r="R69" s="232"/>
+      <c r="S69" s="232"/>
+      <c r="T69" s="232"/>
+      <c r="U69" s="232"/>
+      <c r="V69" s="232"/>
+      <c r="W69" s="232"/>
+      <c r="X69" s="232"/>
+      <c r="Y69" s="232"/>
+      <c r="Z69" s="232"/>
+      <c r="AA69" s="232"/>
+      <c r="AB69" s="232"/>
+      <c r="AC69" s="232"/>
+      <c r="AD69" s="232"/>
+      <c r="AE69" s="232"/>
+      <c r="AF69" s="232"/>
+      <c r="AG69" s="232"/>
+      <c r="AH69" s="232"/>
+      <c r="AI69" s="232"/>
+      <c r="AJ69" s="232"/>
+      <c r="AK69" s="232"/>
+      <c r="AL69" s="232"/>
+      <c r="AM69" s="232"/>
+      <c r="AN69" s="232"/>
+      <c r="AO69" s="232"/>
+      <c r="AP69" s="232"/>
+      <c r="AQ69" s="232"/>
+      <c r="AR69" s="232"/>
+      <c r="AS69" s="232"/>
+      <c r="AT69" s="232"/>
+      <c r="AU69" s="232"/>
+      <c r="AV69" s="232"/>
+      <c r="AW69" s="232"/>
+      <c r="AX69" s="232"/>
     </row>
     <row r="70" spans="5:50">
-      <c r="E70" s="233"/>
-      <c r="F70" s="233" t="s">
+      <c r="E70" s="232"/>
+      <c r="F70" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G70" s="233" t="s">
+      <c r="G70" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="233"/>
-      <c r="I70" s="233"/>
-      <c r="J70" s="233"/>
-      <c r="K70" s="233"/>
-      <c r="L70" s="233"/>
-      <c r="M70" s="233"/>
-      <c r="N70" s="233"/>
-      <c r="O70" s="233"/>
-      <c r="P70" s="233"/>
-      <c r="Q70" s="233"/>
-      <c r="R70" s="233"/>
-      <c r="S70" s="233"/>
-      <c r="T70" s="233"/>
-      <c r="U70" s="233"/>
-      <c r="V70" s="233"/>
-      <c r="W70" s="233"/>
-      <c r="X70" s="233"/>
-      <c r="Y70" s="233"/>
-      <c r="Z70" s="233"/>
-      <c r="AA70" s="233"/>
-      <c r="AB70" s="233"/>
-      <c r="AC70" s="233"/>
-      <c r="AD70" s="233"/>
-      <c r="AE70" s="233"/>
-      <c r="AF70" s="233"/>
-      <c r="AG70" s="233"/>
-      <c r="AH70" s="233"/>
-      <c r="AI70" s="233"/>
-      <c r="AJ70" s="233"/>
-      <c r="AK70" s="233"/>
-      <c r="AL70" s="233"/>
-      <c r="AM70" s="233"/>
-      <c r="AN70" s="233"/>
-      <c r="AO70" s="233"/>
-      <c r="AP70" s="233"/>
-      <c r="AQ70" s="233"/>
-      <c r="AR70" s="233"/>
-      <c r="AS70" s="233"/>
-      <c r="AT70" s="233"/>
-      <c r="AU70" s="233"/>
-      <c r="AV70" s="233"/>
-      <c r="AW70" s="233"/>
-      <c r="AX70" s="233"/>
+      <c r="H70" s="232"/>
+      <c r="I70" s="232"/>
+      <c r="J70" s="232"/>
+      <c r="K70" s="232"/>
+      <c r="L70" s="232"/>
+      <c r="M70" s="232"/>
+      <c r="N70" s="232"/>
+      <c r="O70" s="232"/>
+      <c r="P70" s="232"/>
+      <c r="Q70" s="232"/>
+      <c r="R70" s="232"/>
+      <c r="S70" s="232"/>
+      <c r="T70" s="232"/>
+      <c r="U70" s="232"/>
+      <c r="V70" s="232"/>
+      <c r="W70" s="232"/>
+      <c r="X70" s="232"/>
+      <c r="Y70" s="232"/>
+      <c r="Z70" s="232"/>
+      <c r="AA70" s="232"/>
+      <c r="AB70" s="232"/>
+      <c r="AC70" s="232"/>
+      <c r="AD70" s="232"/>
+      <c r="AE70" s="232"/>
+      <c r="AF70" s="232"/>
+      <c r="AG70" s="232"/>
+      <c r="AH70" s="232"/>
+      <c r="AI70" s="232"/>
+      <c r="AJ70" s="232"/>
+      <c r="AK70" s="232"/>
+      <c r="AL70" s="232"/>
+      <c r="AM70" s="232"/>
+      <c r="AN70" s="232"/>
+      <c r="AO70" s="232"/>
+      <c r="AP70" s="232"/>
+      <c r="AQ70" s="232"/>
+      <c r="AR70" s="232"/>
+      <c r="AS70" s="232"/>
+      <c r="AT70" s="232"/>
+      <c r="AU70" s="232"/>
+      <c r="AV70" s="232"/>
+      <c r="AW70" s="232"/>
+      <c r="AX70" s="232"/>
     </row>
     <row r="71" spans="5:50">
-      <c r="E71" s="233"/>
-      <c r="F71" s="233" t="s">
+      <c r="E71" s="232"/>
+      <c r="F71" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="G71" s="233" t="s">
+      <c r="G71" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="H71" s="233"/>
-      <c r="I71" s="233"/>
-      <c r="J71" s="233"/>
-      <c r="K71" s="233"/>
-      <c r="L71" s="233"/>
-      <c r="M71" s="233"/>
-      <c r="N71" s="233"/>
-      <c r="O71" s="233"/>
-      <c r="P71" s="233"/>
-      <c r="Q71" s="233"/>
-      <c r="R71" s="233"/>
-      <c r="S71" s="233"/>
-      <c r="T71" s="233"/>
-      <c r="U71" s="233"/>
-      <c r="V71" s="233"/>
-      <c r="W71" s="233"/>
-      <c r="X71" s="233"/>
-      <c r="Y71" s="233"/>
-      <c r="Z71" s="233"/>
-      <c r="AA71" s="233"/>
-      <c r="AB71" s="233"/>
-      <c r="AC71" s="233"/>
-      <c r="AD71" s="233"/>
-      <c r="AE71" s="233"/>
-      <c r="AF71" s="233"/>
-      <c r="AG71" s="233"/>
-      <c r="AH71" s="233"/>
-      <c r="AI71" s="233"/>
-      <c r="AJ71" s="233"/>
-      <c r="AK71" s="233"/>
-      <c r="AL71" s="233"/>
-      <c r="AM71" s="233"/>
-      <c r="AN71" s="233"/>
-      <c r="AO71" s="233"/>
-      <c r="AP71" s="233"/>
-      <c r="AQ71" s="233"/>
-      <c r="AR71" s="233"/>
-      <c r="AS71" s="233"/>
-      <c r="AT71" s="233"/>
-      <c r="AU71" s="233"/>
-      <c r="AV71" s="233"/>
-      <c r="AW71" s="233"/>
-      <c r="AX71" s="233"/>
+      <c r="H71" s="232"/>
+      <c r="I71" s="232"/>
+      <c r="J71" s="232"/>
+      <c r="K71" s="232"/>
+      <c r="L71" s="232"/>
+      <c r="M71" s="232"/>
+      <c r="N71" s="232"/>
+      <c r="O71" s="232"/>
+      <c r="P71" s="232"/>
+      <c r="Q71" s="232"/>
+      <c r="R71" s="232"/>
+      <c r="S71" s="232"/>
+      <c r="T71" s="232"/>
+      <c r="U71" s="232"/>
+      <c r="V71" s="232"/>
+      <c r="W71" s="232"/>
+      <c r="X71" s="232"/>
+      <c r="Y71" s="232"/>
+      <c r="Z71" s="232"/>
+      <c r="AA71" s="232"/>
+      <c r="AB71" s="232"/>
+      <c r="AC71" s="232"/>
+      <c r="AD71" s="232"/>
+      <c r="AE71" s="232"/>
+      <c r="AF71" s="232"/>
+      <c r="AG71" s="232"/>
+      <c r="AH71" s="232"/>
+      <c r="AI71" s="232"/>
+      <c r="AJ71" s="232"/>
+      <c r="AK71" s="232"/>
+      <c r="AL71" s="232"/>
+      <c r="AM71" s="232"/>
+      <c r="AN71" s="232"/>
+      <c r="AO71" s="232"/>
+      <c r="AP71" s="232"/>
+      <c r="AQ71" s="232"/>
+      <c r="AR71" s="232"/>
+      <c r="AS71" s="232"/>
+      <c r="AT71" s="232"/>
+      <c r="AU71" s="232"/>
+      <c r="AV71" s="232"/>
+      <c r="AW71" s="232"/>
+      <c r="AX71" s="232"/>
     </row>
     <row r="72" spans="5:50">
-      <c r="E72" s="233"/>
-      <c r="F72" s="233"/>
-      <c r="G72" s="233"/>
-      <c r="H72" s="233"/>
-      <c r="I72" s="233"/>
-      <c r="J72" s="233"/>
-      <c r="K72" s="233"/>
-      <c r="L72" s="233"/>
-      <c r="M72" s="233"/>
-      <c r="N72" s="233"/>
-      <c r="O72" s="233"/>
-      <c r="P72" s="233"/>
-      <c r="Q72" s="233"/>
-      <c r="R72" s="233"/>
-      <c r="S72" s="233"/>
-      <c r="T72" s="233"/>
-      <c r="U72" s="233"/>
-      <c r="V72" s="233"/>
-      <c r="W72" s="233"/>
-      <c r="X72" s="233"/>
-      <c r="Y72" s="233"/>
-      <c r="Z72" s="233"/>
-      <c r="AA72" s="233"/>
-      <c r="AB72" s="233"/>
-      <c r="AC72" s="233"/>
-      <c r="AD72" s="233"/>
-      <c r="AE72" s="233"/>
-      <c r="AF72" s="233"/>
-      <c r="AG72" s="233"/>
-      <c r="AH72" s="233"/>
-      <c r="AI72" s="233"/>
-      <c r="AJ72" s="233"/>
-      <c r="AK72" s="233"/>
-      <c r="AL72" s="233"/>
-      <c r="AM72" s="233"/>
-      <c r="AN72" s="233"/>
-      <c r="AO72" s="233"/>
-      <c r="AP72" s="233"/>
-      <c r="AQ72" s="233"/>
-      <c r="AR72" s="233"/>
-      <c r="AS72" s="233"/>
-      <c r="AT72" s="233"/>
-      <c r="AU72" s="233"/>
-      <c r="AV72" s="233"/>
-      <c r="AW72" s="233"/>
-      <c r="AX72" s="233"/>
-    </row>
-    <row r="74" s="230" customFormat="1" ht="22.1" spans="3:3">
-      <c r="C74" s="231" t="s">
+      <c r="E72" s="232"/>
+      <c r="F72" s="232"/>
+      <c r="G72" s="232"/>
+      <c r="H72" s="232"/>
+      <c r="I72" s="232"/>
+      <c r="J72" s="232"/>
+      <c r="K72" s="232"/>
+      <c r="L72" s="232"/>
+      <c r="M72" s="232"/>
+      <c r="N72" s="232"/>
+      <c r="O72" s="232"/>
+      <c r="P72" s="232"/>
+      <c r="Q72" s="232"/>
+      <c r="R72" s="232"/>
+      <c r="S72" s="232"/>
+      <c r="T72" s="232"/>
+      <c r="U72" s="232"/>
+      <c r="V72" s="232"/>
+      <c r="W72" s="232"/>
+      <c r="X72" s="232"/>
+      <c r="Y72" s="232"/>
+      <c r="Z72" s="232"/>
+      <c r="AA72" s="232"/>
+      <c r="AB72" s="232"/>
+      <c r="AC72" s="232"/>
+      <c r="AD72" s="232"/>
+      <c r="AE72" s="232"/>
+      <c r="AF72" s="232"/>
+      <c r="AG72" s="232"/>
+      <c r="AH72" s="232"/>
+      <c r="AI72" s="232"/>
+      <c r="AJ72" s="232"/>
+      <c r="AK72" s="232"/>
+      <c r="AL72" s="232"/>
+      <c r="AM72" s="232"/>
+      <c r="AN72" s="232"/>
+      <c r="AO72" s="232"/>
+      <c r="AP72" s="232"/>
+      <c r="AQ72" s="232"/>
+      <c r="AR72" s="232"/>
+      <c r="AS72" s="232"/>
+      <c r="AT72" s="232"/>
+      <c r="AU72" s="232"/>
+      <c r="AV72" s="232"/>
+      <c r="AW72" s="232"/>
+      <c r="AX72" s="232"/>
+    </row>
+    <row r="74" s="229" customFormat="1" ht="22.1" spans="3:3">
+      <c r="C74" s="230" t="s">
         <v>68</v>
       </c>
     </row>
@@ -23789,7 +23788,7 @@
       <c r="Y77" t="s">
         <v>71</v>
       </c>
-      <c r="AF77" s="246" t="s">
+      <c r="AF77" s="245" t="s">
         <v>72</v>
       </c>
       <c r="AJ77" t="s">
@@ -23802,564 +23801,564 @@
       </c>
     </row>
     <row r="80" spans="5:50">
-      <c r="E80" s="244" t="s">
+      <c r="E80" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="F80" s="244" t="s">
+      <c r="F80" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="245"/>
-      <c r="H80" s="245"/>
-      <c r="I80" s="245"/>
-      <c r="J80" s="245"/>
-      <c r="K80" s="245"/>
-      <c r="L80" s="245"/>
-      <c r="M80" s="245"/>
-      <c r="N80" s="245"/>
-      <c r="O80" s="245"/>
-      <c r="P80" s="245"/>
-      <c r="Q80" s="245"/>
-      <c r="R80" s="245"/>
-      <c r="S80" s="245"/>
-      <c r="T80" s="245"/>
-      <c r="U80" s="245"/>
-      <c r="V80" s="245"/>
-      <c r="W80" s="245"/>
-      <c r="X80" s="245"/>
-      <c r="Y80" s="245"/>
-      <c r="Z80" s="245"/>
-      <c r="AA80" s="245"/>
-      <c r="AB80" s="245"/>
-      <c r="AC80" s="245"/>
-      <c r="AD80" s="245"/>
-      <c r="AE80" s="245"/>
-      <c r="AF80" s="245"/>
-      <c r="AG80" s="245"/>
-      <c r="AH80" s="245"/>
-      <c r="AI80" s="245"/>
-      <c r="AJ80" s="245"/>
-      <c r="AK80" s="245"/>
-      <c r="AL80" s="245"/>
-      <c r="AM80" s="245"/>
-      <c r="AN80" s="245"/>
-      <c r="AO80" s="245"/>
-      <c r="AP80" s="245"/>
-      <c r="AQ80" s="245"/>
-      <c r="AR80" s="245"/>
-      <c r="AS80" s="245"/>
-      <c r="AT80" s="245"/>
-      <c r="AU80" s="245"/>
-      <c r="AV80" s="245"/>
-      <c r="AW80" s="245"/>
-      <c r="AX80" s="245"/>
+      <c r="G80" s="244"/>
+      <c r="H80" s="244"/>
+      <c r="I80" s="244"/>
+      <c r="J80" s="244"/>
+      <c r="K80" s="244"/>
+      <c r="L80" s="244"/>
+      <c r="M80" s="244"/>
+      <c r="N80" s="244"/>
+      <c r="O80" s="244"/>
+      <c r="P80" s="244"/>
+      <c r="Q80" s="244"/>
+      <c r="R80" s="244"/>
+      <c r="S80" s="244"/>
+      <c r="T80" s="244"/>
+      <c r="U80" s="244"/>
+      <c r="V80" s="244"/>
+      <c r="W80" s="244"/>
+      <c r="X80" s="244"/>
+      <c r="Y80" s="244"/>
+      <c r="Z80" s="244"/>
+      <c r="AA80" s="244"/>
+      <c r="AB80" s="244"/>
+      <c r="AC80" s="244"/>
+      <c r="AD80" s="244"/>
+      <c r="AE80" s="244"/>
+      <c r="AF80" s="244"/>
+      <c r="AG80" s="244"/>
+      <c r="AH80" s="244"/>
+      <c r="AI80" s="244"/>
+      <c r="AJ80" s="244"/>
+      <c r="AK80" s="244"/>
+      <c r="AL80" s="244"/>
+      <c r="AM80" s="244"/>
+      <c r="AN80" s="244"/>
+      <c r="AO80" s="244"/>
+      <c r="AP80" s="244"/>
+      <c r="AQ80" s="244"/>
+      <c r="AR80" s="244"/>
+      <c r="AS80" s="244"/>
+      <c r="AT80" s="244"/>
+      <c r="AU80" s="244"/>
+      <c r="AV80" s="244"/>
+      <c r="AW80" s="244"/>
+      <c r="AX80" s="244"/>
     </row>
     <row r="81" spans="5:50">
-      <c r="E81" s="245"/>
-      <c r="F81" s="245" t="s">
+      <c r="E81" s="244"/>
+      <c r="F81" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="G81" s="245" t="s">
+      <c r="G81" s="244" t="s">
         <v>75</v>
       </c>
-      <c r="H81" s="245"/>
-      <c r="I81" s="245"/>
-      <c r="J81" s="245"/>
-      <c r="K81" s="245"/>
-      <c r="L81" s="245"/>
-      <c r="M81" s="245"/>
-      <c r="N81" s="245"/>
-      <c r="O81" s="245"/>
-      <c r="P81" s="245"/>
-      <c r="Q81" s="245"/>
-      <c r="R81" s="245"/>
-      <c r="S81" s="245"/>
-      <c r="T81" s="245"/>
-      <c r="U81" s="245"/>
-      <c r="V81" s="245"/>
-      <c r="W81" s="245"/>
-      <c r="X81" s="245"/>
-      <c r="Y81" s="245"/>
-      <c r="Z81" s="245"/>
-      <c r="AA81" s="245"/>
-      <c r="AB81" s="245"/>
-      <c r="AC81" s="245"/>
-      <c r="AD81" s="245"/>
-      <c r="AE81" s="245"/>
-      <c r="AF81" s="245"/>
-      <c r="AG81" s="245"/>
-      <c r="AH81" s="245"/>
-      <c r="AI81" s="245"/>
-      <c r="AJ81" s="245"/>
-      <c r="AK81" s="245"/>
-      <c r="AL81" s="245"/>
-      <c r="AM81" s="245"/>
-      <c r="AN81" s="245"/>
-      <c r="AO81" s="245"/>
-      <c r="AP81" s="245"/>
-      <c r="AQ81" s="245"/>
-      <c r="AR81" s="245"/>
-      <c r="AS81" s="245"/>
-      <c r="AT81" s="245"/>
-      <c r="AU81" s="245"/>
-      <c r="AV81" s="245"/>
-      <c r="AW81" s="245"/>
-      <c r="AX81" s="245"/>
+      <c r="H81" s="244"/>
+      <c r="I81" s="244"/>
+      <c r="J81" s="244"/>
+      <c r="K81" s="244"/>
+      <c r="L81" s="244"/>
+      <c r="M81" s="244"/>
+      <c r="N81" s="244"/>
+      <c r="O81" s="244"/>
+      <c r="P81" s="244"/>
+      <c r="Q81" s="244"/>
+      <c r="R81" s="244"/>
+      <c r="S81" s="244"/>
+      <c r="T81" s="244"/>
+      <c r="U81" s="244"/>
+      <c r="V81" s="244"/>
+      <c r="W81" s="244"/>
+      <c r="X81" s="244"/>
+      <c r="Y81" s="244"/>
+      <c r="Z81" s="244"/>
+      <c r="AA81" s="244"/>
+      <c r="AB81" s="244"/>
+      <c r="AC81" s="244"/>
+      <c r="AD81" s="244"/>
+      <c r="AE81" s="244"/>
+      <c r="AF81" s="244"/>
+      <c r="AG81" s="244"/>
+      <c r="AH81" s="244"/>
+      <c r="AI81" s="244"/>
+      <c r="AJ81" s="244"/>
+      <c r="AK81" s="244"/>
+      <c r="AL81" s="244"/>
+      <c r="AM81" s="244"/>
+      <c r="AN81" s="244"/>
+      <c r="AO81" s="244"/>
+      <c r="AP81" s="244"/>
+      <c r="AQ81" s="244"/>
+      <c r="AR81" s="244"/>
+      <c r="AS81" s="244"/>
+      <c r="AT81" s="244"/>
+      <c r="AU81" s="244"/>
+      <c r="AV81" s="244"/>
+      <c r="AW81" s="244"/>
+      <c r="AX81" s="244"/>
     </row>
     <row r="82" spans="5:50">
-      <c r="E82" s="245"/>
-      <c r="F82" s="245"/>
-      <c r="G82" s="245"/>
-      <c r="H82" s="245"/>
-      <c r="I82" s="245"/>
-      <c r="J82" s="245"/>
-      <c r="K82" s="245"/>
-      <c r="L82" s="245"/>
-      <c r="M82" s="245"/>
-      <c r="N82" s="245"/>
-      <c r="O82" s="245"/>
-      <c r="P82" s="245"/>
-      <c r="Q82" s="245"/>
-      <c r="R82" s="245"/>
-      <c r="S82" s="245"/>
-      <c r="T82" s="245"/>
-      <c r="U82" s="245"/>
-      <c r="V82" s="245"/>
-      <c r="W82" s="245"/>
-      <c r="X82" s="245"/>
-      <c r="Y82" s="245"/>
-      <c r="Z82" s="245"/>
-      <c r="AA82" s="245"/>
-      <c r="AB82" s="245"/>
-      <c r="AC82" s="245"/>
-      <c r="AD82" s="245"/>
-      <c r="AE82" s="245"/>
-      <c r="AF82" s="245"/>
-      <c r="AG82" s="245"/>
-      <c r="AH82" s="245"/>
-      <c r="AI82" s="245"/>
-      <c r="AJ82" s="245"/>
-      <c r="AK82" s="245"/>
-      <c r="AL82" s="245"/>
-      <c r="AM82" s="245"/>
-      <c r="AN82" s="245"/>
-      <c r="AO82" s="245"/>
-      <c r="AP82" s="245"/>
-      <c r="AQ82" s="245"/>
-      <c r="AR82" s="245"/>
-      <c r="AS82" s="245"/>
-      <c r="AT82" s="245"/>
-      <c r="AU82" s="245"/>
-      <c r="AV82" s="245"/>
-      <c r="AW82" s="245"/>
-      <c r="AX82" s="245"/>
+      <c r="E82" s="244"/>
+      <c r="F82" s="244"/>
+      <c r="G82" s="244"/>
+      <c r="H82" s="244"/>
+      <c r="I82" s="244"/>
+      <c r="J82" s="244"/>
+      <c r="K82" s="244"/>
+      <c r="L82" s="244"/>
+      <c r="M82" s="244"/>
+      <c r="N82" s="244"/>
+      <c r="O82" s="244"/>
+      <c r="P82" s="244"/>
+      <c r="Q82" s="244"/>
+      <c r="R82" s="244"/>
+      <c r="S82" s="244"/>
+      <c r="T82" s="244"/>
+      <c r="U82" s="244"/>
+      <c r="V82" s="244"/>
+      <c r="W82" s="244"/>
+      <c r="X82" s="244"/>
+      <c r="Y82" s="244"/>
+      <c r="Z82" s="244"/>
+      <c r="AA82" s="244"/>
+      <c r="AB82" s="244"/>
+      <c r="AC82" s="244"/>
+      <c r="AD82" s="244"/>
+      <c r="AE82" s="244"/>
+      <c r="AF82" s="244"/>
+      <c r="AG82" s="244"/>
+      <c r="AH82" s="244"/>
+      <c r="AI82" s="244"/>
+      <c r="AJ82" s="244"/>
+      <c r="AK82" s="244"/>
+      <c r="AL82" s="244"/>
+      <c r="AM82" s="244"/>
+      <c r="AN82" s="244"/>
+      <c r="AO82" s="244"/>
+      <c r="AP82" s="244"/>
+      <c r="AQ82" s="244"/>
+      <c r="AR82" s="244"/>
+      <c r="AS82" s="244"/>
+      <c r="AT82" s="244"/>
+      <c r="AU82" s="244"/>
+      <c r="AV82" s="244"/>
+      <c r="AW82" s="244"/>
+      <c r="AX82" s="244"/>
     </row>
     <row r="83" spans="5:50">
-      <c r="E83" s="244" t="s">
+      <c r="E83" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="F83" s="244" t="s">
+      <c r="F83" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="G83" s="245"/>
-      <c r="H83" s="245"/>
-      <c r="I83" s="245"/>
-      <c r="J83" s="245"/>
-      <c r="K83" s="245"/>
-      <c r="L83" s="245"/>
-      <c r="M83" s="245"/>
-      <c r="N83" s="245"/>
-      <c r="O83" s="245"/>
-      <c r="P83" s="245"/>
-      <c r="Q83" s="245"/>
-      <c r="R83" s="245"/>
-      <c r="S83" s="245"/>
-      <c r="T83" s="245"/>
-      <c r="U83" s="245"/>
-      <c r="V83" s="245"/>
-      <c r="W83" s="245"/>
-      <c r="X83" s="245"/>
-      <c r="Y83" s="245"/>
-      <c r="Z83" s="245"/>
-      <c r="AA83" s="245"/>
-      <c r="AB83" s="245"/>
-      <c r="AC83" s="245"/>
-      <c r="AD83" s="245"/>
-      <c r="AE83" s="245"/>
-      <c r="AF83" s="245"/>
-      <c r="AG83" s="245"/>
-      <c r="AH83" s="245"/>
-      <c r="AI83" s="245"/>
-      <c r="AJ83" s="245"/>
-      <c r="AK83" s="245"/>
-      <c r="AL83" s="245"/>
-      <c r="AM83" s="245"/>
-      <c r="AN83" s="245"/>
-      <c r="AO83" s="245"/>
-      <c r="AP83" s="245"/>
-      <c r="AQ83" s="245"/>
-      <c r="AR83" s="245"/>
-      <c r="AS83" s="245"/>
-      <c r="AT83" s="245"/>
-      <c r="AU83" s="245"/>
-      <c r="AV83" s="245"/>
-      <c r="AW83" s="245"/>
-      <c r="AX83" s="245"/>
+      <c r="G83" s="244"/>
+      <c r="H83" s="244"/>
+      <c r="I83" s="244"/>
+      <c r="J83" s="244"/>
+      <c r="K83" s="244"/>
+      <c r="L83" s="244"/>
+      <c r="M83" s="244"/>
+      <c r="N83" s="244"/>
+      <c r="O83" s="244"/>
+      <c r="P83" s="244"/>
+      <c r="Q83" s="244"/>
+      <c r="R83" s="244"/>
+      <c r="S83" s="244"/>
+      <c r="T83" s="244"/>
+      <c r="U83" s="244"/>
+      <c r="V83" s="244"/>
+      <c r="W83" s="244"/>
+      <c r="X83" s="244"/>
+      <c r="Y83" s="244"/>
+      <c r="Z83" s="244"/>
+      <c r="AA83" s="244"/>
+      <c r="AB83" s="244"/>
+      <c r="AC83" s="244"/>
+      <c r="AD83" s="244"/>
+      <c r="AE83" s="244"/>
+      <c r="AF83" s="244"/>
+      <c r="AG83" s="244"/>
+      <c r="AH83" s="244"/>
+      <c r="AI83" s="244"/>
+      <c r="AJ83" s="244"/>
+      <c r="AK83" s="244"/>
+      <c r="AL83" s="244"/>
+      <c r="AM83" s="244"/>
+      <c r="AN83" s="244"/>
+      <c r="AO83" s="244"/>
+      <c r="AP83" s="244"/>
+      <c r="AQ83" s="244"/>
+      <c r="AR83" s="244"/>
+      <c r="AS83" s="244"/>
+      <c r="AT83" s="244"/>
+      <c r="AU83" s="244"/>
+      <c r="AV83" s="244"/>
+      <c r="AW83" s="244"/>
+      <c r="AX83" s="244"/>
     </row>
     <row r="84" spans="5:50">
-      <c r="E84" s="245"/>
-      <c r="F84" s="245" t="s">
+      <c r="E84" s="244"/>
+      <c r="F84" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="G84" s="245" t="s">
+      <c r="G84" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="H84" s="245"/>
-      <c r="I84" s="245"/>
-      <c r="J84" s="245"/>
-      <c r="K84" s="245"/>
-      <c r="L84" s="245"/>
-      <c r="M84" s="245"/>
-      <c r="N84" s="245"/>
-      <c r="O84" s="245"/>
-      <c r="P84" s="245"/>
-      <c r="Q84" s="245"/>
-      <c r="R84" s="245"/>
-      <c r="S84" s="245"/>
-      <c r="T84" s="245"/>
-      <c r="U84" s="245"/>
-      <c r="V84" s="245"/>
-      <c r="W84" s="245"/>
-      <c r="X84" s="245"/>
-      <c r="Y84" s="245"/>
-      <c r="Z84" s="245"/>
-      <c r="AA84" s="245"/>
-      <c r="AB84" s="245"/>
-      <c r="AC84" s="245"/>
-      <c r="AD84" s="245"/>
-      <c r="AE84" s="245"/>
-      <c r="AF84" s="245"/>
-      <c r="AG84" s="245"/>
-      <c r="AH84" s="245"/>
-      <c r="AI84" s="245"/>
-      <c r="AJ84" s="245"/>
-      <c r="AK84" s="245"/>
-      <c r="AL84" s="245"/>
-      <c r="AM84" s="245"/>
-      <c r="AN84" s="245"/>
-      <c r="AO84" s="245"/>
-      <c r="AP84" s="245"/>
-      <c r="AQ84" s="245"/>
-      <c r="AR84" s="245"/>
-      <c r="AS84" s="245"/>
-      <c r="AT84" s="245"/>
-      <c r="AU84" s="245"/>
-      <c r="AV84" s="245"/>
-      <c r="AW84" s="245"/>
-      <c r="AX84" s="245"/>
+      <c r="H84" s="244"/>
+      <c r="I84" s="244"/>
+      <c r="J84" s="244"/>
+      <c r="K84" s="244"/>
+      <c r="L84" s="244"/>
+      <c r="M84" s="244"/>
+      <c r="N84" s="244"/>
+      <c r="O84" s="244"/>
+      <c r="P84" s="244"/>
+      <c r="Q84" s="244"/>
+      <c r="R84" s="244"/>
+      <c r="S84" s="244"/>
+      <c r="T84" s="244"/>
+      <c r="U84" s="244"/>
+      <c r="V84" s="244"/>
+      <c r="W84" s="244"/>
+      <c r="X84" s="244"/>
+      <c r="Y84" s="244"/>
+      <c r="Z84" s="244"/>
+      <c r="AA84" s="244"/>
+      <c r="AB84" s="244"/>
+      <c r="AC84" s="244"/>
+      <c r="AD84" s="244"/>
+      <c r="AE84" s="244"/>
+      <c r="AF84" s="244"/>
+      <c r="AG84" s="244"/>
+      <c r="AH84" s="244"/>
+      <c r="AI84" s="244"/>
+      <c r="AJ84" s="244"/>
+      <c r="AK84" s="244"/>
+      <c r="AL84" s="244"/>
+      <c r="AM84" s="244"/>
+      <c r="AN84" s="244"/>
+      <c r="AO84" s="244"/>
+      <c r="AP84" s="244"/>
+      <c r="AQ84" s="244"/>
+      <c r="AR84" s="244"/>
+      <c r="AS84" s="244"/>
+      <c r="AT84" s="244"/>
+      <c r="AU84" s="244"/>
+      <c r="AV84" s="244"/>
+      <c r="AW84" s="244"/>
+      <c r="AX84" s="244"/>
     </row>
     <row r="85" spans="5:50">
-      <c r="E85" s="245"/>
-      <c r="F85" s="245"/>
-      <c r="G85" s="245"/>
-      <c r="H85" s="245"/>
-      <c r="I85" s="245"/>
-      <c r="J85" s="245"/>
-      <c r="K85" s="245"/>
-      <c r="L85" s="245"/>
-      <c r="M85" s="245"/>
-      <c r="N85" s="245"/>
-      <c r="O85" s="245"/>
-      <c r="P85" s="245"/>
-      <c r="Q85" s="245"/>
-      <c r="R85" s="245"/>
-      <c r="S85" s="245"/>
-      <c r="T85" s="245"/>
-      <c r="U85" s="245"/>
-      <c r="V85" s="245"/>
-      <c r="W85" s="245"/>
-      <c r="X85" s="245"/>
-      <c r="Y85" s="245"/>
-      <c r="Z85" s="245"/>
-      <c r="AA85" s="245"/>
-      <c r="AB85" s="245"/>
-      <c r="AC85" s="245"/>
-      <c r="AD85" s="245"/>
-      <c r="AE85" s="245"/>
-      <c r="AF85" s="245"/>
-      <c r="AG85" s="245"/>
-      <c r="AH85" s="245"/>
-      <c r="AI85" s="245"/>
-      <c r="AJ85" s="245"/>
-      <c r="AK85" s="245"/>
-      <c r="AL85" s="245"/>
-      <c r="AM85" s="245"/>
-      <c r="AN85" s="245"/>
-      <c r="AO85" s="245"/>
-      <c r="AP85" s="245"/>
-      <c r="AQ85" s="245"/>
-      <c r="AR85" s="245"/>
-      <c r="AS85" s="245"/>
-      <c r="AT85" s="245"/>
-      <c r="AU85" s="245"/>
-      <c r="AV85" s="245"/>
-      <c r="AW85" s="245"/>
-      <c r="AX85" s="245"/>
+      <c r="E85" s="244"/>
+      <c r="F85" s="244"/>
+      <c r="G85" s="244"/>
+      <c r="H85" s="244"/>
+      <c r="I85" s="244"/>
+      <c r="J85" s="244"/>
+      <c r="K85" s="244"/>
+      <c r="L85" s="244"/>
+      <c r="M85" s="244"/>
+      <c r="N85" s="244"/>
+      <c r="O85" s="244"/>
+      <c r="P85" s="244"/>
+      <c r="Q85" s="244"/>
+      <c r="R85" s="244"/>
+      <c r="S85" s="244"/>
+      <c r="T85" s="244"/>
+      <c r="U85" s="244"/>
+      <c r="V85" s="244"/>
+      <c r="W85" s="244"/>
+      <c r="X85" s="244"/>
+      <c r="Y85" s="244"/>
+      <c r="Z85" s="244"/>
+      <c r="AA85" s="244"/>
+      <c r="AB85" s="244"/>
+      <c r="AC85" s="244"/>
+      <c r="AD85" s="244"/>
+      <c r="AE85" s="244"/>
+      <c r="AF85" s="244"/>
+      <c r="AG85" s="244"/>
+      <c r="AH85" s="244"/>
+      <c r="AI85" s="244"/>
+      <c r="AJ85" s="244"/>
+      <c r="AK85" s="244"/>
+      <c r="AL85" s="244"/>
+      <c r="AM85" s="244"/>
+      <c r="AN85" s="244"/>
+      <c r="AO85" s="244"/>
+      <c r="AP85" s="244"/>
+      <c r="AQ85" s="244"/>
+      <c r="AR85" s="244"/>
+      <c r="AS85" s="244"/>
+      <c r="AT85" s="244"/>
+      <c r="AU85" s="244"/>
+      <c r="AV85" s="244"/>
+      <c r="AW85" s="244"/>
+      <c r="AX85" s="244"/>
     </row>
     <row r="86" spans="5:50">
-      <c r="E86" s="244" t="s">
+      <c r="E86" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="F86" s="244" t="s">
+      <c r="F86" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="245"/>
-      <c r="H86" s="245"/>
-      <c r="I86" s="245"/>
-      <c r="J86" s="245"/>
-      <c r="K86" s="245"/>
-      <c r="L86" s="245"/>
-      <c r="M86" s="245"/>
-      <c r="N86" s="245"/>
-      <c r="O86" s="245"/>
-      <c r="P86" s="245"/>
-      <c r="Q86" s="245"/>
-      <c r="R86" s="245"/>
-      <c r="S86" s="245"/>
-      <c r="T86" s="245"/>
-      <c r="U86" s="245"/>
-      <c r="V86" s="245"/>
-      <c r="W86" s="245"/>
-      <c r="X86" s="245"/>
-      <c r="Y86" s="245"/>
-      <c r="Z86" s="245"/>
-      <c r="AA86" s="245"/>
-      <c r="AB86" s="245"/>
-      <c r="AC86" s="245"/>
-      <c r="AD86" s="245"/>
-      <c r="AE86" s="245"/>
-      <c r="AF86" s="245"/>
-      <c r="AG86" s="245"/>
-      <c r="AH86" s="245"/>
-      <c r="AI86" s="245"/>
-      <c r="AJ86" s="245"/>
-      <c r="AK86" s="245"/>
-      <c r="AL86" s="245"/>
-      <c r="AM86" s="245"/>
-      <c r="AN86" s="245"/>
-      <c r="AO86" s="245"/>
-      <c r="AP86" s="245"/>
-      <c r="AQ86" s="245"/>
-      <c r="AR86" s="245"/>
-      <c r="AS86" s="245"/>
-      <c r="AT86" s="245"/>
-      <c r="AU86" s="245"/>
-      <c r="AV86" s="245"/>
-      <c r="AW86" s="245"/>
-      <c r="AX86" s="245"/>
+      <c r="G86" s="244"/>
+      <c r="H86" s="244"/>
+      <c r="I86" s="244"/>
+      <c r="J86" s="244"/>
+      <c r="K86" s="244"/>
+      <c r="L86" s="244"/>
+      <c r="M86" s="244"/>
+      <c r="N86" s="244"/>
+      <c r="O86" s="244"/>
+      <c r="P86" s="244"/>
+      <c r="Q86" s="244"/>
+      <c r="R86" s="244"/>
+      <c r="S86" s="244"/>
+      <c r="T86" s="244"/>
+      <c r="U86" s="244"/>
+      <c r="V86" s="244"/>
+      <c r="W86" s="244"/>
+      <c r="X86" s="244"/>
+      <c r="Y86" s="244"/>
+      <c r="Z86" s="244"/>
+      <c r="AA86" s="244"/>
+      <c r="AB86" s="244"/>
+      <c r="AC86" s="244"/>
+      <c r="AD86" s="244"/>
+      <c r="AE86" s="244"/>
+      <c r="AF86" s="244"/>
+      <c r="AG86" s="244"/>
+      <c r="AH86" s="244"/>
+      <c r="AI86" s="244"/>
+      <c r="AJ86" s="244"/>
+      <c r="AK86" s="244"/>
+      <c r="AL86" s="244"/>
+      <c r="AM86" s="244"/>
+      <c r="AN86" s="244"/>
+      <c r="AO86" s="244"/>
+      <c r="AP86" s="244"/>
+      <c r="AQ86" s="244"/>
+      <c r="AR86" s="244"/>
+      <c r="AS86" s="244"/>
+      <c r="AT86" s="244"/>
+      <c r="AU86" s="244"/>
+      <c r="AV86" s="244"/>
+      <c r="AW86" s="244"/>
+      <c r="AX86" s="244"/>
     </row>
     <row r="87" spans="5:50">
-      <c r="E87" s="244" t="s">
+      <c r="E87" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="244" t="s">
+      <c r="F87" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="G87" s="245"/>
-      <c r="H87" s="245"/>
-      <c r="I87" s="245"/>
-      <c r="J87" s="245"/>
-      <c r="K87" s="245"/>
-      <c r="L87" s="245"/>
-      <c r="M87" s="245"/>
-      <c r="N87" s="245"/>
-      <c r="O87" s="245"/>
-      <c r="P87" s="245"/>
-      <c r="Q87" s="245"/>
-      <c r="R87" s="245"/>
-      <c r="S87" s="245"/>
-      <c r="T87" s="245"/>
-      <c r="U87" s="245"/>
-      <c r="V87" s="245"/>
-      <c r="W87" s="245"/>
-      <c r="X87" s="245"/>
-      <c r="Y87" s="245"/>
-      <c r="Z87" s="245"/>
-      <c r="AA87" s="245"/>
-      <c r="AB87" s="245"/>
-      <c r="AC87" s="245"/>
-      <c r="AD87" s="245"/>
-      <c r="AE87" s="245"/>
-      <c r="AF87" s="245"/>
-      <c r="AG87" s="245"/>
-      <c r="AH87" s="245"/>
-      <c r="AI87" s="245"/>
-      <c r="AJ87" s="245"/>
-      <c r="AK87" s="245"/>
-      <c r="AL87" s="245"/>
-      <c r="AM87" s="245"/>
-      <c r="AN87" s="245"/>
-      <c r="AO87" s="245"/>
-      <c r="AP87" s="245"/>
-      <c r="AQ87" s="245"/>
-      <c r="AR87" s="245"/>
-      <c r="AS87" s="245"/>
-      <c r="AT87" s="245"/>
-      <c r="AU87" s="245"/>
-      <c r="AV87" s="245"/>
-      <c r="AW87" s="245"/>
-      <c r="AX87" s="245"/>
+      <c r="G87" s="244"/>
+      <c r="H87" s="244"/>
+      <c r="I87" s="244"/>
+      <c r="J87" s="244"/>
+      <c r="K87" s="244"/>
+      <c r="L87" s="244"/>
+      <c r="M87" s="244"/>
+      <c r="N87" s="244"/>
+      <c r="O87" s="244"/>
+      <c r="P87" s="244"/>
+      <c r="Q87" s="244"/>
+      <c r="R87" s="244"/>
+      <c r="S87" s="244"/>
+      <c r="T87" s="244"/>
+      <c r="U87" s="244"/>
+      <c r="V87" s="244"/>
+      <c r="W87" s="244"/>
+      <c r="X87" s="244"/>
+      <c r="Y87" s="244"/>
+      <c r="Z87" s="244"/>
+      <c r="AA87" s="244"/>
+      <c r="AB87" s="244"/>
+      <c r="AC87" s="244"/>
+      <c r="AD87" s="244"/>
+      <c r="AE87" s="244"/>
+      <c r="AF87" s="244"/>
+      <c r="AG87" s="244"/>
+      <c r="AH87" s="244"/>
+      <c r="AI87" s="244"/>
+      <c r="AJ87" s="244"/>
+      <c r="AK87" s="244"/>
+      <c r="AL87" s="244"/>
+      <c r="AM87" s="244"/>
+      <c r="AN87" s="244"/>
+      <c r="AO87" s="244"/>
+      <c r="AP87" s="244"/>
+      <c r="AQ87" s="244"/>
+      <c r="AR87" s="244"/>
+      <c r="AS87" s="244"/>
+      <c r="AT87" s="244"/>
+      <c r="AU87" s="244"/>
+      <c r="AV87" s="244"/>
+      <c r="AW87" s="244"/>
+      <c r="AX87" s="244"/>
     </row>
     <row r="88" ht="17.65" spans="5:50">
-      <c r="E88" s="245"/>
-      <c r="F88" s="245" t="s">
+      <c r="E88" s="244"/>
+      <c r="F88" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="G88" s="245" t="s">
+      <c r="G88" s="244" t="s">
         <v>77</v>
       </c>
-      <c r="H88" s="245"/>
-      <c r="I88" s="245"/>
-      <c r="J88" s="245"/>
-      <c r="K88" s="245"/>
-      <c r="L88" s="245"/>
-      <c r="M88" s="245"/>
-      <c r="N88" s="245"/>
-      <c r="O88" s="245"/>
-      <c r="P88" s="245"/>
-      <c r="Q88" s="245"/>
-      <c r="R88" s="245"/>
-      <c r="S88" s="245"/>
-      <c r="T88" s="245"/>
-      <c r="U88" s="245"/>
-      <c r="V88" s="245"/>
-      <c r="W88" s="245"/>
-      <c r="X88" s="245"/>
-      <c r="Y88" s="245"/>
-      <c r="Z88" s="245"/>
-      <c r="AA88" s="245"/>
-      <c r="AB88" s="245"/>
-      <c r="AC88" s="245"/>
-      <c r="AD88" s="245"/>
-      <c r="AE88" s="245"/>
-      <c r="AF88" s="245"/>
-      <c r="AG88" s="245"/>
-      <c r="AH88" s="245"/>
-      <c r="AI88" s="245"/>
-      <c r="AJ88" s="245"/>
-      <c r="AK88" s="245"/>
-      <c r="AL88" s="245"/>
-      <c r="AM88" s="245"/>
-      <c r="AN88" s="245"/>
-      <c r="AO88" s="245"/>
-      <c r="AP88" s="245"/>
-      <c r="AQ88" s="245"/>
-      <c r="AR88" s="245"/>
-      <c r="AS88" s="245"/>
-      <c r="AT88" s="245"/>
-      <c r="AU88" s="245"/>
-      <c r="AV88" s="245"/>
-      <c r="AW88" s="245"/>
-      <c r="AX88" s="245"/>
+      <c r="H88" s="244"/>
+      <c r="I88" s="244"/>
+      <c r="J88" s="244"/>
+      <c r="K88" s="244"/>
+      <c r="L88" s="244"/>
+      <c r="M88" s="244"/>
+      <c r="N88" s="244"/>
+      <c r="O88" s="244"/>
+      <c r="P88" s="244"/>
+      <c r="Q88" s="244"/>
+      <c r="R88" s="244"/>
+      <c r="S88" s="244"/>
+      <c r="T88" s="244"/>
+      <c r="U88" s="244"/>
+      <c r="V88" s="244"/>
+      <c r="W88" s="244"/>
+      <c r="X88" s="244"/>
+      <c r="Y88" s="244"/>
+      <c r="Z88" s="244"/>
+      <c r="AA88" s="244"/>
+      <c r="AB88" s="244"/>
+      <c r="AC88" s="244"/>
+      <c r="AD88" s="244"/>
+      <c r="AE88" s="244"/>
+      <c r="AF88" s="244"/>
+      <c r="AG88" s="244"/>
+      <c r="AH88" s="244"/>
+      <c r="AI88" s="244"/>
+      <c r="AJ88" s="244"/>
+      <c r="AK88" s="244"/>
+      <c r="AL88" s="244"/>
+      <c r="AM88" s="244"/>
+      <c r="AN88" s="244"/>
+      <c r="AO88" s="244"/>
+      <c r="AP88" s="244"/>
+      <c r="AQ88" s="244"/>
+      <c r="AR88" s="244"/>
+      <c r="AS88" s="244"/>
+      <c r="AT88" s="244"/>
+      <c r="AU88" s="244"/>
+      <c r="AV88" s="244"/>
+      <c r="AW88" s="244"/>
+      <c r="AX88" s="244"/>
     </row>
     <row r="89" spans="5:50">
-      <c r="E89" s="245"/>
-      <c r="F89" s="245"/>
-      <c r="G89" s="245" t="s">
+      <c r="E89" s="244"/>
+      <c r="F89" s="244"/>
+      <c r="G89" s="244" t="s">
         <v>78</v>
       </c>
-      <c r="H89" s="245"/>
-      <c r="I89" s="245"/>
-      <c r="J89" s="245"/>
-      <c r="K89" s="245"/>
-      <c r="L89" s="245"/>
-      <c r="M89" s="245"/>
-      <c r="N89" s="245"/>
-      <c r="O89" s="245"/>
-      <c r="P89" s="245"/>
-      <c r="Q89" s="245"/>
-      <c r="R89" s="245"/>
-      <c r="S89" s="245"/>
-      <c r="T89" s="245"/>
-      <c r="U89" s="245"/>
-      <c r="V89" s="245"/>
-      <c r="W89" s="245"/>
-      <c r="X89" s="245"/>
-      <c r="Y89" s="245"/>
-      <c r="Z89" s="245"/>
-      <c r="AA89" s="245"/>
-      <c r="AB89" s="245"/>
-      <c r="AC89" s="245"/>
-      <c r="AD89" s="245"/>
-      <c r="AE89" s="245"/>
-      <c r="AF89" s="245"/>
-      <c r="AG89" s="245"/>
-      <c r="AH89" s="245"/>
-      <c r="AI89" s="245"/>
-      <c r="AJ89" s="245"/>
-      <c r="AK89" s="245"/>
-      <c r="AL89" s="245"/>
-      <c r="AM89" s="245"/>
-      <c r="AN89" s="245"/>
-      <c r="AO89" s="245"/>
-      <c r="AP89" s="245"/>
-      <c r="AQ89" s="245"/>
-      <c r="AR89" s="245"/>
-      <c r="AS89" s="245"/>
-      <c r="AT89" s="245"/>
-      <c r="AU89" s="245"/>
-      <c r="AV89" s="245"/>
-      <c r="AW89" s="245"/>
-      <c r="AX89" s="245"/>
+      <c r="H89" s="244"/>
+      <c r="I89" s="244"/>
+      <c r="J89" s="244"/>
+      <c r="K89" s="244"/>
+      <c r="L89" s="244"/>
+      <c r="M89" s="244"/>
+      <c r="N89" s="244"/>
+      <c r="O89" s="244"/>
+      <c r="P89" s="244"/>
+      <c r="Q89" s="244"/>
+      <c r="R89" s="244"/>
+      <c r="S89" s="244"/>
+      <c r="T89" s="244"/>
+      <c r="U89" s="244"/>
+      <c r="V89" s="244"/>
+      <c r="W89" s="244"/>
+      <c r="X89" s="244"/>
+      <c r="Y89" s="244"/>
+      <c r="Z89" s="244"/>
+      <c r="AA89" s="244"/>
+      <c r="AB89" s="244"/>
+      <c r="AC89" s="244"/>
+      <c r="AD89" s="244"/>
+      <c r="AE89" s="244"/>
+      <c r="AF89" s="244"/>
+      <c r="AG89" s="244"/>
+      <c r="AH89" s="244"/>
+      <c r="AI89" s="244"/>
+      <c r="AJ89" s="244"/>
+      <c r="AK89" s="244"/>
+      <c r="AL89" s="244"/>
+      <c r="AM89" s="244"/>
+      <c r="AN89" s="244"/>
+      <c r="AO89" s="244"/>
+      <c r="AP89" s="244"/>
+      <c r="AQ89" s="244"/>
+      <c r="AR89" s="244"/>
+      <c r="AS89" s="244"/>
+      <c r="AT89" s="244"/>
+      <c r="AU89" s="244"/>
+      <c r="AV89" s="244"/>
+      <c r="AW89" s="244"/>
+      <c r="AX89" s="244"/>
     </row>
     <row r="90" spans="5:50">
-      <c r="E90" s="245"/>
-      <c r="F90" s="245"/>
-      <c r="G90" s="245" t="s">
+      <c r="E90" s="244"/>
+      <c r="F90" s="244"/>
+      <c r="G90" s="244" t="s">
         <v>79</v>
       </c>
-      <c r="H90" s="245"/>
-      <c r="I90" s="245"/>
-      <c r="J90" s="245"/>
-      <c r="K90" s="245"/>
-      <c r="L90" s="245"/>
-      <c r="M90" s="245"/>
-      <c r="N90" s="245"/>
-      <c r="O90" s="245"/>
-      <c r="P90" s="245"/>
-      <c r="Q90" s="245"/>
-      <c r="R90" s="245"/>
-      <c r="S90" s="245"/>
-      <c r="T90" s="245"/>
-      <c r="U90" s="245"/>
-      <c r="V90" s="245"/>
-      <c r="W90" s="245"/>
-      <c r="X90" s="245"/>
-      <c r="Y90" s="245"/>
-      <c r="Z90" s="245"/>
-      <c r="AA90" s="245"/>
-      <c r="AB90" s="245"/>
-      <c r="AC90" s="245"/>
-      <c r="AD90" s="245"/>
-      <c r="AE90" s="245"/>
-      <c r="AF90" s="245"/>
-      <c r="AG90" s="245"/>
-      <c r="AH90" s="245"/>
-      <c r="AI90" s="245"/>
-      <c r="AJ90" s="245"/>
-      <c r="AK90" s="245"/>
-      <c r="AL90" s="245"/>
-      <c r="AM90" s="245"/>
-      <c r="AN90" s="245"/>
-      <c r="AO90" s="245"/>
-      <c r="AP90" s="245"/>
-      <c r="AQ90" s="245"/>
-      <c r="AR90" s="245"/>
-      <c r="AS90" s="245"/>
-      <c r="AT90" s="245"/>
-      <c r="AU90" s="245"/>
-      <c r="AV90" s="245"/>
-      <c r="AW90" s="245"/>
-      <c r="AX90" s="245"/>
+      <c r="H90" s="244"/>
+      <c r="I90" s="244"/>
+      <c r="J90" s="244"/>
+      <c r="K90" s="244"/>
+      <c r="L90" s="244"/>
+      <c r="M90" s="244"/>
+      <c r="N90" s="244"/>
+      <c r="O90" s="244"/>
+      <c r="P90" s="244"/>
+      <c r="Q90" s="244"/>
+      <c r="R90" s="244"/>
+      <c r="S90" s="244"/>
+      <c r="T90" s="244"/>
+      <c r="U90" s="244"/>
+      <c r="V90" s="244"/>
+      <c r="W90" s="244"/>
+      <c r="X90" s="244"/>
+      <c r="Y90" s="244"/>
+      <c r="Z90" s="244"/>
+      <c r="AA90" s="244"/>
+      <c r="AB90" s="244"/>
+      <c r="AC90" s="244"/>
+      <c r="AD90" s="244"/>
+      <c r="AE90" s="244"/>
+      <c r="AF90" s="244"/>
+      <c r="AG90" s="244"/>
+      <c r="AH90" s="244"/>
+      <c r="AI90" s="244"/>
+      <c r="AJ90" s="244"/>
+      <c r="AK90" s="244"/>
+      <c r="AL90" s="244"/>
+      <c r="AM90" s="244"/>
+      <c r="AN90" s="244"/>
+      <c r="AO90" s="244"/>
+      <c r="AP90" s="244"/>
+      <c r="AQ90" s="244"/>
+      <c r="AR90" s="244"/>
+      <c r="AS90" s="244"/>
+      <c r="AT90" s="244"/>
+      <c r="AU90" s="244"/>
+      <c r="AV90" s="244"/>
+      <c r="AW90" s="244"/>
+      <c r="AX90" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -26184,8 +26183,8 @@
   <sheetPr/>
   <dimension ref="A1:BH35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -30081,7 +30080,7 @@
   <sheetPr/>
   <dimension ref="A1:BH68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -30750,7 +30749,7 @@
       <c r="Q31" s="111"/>
       <c r="R31" s="111"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="247" t="s">
+      <c r="T31" s="246" t="s">
         <v>450</v>
       </c>
       <c r="U31" s="30"/>
@@ -30784,7 +30783,7 @@
       <c r="Q32" s="161"/>
       <c r="R32" s="161"/>
       <c r="S32" s="161"/>
-      <c r="T32" s="247" t="s">
+      <c r="T32" s="246" t="s">
         <v>452</v>
       </c>
       <c r="U32" s="30"/>
@@ -32169,7 +32168,7 @@
       <c r="R33" s="111"/>
       <c r="S33" s="111"/>
       <c r="T33" s="111"/>
-      <c r="U33" s="247" t="s">
+      <c r="U33" s="246" t="s">
         <v>450</v>
       </c>
       <c r="V33" s="30"/>
@@ -32565,7 +32564,7 @@
       <c r="R51" s="111"/>
       <c r="S51" s="111"/>
       <c r="T51" s="111"/>
-      <c r="U51" s="247" t="s">
+      <c r="U51" s="246" t="s">
         <v>488</v>
       </c>
       <c r="V51" s="30"/>
@@ -32599,7 +32598,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="20"/>
-      <c r="U52" s="247" t="s">
+      <c r="U52" s="246" t="s">
         <v>489</v>
       </c>
       <c r="V52" s="30"/>
@@ -33675,7 +33674,7 @@
       <c r="Q17" s="111"/>
       <c r="R17" s="111"/>
       <c r="S17" s="111"/>
-      <c r="T17" s="247" t="s">
+      <c r="T17" s="246" t="s">
         <v>516</v>
       </c>
       <c r="U17" s="30"/>
@@ -33963,7 +33962,7 @@
       <c r="Q32" s="111"/>
       <c r="R32" s="111"/>
       <c r="S32" s="111"/>
-      <c r="T32" s="247" t="s">
+      <c r="T32" s="246" t="s">
         <v>516</v>
       </c>
       <c r="U32" s="30"/>
@@ -33997,7 +33996,7 @@
       <c r="Q33" s="111"/>
       <c r="R33" s="111"/>
       <c r="S33" s="111"/>
-      <c r="T33" s="247" t="s">
+      <c r="T33" s="246" t="s">
         <v>523</v>
       </c>
       <c r="U33" s="30"/>
@@ -34370,7 +34369,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="21"/>
       <c r="T61" s="20"/>
-      <c r="U61" s="247" t="s">
+      <c r="U61" s="246" t="s">
         <v>532</v>
       </c>
       <c r="V61" s="30"/>
@@ -34573,7 +34572,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="21"/>
       <c r="T70" s="20"/>
-      <c r="U70" s="247" t="s">
+      <c r="U70" s="246" t="s">
         <v>534</v>
       </c>
       <c r="V70" s="30"/>
@@ -34607,7 +34606,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="21"/>
       <c r="T71" s="20"/>
-      <c r="U71" s="247" t="s">
+      <c r="U71" s="246" t="s">
         <v>535</v>
       </c>
       <c r="V71" s="30"/>
@@ -34641,7 +34640,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="21"/>
       <c r="T72" s="20"/>
-      <c r="U72" s="247" t="s">
+      <c r="U72" s="246" t="s">
         <v>536</v>
       </c>
       <c r="V72" s="30"/>
@@ -34675,7 +34674,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="21"/>
       <c r="T73" s="20"/>
-      <c r="U73" s="247" t="s">
+      <c r="U73" s="246" t="s">
         <v>537</v>
       </c>
       <c r="V73" s="30"/>
@@ -34709,7 +34708,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="21"/>
       <c r="T74" s="20"/>
-      <c r="U74" s="247" t="s">
+      <c r="U74" s="246" t="s">
         <v>538</v>
       </c>
       <c r="V74" s="30"/>
@@ -34851,7 +34850,7 @@
   <sheetPr/>
   <dimension ref="A1:BH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -35315,7 +35314,7 @@
       <c r="Q17" s="111"/>
       <c r="R17" s="111"/>
       <c r="S17" s="111"/>
-      <c r="T17" s="247" t="s">
+      <c r="T17" s="246" t="s">
         <v>516</v>
       </c>
       <c r="U17" s="30"/>
@@ -35603,7 +35602,7 @@
       <c r="Q32" s="111"/>
       <c r="R32" s="111"/>
       <c r="S32" s="111"/>
-      <c r="T32" s="247" t="s">
+      <c r="T32" s="246" t="s">
         <v>516</v>
       </c>
       <c r="U32" s="30"/>
@@ -35637,7 +35636,7 @@
       <c r="Q33" s="111"/>
       <c r="R33" s="111"/>
       <c r="S33" s="111"/>
-      <c r="T33" s="247" t="s">
+      <c r="T33" s="246" t="s">
         <v>523</v>
       </c>
       <c r="U33" s="30"/>
@@ -36038,7 +36037,7 @@
       <c r="Q63" s="30"/>
       <c r="R63" s="30"/>
       <c r="S63" s="30"/>
-      <c r="T63" s="247" t="s">
+      <c r="T63" s="246" t="s">
         <v>548</v>
       </c>
       <c r="U63" s="30"/>
@@ -36274,7 +36273,7 @@
       <c r="Q73" s="30"/>
       <c r="R73" s="30"/>
       <c r="S73" s="30"/>
-      <c r="T73" s="247" t="s">
+      <c r="T73" s="246" t="s">
         <v>552</v>
       </c>
       <c r="U73" s="30"/>
@@ -36308,7 +36307,7 @@
       <c r="Q74" s="30"/>
       <c r="R74" s="30"/>
       <c r="S74" s="30"/>
-      <c r="T74" s="247" t="s">
+      <c r="T74" s="246" t="s">
         <v>554</v>
       </c>
       <c r="U74" s="30"/>
@@ -36342,7 +36341,7 @@
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
       <c r="S75" s="30"/>
-      <c r="T75" s="247" t="s">
+      <c r="T75" s="246" t="s">
         <v>556</v>
       </c>
       <c r="U75" s="30"/>
@@ -36376,7 +36375,7 @@
       <c r="Q76" s="30"/>
       <c r="R76" s="30"/>
       <c r="S76" s="30"/>
-      <c r="T76" s="247" t="s">
+      <c r="T76" s="246" t="s">
         <v>557</v>
       </c>
       <c r="U76" s="30"/>
@@ -36410,7 +36409,7 @@
       <c r="Q77" s="30"/>
       <c r="R77" s="30"/>
       <c r="S77" s="30"/>
-      <c r="T77" s="247" t="s">
+      <c r="T77" s="246" t="s">
         <v>559</v>
       </c>
       <c r="U77" s="30"/>
@@ -36444,7 +36443,7 @@
       <c r="Q78" s="30"/>
       <c r="R78" s="30"/>
       <c r="S78" s="30"/>
-      <c r="T78" s="247" t="s">
+      <c r="T78" s="246" t="s">
         <v>560</v>
       </c>
       <c r="U78" s="30"/>
@@ -37002,7 +37001,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="247" t="s">
+      <c r="T15" s="246" t="s">
         <v>548</v>
       </c>
       <c r="U15" s="30"/>
@@ -37238,7 +37237,7 @@
       <c r="Q25" s="30"/>
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
-      <c r="T25" s="247" t="s">
+      <c r="T25" s="246" t="s">
         <v>568</v>
       </c>
       <c r="U25" s="30"/>
@@ -37272,7 +37271,7 @@
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
-      <c r="T26" s="247" t="s">
+      <c r="T26" s="246" t="s">
         <v>570</v>
       </c>
       <c r="U26" s="30"/>
@@ -37422,7 +37421,7 @@
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
       <c r="S40" s="20"/>
-      <c r="T40" s="247" t="s">
+      <c r="T40" s="246" t="s">
         <v>576</v>
       </c>
       <c r="U40" s="30"/>
@@ -37588,7 +37587,7 @@
       <c r="Q48" s="111"/>
       <c r="R48" s="111"/>
       <c r="S48" s="111"/>
-      <c r="T48" s="247" t="s">
+      <c r="T48" s="246" t="s">
         <v>578</v>
       </c>
       <c r="U48" s="30"/>
@@ -37622,7 +37621,7 @@
       <c r="Q49" s="111"/>
       <c r="R49" s="111"/>
       <c r="S49" s="111"/>
-      <c r="T49" s="247" t="s">
+      <c r="T49" s="246" t="s">
         <v>580</v>
       </c>
       <c r="U49" s="30"/>
@@ -37788,7 +37787,7 @@
   <sheetPr/>
   <dimension ref="A1:BH57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -38426,7 +38425,7 @@
       <c r="Q35" s="30"/>
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
-      <c r="T35" s="247" t="s">
+      <c r="T35" s="246" t="s">
         <v>590</v>
       </c>
       <c r="U35" s="30"/>
@@ -38460,7 +38459,7 @@
       <c r="Q36" s="30"/>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
-      <c r="T36" s="247" t="s">
+      <c r="T36" s="246" t="s">
         <v>452</v>
       </c>
       <c r="U36" s="30"/>
@@ -38738,7 +38737,7 @@
       <c r="Q52" s="30"/>
       <c r="R52" s="30"/>
       <c r="S52" s="30"/>
-      <c r="T52" s="247" t="s">
+      <c r="T52" s="246" t="s">
         <v>568</v>
       </c>
       <c r="U52" s="30"/>
@@ -38772,7 +38771,7 @@
       <c r="Q53" s="30"/>
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
-      <c r="T53" s="247" t="s">
+      <c r="T53" s="246" t="s">
         <v>595</v>
       </c>
       <c r="U53" s="30"/>
@@ -38905,8 +38904,8 @@
   <sheetPr/>
   <dimension ref="A1:BH73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57:W57"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59:Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -39593,11 +39592,11 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="224"/>
-      <c r="AF20" s="225"/>
-      <c r="AG20" s="225"/>
-      <c r="AH20" s="225"/>
-      <c r="AI20" s="228"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="224"/>
+      <c r="AG20" s="224"/>
+      <c r="AH20" s="224"/>
+      <c r="AI20" s="227"/>
       <c r="AJ20" s="19" t="s">
         <v>128</v>
       </c>
@@ -39655,11 +39654,11 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="224"/>
-      <c r="AF21" s="225"/>
-      <c r="AG21" s="225"/>
-      <c r="AH21" s="225"/>
-      <c r="AI21" s="228"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="224"/>
+      <c r="AG21" s="224"/>
+      <c r="AH21" s="224"/>
+      <c r="AI21" s="227"/>
       <c r="AJ21" s="19"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
@@ -39715,11 +39714,11 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="224"/>
-      <c r="AF22" s="225"/>
-      <c r="AG22" s="225"/>
-      <c r="AH22" s="225"/>
-      <c r="AI22" s="228"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="224"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="224"/>
+      <c r="AI22" s="227"/>
       <c r="AJ22" s="19"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
@@ -39775,13 +39774,13 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="224">
+      <c r="AE23" s="223">
         <v>0</v>
       </c>
-      <c r="AF23" s="225"/>
-      <c r="AG23" s="225"/>
-      <c r="AH23" s="225"/>
-      <c r="AI23" s="228"/>
+      <c r="AF23" s="224"/>
+      <c r="AG23" s="224"/>
+      <c r="AH23" s="224"/>
+      <c r="AI23" s="227"/>
       <c r="AJ23" s="19" t="s">
         <v>137</v>
       </c>
@@ -39839,13 +39838,13 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="224">
+      <c r="AE24" s="223">
         <v>0</v>
       </c>
-      <c r="AF24" s="225"/>
-      <c r="AG24" s="225"/>
-      <c r="AH24" s="225"/>
-      <c r="AI24" s="228"/>
+      <c r="AF24" s="224"/>
+      <c r="AG24" s="224"/>
+      <c r="AH24" s="224"/>
+      <c r="AI24" s="227"/>
       <c r="AJ24" s="19" t="s">
         <v>140</v>
       </c>
@@ -39865,11 +39864,11 @@
     </row>
     <row r="26" customFormat="1" customHeight="1" spans="2:7">
       <c r="B26" s="140"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="222"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="222"/>
     </row>
     <row r="27" customFormat="1" customHeight="1" spans="2:17">
       <c r="B27" s="54" t="s">
@@ -40025,11 +40024,11 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="224"/>
-      <c r="AF30" s="225"/>
-      <c r="AG30" s="225"/>
-      <c r="AH30" s="225"/>
-      <c r="AI30" s="228"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="224"/>
+      <c r="AG30" s="224"/>
+      <c r="AH30" s="224"/>
+      <c r="AI30" s="227"/>
       <c r="AJ30" s="19" t="s">
         <v>128</v>
       </c>
@@ -40087,11 +40086,11 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="224"/>
-      <c r="AF31" s="225"/>
-      <c r="AG31" s="225"/>
-      <c r="AH31" s="225"/>
-      <c r="AI31" s="228"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="224"/>
+      <c r="AG31" s="224"/>
+      <c r="AH31" s="224"/>
+      <c r="AI31" s="227"/>
       <c r="AJ31" s="19" t="s">
         <v>146</v>
       </c>
@@ -40149,13 +40148,13 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="224">
+      <c r="AE32" s="223">
         <v>0</v>
       </c>
-      <c r="AF32" s="225"/>
-      <c r="AG32" s="225"/>
-      <c r="AH32" s="225"/>
-      <c r="AI32" s="228"/>
+      <c r="AF32" s="224"/>
+      <c r="AG32" s="224"/>
+      <c r="AH32" s="224"/>
+      <c r="AI32" s="227"/>
       <c r="AJ32" s="19"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
@@ -40211,13 +40210,13 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="224">
+      <c r="AE33" s="223">
         <v>0</v>
       </c>
-      <c r="AF33" s="225"/>
-      <c r="AG33" s="225"/>
-      <c r="AH33" s="225"/>
-      <c r="AI33" s="228"/>
+      <c r="AF33" s="224"/>
+      <c r="AG33" s="224"/>
+      <c r="AH33" s="224"/>
+      <c r="AI33" s="227"/>
       <c r="AJ33" s="19" t="s">
         <v>140</v>
       </c>
@@ -40236,12 +40235,12 @@
       <c r="AW33" s="20"/>
     </row>
     <row r="35" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B35" s="223"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
+      <c r="B35" s="222"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="222"/>
+      <c r="G35" s="222"/>
     </row>
     <row r="36" customFormat="1" customHeight="1" spans="2:17">
       <c r="B36" s="54" t="s">
@@ -40397,11 +40396,11 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="224"/>
-      <c r="AF39" s="225"/>
-      <c r="AG39" s="225"/>
-      <c r="AH39" s="225"/>
-      <c r="AI39" s="228"/>
+      <c r="AE39" s="223"/>
+      <c r="AF39" s="224"/>
+      <c r="AG39" s="224"/>
+      <c r="AH39" s="224"/>
+      <c r="AI39" s="227"/>
       <c r="AJ39" s="19" t="s">
         <v>128</v>
       </c>
@@ -40461,11 +40460,11 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="224"/>
-      <c r="AF40" s="225"/>
-      <c r="AG40" s="225"/>
-      <c r="AH40" s="225"/>
-      <c r="AI40" s="228"/>
+      <c r="AE40" s="223"/>
+      <c r="AF40" s="224"/>
+      <c r="AG40" s="224"/>
+      <c r="AH40" s="224"/>
+      <c r="AI40" s="227"/>
       <c r="AJ40" s="19" t="s">
         <v>152</v>
       </c>
@@ -40523,11 +40522,11 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="224"/>
-      <c r="AF41" s="225"/>
-      <c r="AG41" s="225"/>
-      <c r="AH41" s="225"/>
-      <c r="AI41" s="228"/>
+      <c r="AE41" s="223"/>
+      <c r="AF41" s="224"/>
+      <c r="AG41" s="224"/>
+      <c r="AH41" s="224"/>
+      <c r="AI41" s="227"/>
       <c r="AJ41" s="19" t="s">
         <v>146</v>
       </c>
@@ -40585,13 +40584,13 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="224">
+      <c r="AE42" s="223">
         <v>0</v>
       </c>
-      <c r="AF42" s="225"/>
-      <c r="AG42" s="225"/>
-      <c r="AH42" s="225"/>
-      <c r="AI42" s="228"/>
+      <c r="AF42" s="224"/>
+      <c r="AG42" s="224"/>
+      <c r="AH42" s="224"/>
+      <c r="AI42" s="227"/>
       <c r="AJ42" s="19" t="s">
         <v>140</v>
       </c>
@@ -40763,11 +40762,11 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-      <c r="AE48" s="224"/>
-      <c r="AF48" s="225"/>
-      <c r="AG48" s="225"/>
-      <c r="AH48" s="225"/>
-      <c r="AI48" s="228"/>
+      <c r="AE48" s="223"/>
+      <c r="AF48" s="224"/>
+      <c r="AG48" s="224"/>
+      <c r="AH48" s="224"/>
+      <c r="AI48" s="227"/>
       <c r="AJ48" s="19"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
@@ -40823,11 +40822,11 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-      <c r="AE49" s="226"/>
-      <c r="AF49" s="227"/>
-      <c r="AG49" s="227"/>
-      <c r="AH49" s="227"/>
-      <c r="AI49" s="229"/>
+      <c r="AE49" s="225"/>
+      <c r="AF49" s="226"/>
+      <c r="AG49" s="226"/>
+      <c r="AH49" s="226"/>
+      <c r="AI49" s="228"/>
       <c r="AJ49" s="19"/>
       <c r="AK49" s="21"/>
       <c r="AL49" s="21"/>
@@ -40883,13 +40882,13 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-      <c r="AE50" s="224">
+      <c r="AE50" s="223">
         <v>0</v>
       </c>
-      <c r="AF50" s="225"/>
-      <c r="AG50" s="225"/>
-      <c r="AH50" s="225"/>
-      <c r="AI50" s="228"/>
+      <c r="AF50" s="224"/>
+      <c r="AG50" s="224"/>
+      <c r="AH50" s="224"/>
+      <c r="AI50" s="227"/>
       <c r="AJ50" s="19" t="s">
         <v>140</v>
       </c>
@@ -40908,20 +40907,20 @@
       <c r="AW50" s="20"/>
     </row>
     <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="223"/>
-      <c r="C51" s="223"/>
-      <c r="D51" s="223"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="223"/>
-      <c r="G51" s="223"/>
+      <c r="B51" s="222"/>
+      <c r="C51" s="222"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="222"/>
+      <c r="F51" s="222"/>
+      <c r="G51" s="222"/>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="223"/>
-      <c r="C52" s="223"/>
-      <c r="D52" s="223"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="223"/>
-      <c r="G52" s="223"/>
+      <c r="B52" s="222"/>
+      <c r="C52" s="222"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="222"/>
+      <c r="F52" s="222"/>
+      <c r="G52" s="222"/>
     </row>
     <row r="53" customHeight="1" spans="2:17">
       <c r="B53" s="54" t="s">
@@ -41077,11 +41076,11 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-      <c r="AE56" s="224"/>
-      <c r="AF56" s="225"/>
-      <c r="AG56" s="225"/>
-      <c r="AH56" s="225"/>
-      <c r="AI56" s="228"/>
+      <c r="AE56" s="223"/>
+      <c r="AF56" s="224"/>
+      <c r="AG56" s="224"/>
+      <c r="AH56" s="224"/>
+      <c r="AI56" s="227"/>
       <c r="AJ56" s="19" t="s">
         <v>128</v>
       </c>
@@ -41141,11 +41140,11 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
-      <c r="AE57" s="224"/>
-      <c r="AF57" s="225"/>
-      <c r="AG57" s="225"/>
-      <c r="AH57" s="225"/>
-      <c r="AI57" s="228"/>
+      <c r="AE57" s="223"/>
+      <c r="AF57" s="224"/>
+      <c r="AG57" s="224"/>
+      <c r="AH57" s="224"/>
+      <c r="AI57" s="227"/>
       <c r="AJ57" s="19" t="s">
         <v>162</v>
       </c>
@@ -41205,11 +41204,11 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
-      <c r="AE58" s="224"/>
-      <c r="AF58" s="225"/>
-      <c r="AG58" s="225"/>
-      <c r="AH58" s="225"/>
-      <c r="AI58" s="228"/>
+      <c r="AE58" s="223"/>
+      <c r="AF58" s="224"/>
+      <c r="AG58" s="224"/>
+      <c r="AH58" s="224"/>
+      <c r="AI58" s="227"/>
       <c r="AJ58" s="19" t="s">
         <v>163</v>
       </c>
@@ -41267,11 +41266,11 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
-      <c r="AE59" s="224"/>
-      <c r="AF59" s="225"/>
-      <c r="AG59" s="225"/>
-      <c r="AH59" s="225"/>
-      <c r="AI59" s="228"/>
+      <c r="AE59" s="223"/>
+      <c r="AF59" s="224"/>
+      <c r="AG59" s="224"/>
+      <c r="AH59" s="224"/>
+      <c r="AI59" s="227"/>
       <c r="AJ59" s="19"/>
       <c r="AK59" s="21"/>
       <c r="AL59" s="21"/>
@@ -41327,11 +41326,11 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
-      <c r="AE60" s="224"/>
-      <c r="AF60" s="225"/>
-      <c r="AG60" s="225"/>
-      <c r="AH60" s="225"/>
-      <c r="AI60" s="228"/>
+      <c r="AE60" s="223"/>
+      <c r="AF60" s="224"/>
+      <c r="AG60" s="224"/>
+      <c r="AH60" s="224"/>
+      <c r="AI60" s="227"/>
       <c r="AJ60" s="19"/>
       <c r="AK60" s="21"/>
       <c r="AL60" s="21"/>
@@ -41387,11 +41386,11 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
-      <c r="AE61" s="224"/>
-      <c r="AF61" s="225"/>
-      <c r="AG61" s="225"/>
-      <c r="AH61" s="225"/>
-      <c r="AI61" s="228"/>
+      <c r="AE61" s="223"/>
+      <c r="AF61" s="224"/>
+      <c r="AG61" s="224"/>
+      <c r="AH61" s="224"/>
+      <c r="AI61" s="227"/>
       <c r="AJ61" s="19"/>
       <c r="AK61" s="21"/>
       <c r="AL61" s="21"/>
@@ -41447,13 +41446,13 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
-      <c r="AE62" s="224">
+      <c r="AE62" s="223">
         <v>0</v>
       </c>
-      <c r="AF62" s="225"/>
-      <c r="AG62" s="225"/>
-      <c r="AH62" s="225"/>
-      <c r="AI62" s="228"/>
+      <c r="AF62" s="224"/>
+      <c r="AG62" s="224"/>
+      <c r="AH62" s="224"/>
+      <c r="AI62" s="227"/>
       <c r="AJ62" s="19" t="s">
         <v>140</v>
       </c>
@@ -41623,11 +41622,11 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
-      <c r="AE68" s="224"/>
-      <c r="AF68" s="225"/>
-      <c r="AG68" s="225"/>
-      <c r="AH68" s="225"/>
-      <c r="AI68" s="228"/>
+      <c r="AE68" s="223"/>
+      <c r="AF68" s="224"/>
+      <c r="AG68" s="224"/>
+      <c r="AH68" s="224"/>
+      <c r="AI68" s="227"/>
       <c r="AJ68" s="19" t="s">
         <v>128</v>
       </c>
@@ -41687,11 +41686,11 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
-      <c r="AE69" s="224"/>
-      <c r="AF69" s="225"/>
-      <c r="AG69" s="225"/>
-      <c r="AH69" s="225"/>
-      <c r="AI69" s="228"/>
+      <c r="AE69" s="223"/>
+      <c r="AF69" s="224"/>
+      <c r="AG69" s="224"/>
+      <c r="AH69" s="224"/>
+      <c r="AI69" s="227"/>
       <c r="AJ69" s="19" t="s">
         <v>163</v>
       </c>
@@ -41749,11 +41748,11 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
-      <c r="AE70" s="224"/>
-      <c r="AF70" s="225"/>
-      <c r="AG70" s="225"/>
-      <c r="AH70" s="225"/>
-      <c r="AI70" s="228"/>
+      <c r="AE70" s="223"/>
+      <c r="AF70" s="224"/>
+      <c r="AG70" s="224"/>
+      <c r="AH70" s="224"/>
+      <c r="AI70" s="227"/>
       <c r="AJ70" s="19"/>
       <c r="AK70" s="21"/>
       <c r="AL70" s="21"/>
@@ -41811,11 +41810,11 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
-      <c r="AE71" s="224"/>
-      <c r="AF71" s="225"/>
-      <c r="AG71" s="225"/>
-      <c r="AH71" s="225"/>
-      <c r="AI71" s="228"/>
+      <c r="AE71" s="223"/>
+      <c r="AF71" s="224"/>
+      <c r="AG71" s="224"/>
+      <c r="AH71" s="224"/>
+      <c r="AI71" s="227"/>
       <c r="AJ71" s="19" t="s">
         <v>176</v>
       </c>
@@ -41873,13 +41872,13 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
-      <c r="AE72" s="226" t="s">
+      <c r="AE72" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="AF72" s="227"/>
-      <c r="AG72" s="227"/>
-      <c r="AH72" s="227"/>
-      <c r="AI72" s="229"/>
+      <c r="AF72" s="226"/>
+      <c r="AG72" s="226"/>
+      <c r="AH72" s="226"/>
+      <c r="AI72" s="228"/>
       <c r="AJ72" s="19"/>
       <c r="AK72" s="21"/>
       <c r="AL72" s="21"/>
@@ -41935,13 +41934,13 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
-      <c r="AE73" s="224">
+      <c r="AE73" s="223">
         <v>0</v>
       </c>
-      <c r="AF73" s="225"/>
-      <c r="AG73" s="225"/>
-      <c r="AH73" s="225"/>
-      <c r="AI73" s="228"/>
+      <c r="AF73" s="224"/>
+      <c r="AG73" s="224"/>
+      <c r="AH73" s="224"/>
+      <c r="AI73" s="227"/>
       <c r="AJ73" s="19" t="s">
         <v>140</v>
       </c>
@@ -42866,7 +42865,7 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="247" t="s">
+      <c r="T22" s="246" t="s">
         <v>538</v>
       </c>
       <c r="U22" s="30"/>
@@ -43205,7 +43204,7 @@
       <c r="Q39" s="111"/>
       <c r="R39" s="111"/>
       <c r="S39" s="111"/>
-      <c r="T39" s="247" t="s">
+      <c r="T39" s="246" t="s">
         <v>578</v>
       </c>
       <c r="U39" s="30"/>
@@ -43241,7 +43240,7 @@
       <c r="Q40" s="111"/>
       <c r="R40" s="111"/>
       <c r="S40" s="111"/>
-      <c r="T40" s="247" t="s">
+      <c r="T40" s="246" t="s">
         <v>578</v>
       </c>
       <c r="U40" s="30"/>
@@ -43492,11 +43491,14 @@
   <sheetPr/>
   <dimension ref="A1:BH45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="19" max="19" width="5.15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:60">
       <c r="A1" s="6" t="s">
@@ -43981,7 +43983,7 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="20"/>
-      <c r="T31" s="248" t="s">
+      <c r="T31" s="247" t="s">
         <v>622</v>
       </c>
       <c r="U31" s="82"/>
@@ -44015,7 +44017,7 @@
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="20"/>
-      <c r="T32" s="248" t="s">
+      <c r="T32" s="247" t="s">
         <v>623</v>
       </c>
       <c r="U32" s="82"/>
@@ -51821,26 +51823,26 @@
     </row>
     <row r="7" customHeight="1" spans="2:59">
       <c r="B7" s="16"/>
-      <c r="S7" s="222" t="s">
+      <c r="S7" s="221" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="222"/>
-      <c r="U7" s="222"/>
-      <c r="V7" s="222"/>
-      <c r="W7" s="222"/>
-      <c r="X7" s="222"/>
-      <c r="Y7" s="222"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="221"/>
+      <c r="W7" s="221"/>
+      <c r="X7" s="221"/>
+      <c r="Y7" s="221"/>
       <c r="BG7" s="49"/>
     </row>
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
-      <c r="S8" s="222"/>
-      <c r="T8" s="222"/>
-      <c r="U8" s="222"/>
-      <c r="V8" s="222"/>
-      <c r="W8" s="222"/>
-      <c r="X8" s="222"/>
-      <c r="Y8" s="222"/>
+      <c r="S8" s="221"/>
+      <c r="T8" s="221"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="221"/>
+      <c r="Y8" s="221"/>
       <c r="BG8" s="49"/>
     </row>
     <row r="9" customHeight="1" spans="2:59">
@@ -52763,7 +52765,7 @@
   <dimension ref="A1:BH37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -52994,34 +52996,46 @@
     </row>
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
-      <c r="L6" s="221" t="s">
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="203" t="s">
         <v>224</v>
       </c>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="221"/>
-      <c r="U6" s="221"/>
-      <c r="V6" s="221"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
       <c r="BG6" s="49"/>
     </row>
     <row r="7" customHeight="1" spans="2:59">
       <c r="B7" s="16"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="221"/>
-      <c r="S7" s="221"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="221"/>
-      <c r="V7" s="221"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="209"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
       <c r="BG7" s="49"/>
     </row>
     <row r="8" customHeight="1" spans="2:59">
@@ -54156,7 +54170,7 @@
     <mergeCell ref="AS35:BF35"/>
     <mergeCell ref="P1:V2"/>
     <mergeCell ref="W1:AN2"/>
-    <mergeCell ref="L6:V7"/>
+    <mergeCell ref="S6:AB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -54169,7 +54183,7 @@
   <sheetPr/>
   <dimension ref="A1:BH34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>

--- a/設計書課題　OBM村山.xlsx
+++ b/設計書課題　OBM村山.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18592" windowHeight="8940" tabRatio="930" firstSheet="7" activeTab="10"/>
+    <workbookView windowWidth="18592" windowHeight="8940" tabRatio="930" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="15" r:id="rId1"/>
@@ -1029,13 +1029,13 @@
     <t>～</t>
   </si>
   <si>
+    <t>検索</t>
+  </si>
+  <si>
     <t>15000\</t>
   </si>
   <si>
     <t xml:space="preserve">   XXXX/XX/XX</t>
-  </si>
-  <si>
-    <t>検索</t>
   </si>
   <si>
     <t>frmShoppingHistory</t>
@@ -4201,9 +4201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4212,10 +4209,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4245,6 +4244,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -15411,16 +15411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>18415</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>65405</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>37465</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15429,8 +15429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172710" y="6813550"/>
-          <a:ext cx="1030605" cy="539115"/>
+          <a:off x="5281930" y="4149725"/>
+          <a:ext cx="836930" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15578,26 +15578,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400685</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>170815</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 6"/>
+        <xdr:cNvPr id="2" name="四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556000" y="1837690"/>
-          <a:ext cx="2180590" cy="231140"/>
+          <a:off x="4401185" y="2743200"/>
+          <a:ext cx="2580640" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15745,26 +15745,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形 1"/>
+        <xdr:cNvPr id="6" name="四角形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2957195" y="2286000"/>
-          <a:ext cx="2778125" cy="230505"/>
+          <a:off x="4396740" y="3185795"/>
+          <a:ext cx="439420" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15912,26 +15912,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>213995</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>226060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>31115</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>227965</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 5"/>
+        <xdr:cNvPr id="10" name="四角形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952750" y="2728595"/>
-          <a:ext cx="636905" cy="230505"/>
+          <a:off x="5394325" y="3197860"/>
+          <a:ext cx="709295" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16079,26 +16079,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>226060</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>204470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>227965</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形 9"/>
+        <xdr:cNvPr id="11" name="四角形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4147820" y="2740660"/>
-          <a:ext cx="709295" cy="230505"/>
+          <a:off x="4380230" y="3657600"/>
+          <a:ext cx="845185" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16246,25 +16246,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>204470</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="四角形 10"/>
+        <xdr:cNvPr id="12" name="四角形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2948305" y="3200400"/>
+          <a:off x="5996940" y="3667125"/>
           <a:ext cx="1030605" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16414,25 +16414,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形 11"/>
+        <xdr:cNvPr id="3" name="四角形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4750435" y="3209925"/>
-          <a:ext cx="1030605" cy="230505"/>
+          <a:off x="4399280" y="2303780"/>
+          <a:ext cx="2580640" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16580,26 +16580,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>193040</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="四角形 12"/>
+        <xdr:cNvPr id="4" name="四角形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2936875" y="1837690"/>
-          <a:ext cx="636905" cy="230505"/>
+          <a:off x="4393565" y="1846580"/>
+          <a:ext cx="2581275" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21242,13 +21242,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>188595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -21258,7 +21258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069205" y="2245995"/>
+          <a:off x="5069205" y="3617595"/>
           <a:ext cx="1323340" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21409,13 +21409,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>194945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -21425,7 +21425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5078730" y="2938145"/>
+          <a:off x="5078730" y="4309745"/>
           <a:ext cx="1329690" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26183,8 +26183,8 @@
   <sheetPr/>
   <dimension ref="A1:BH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
@@ -26668,16 +26668,6 @@
       <c r="S10" s="30"/>
       <c r="T10" s="41"/>
       <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="134"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="134"/>
-      <c r="AD10" s="134"/>
-      <c r="AE10" s="134"/>
       <c r="AF10" s="134"/>
       <c r="AG10" s="134"/>
       <c r="AH10" s="134"/>
@@ -26707,18 +26697,6 @@
       <c r="S11" s="30"/>
       <c r="T11" s="41"/>
       <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="134"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="134"/>
       <c r="AF11" s="134"/>
       <c r="AG11" s="134"/>
       <c r="AH11" s="134"/>
@@ -26748,16 +26726,6 @@
       <c r="S12" s="30"/>
       <c r="T12" s="41"/>
       <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
       <c r="AF12" s="134"/>
       <c r="AG12" s="134"/>
       <c r="AH12" s="134"/>
@@ -26796,7 +26764,6 @@
       <c r="AB13" s="134"/>
       <c r="AC13" s="134"/>
       <c r="AD13" s="134"/>
-      <c r="AE13" s="134"/>
       <c r="AF13" s="134"/>
       <c r="AG13" s="134"/>
       <c r="AH13" s="134"/>
@@ -26828,16 +26795,13 @@
       <c r="U14" s="134"/>
       <c r="V14" s="134"/>
       <c r="W14" s="134"/>
-      <c r="X14" s="134" t="s">
-        <v>387</v>
-      </c>
+      <c r="X14" s="134"/>
       <c r="Y14" s="134"/>
       <c r="Z14" s="134"/>
       <c r="AA14" s="134"/>
       <c r="AB14" s="134"/>
       <c r="AC14" s="134"/>
       <c r="AD14" s="134"/>
-      <c r="AE14" s="134"/>
       <c r="AF14" s="134"/>
       <c r="AG14" s="134"/>
       <c r="AH14" s="134"/>
@@ -26876,7 +26840,6 @@
       <c r="AB15" s="134"/>
       <c r="AC15" s="134"/>
       <c r="AD15" s="134"/>
-      <c r="AE15" s="134"/>
       <c r="AF15" s="134"/>
       <c r="AG15" s="170"/>
       <c r="AH15" s="134"/>
@@ -26907,15 +26870,15 @@
       <c r="T16" s="187"/>
       <c r="U16" s="134"/>
       <c r="V16" s="134"/>
-      <c r="W16" s="170"/>
-      <c r="X16" s="170"/>
-      <c r="Y16" s="170"/>
-      <c r="Z16" s="170"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
+      <c r="Z16" s="134"/>
       <c r="AA16" s="134"/>
       <c r="AB16" s="134"/>
       <c r="AC16" s="134"/>
-      <c r="AD16" s="170"/>
-      <c r="AE16" s="170"/>
+      <c r="AD16" s="134"/>
+      <c r="AE16" s="134"/>
       <c r="AF16" s="134"/>
       <c r="AG16" s="170"/>
       <c r="AH16" s="134"/>
@@ -26947,7 +26910,9 @@
       <c r="U17" s="134"/>
       <c r="V17" s="134"/>
       <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
+      <c r="X17" s="134" t="s">
+        <v>386</v>
+      </c>
       <c r="Y17" s="134"/>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134"/>
@@ -27023,16 +26988,16 @@
       <c r="S19" s="184"/>
       <c r="T19" s="183"/>
       <c r="U19" s="169"/>
-      <c r="V19" s="169"/>
-      <c r="W19" s="169"/>
-      <c r="X19" s="169"/>
-      <c r="Y19" s="169"/>
-      <c r="Z19" s="169"/>
-      <c r="AA19" s="169"/>
-      <c r="AB19" s="169"/>
-      <c r="AC19" s="169"/>
-      <c r="AD19" s="169"/>
-      <c r="AE19" s="169"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="134"/>
       <c r="AF19" s="169"/>
       <c r="AG19" s="169"/>
       <c r="AH19" s="169"/>
@@ -27064,13 +27029,15 @@
       <c r="U20" s="134"/>
       <c r="V20" s="134"/>
       <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
+      <c r="X20" s="134" t="s">
+        <v>387</v>
+      </c>
       <c r="Y20" s="134"/>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
       <c r="AE20" s="134"/>
       <c r="AF20" s="134"/>
       <c r="AG20" s="134"/>
@@ -27096,15 +27063,15 @@
       <c r="S21" s="134"/>
       <c r="T21" s="134"/>
       <c r="U21" s="171"/>
-      <c r="V21" s="171"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="172"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="134"/>
       <c r="Y21" s="134"/>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="134"/>
+      <c r="AD21" s="134"/>
       <c r="AE21" s="134"/>
       <c r="AF21" s="134"/>
       <c r="AG21" s="134"/>
@@ -27132,16 +27099,16 @@
       <c r="S22" s="134"/>
       <c r="T22" s="134"/>
       <c r="U22" s="171"/>
-      <c r="V22" s="171"/>
-      <c r="W22" s="172"/>
-      <c r="X22" s="172"/>
-      <c r="Y22" s="134"/>
-      <c r="Z22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="170"/>
+      <c r="X22" s="170"/>
+      <c r="Y22" s="170"/>
+      <c r="Z22" s="170"/>
       <c r="AA22" s="134"/>
       <c r="AB22" s="134"/>
       <c r="AC22" s="134"/>
-      <c r="AD22" s="134"/>
-      <c r="AE22" s="134"/>
+      <c r="AD22" s="170"/>
+      <c r="AE22" s="170"/>
       <c r="AF22" s="134"/>
       <c r="AG22" s="134"/>
       <c r="AH22" s="134"/>
@@ -27964,7 +27931,7 @@
       <c r="BG35" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="77">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="AO1:AR1"/>
@@ -28042,8 +28009,6 @@
     <mergeCell ref="AS34:BF34"/>
     <mergeCell ref="P1:V2"/>
     <mergeCell ref="W1:AN2"/>
-    <mergeCell ref="AB20:AD21"/>
-    <mergeCell ref="W21:X22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -51869,14 +51834,14 @@
     </row>
     <row r="13" customHeight="1" spans="2:59">
       <c r="B13" s="16"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="217"/>
-      <c r="AF13" s="217"/>
-      <c r="AG13" s="217"/>
+      <c r="W13" s="216"/>
+      <c r="X13" s="216"/>
+      <c r="Y13" s="216"/>
+      <c r="Z13" s="216"/>
+      <c r="AD13" s="216"/>
+      <c r="AE13" s="216"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="216"/>
       <c r="BG13" s="49"/>
     </row>
     <row r="14" customHeight="1" spans="2:59">
@@ -52996,13 +52961,13 @@
     </row>
     <row r="6" customHeight="1" spans="2:59">
       <c r="B6" s="16"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="208"/>
+      <c r="R6" s="208"/>
       <c r="S6" s="203" t="s">
         <v>224</v>
       </c>
@@ -53019,13 +52984,13 @@
     </row>
     <row r="7" customHeight="1" spans="2:59">
       <c r="B7" s="16"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="208"/>
       <c r="S7" s="203"/>
       <c r="T7" s="203"/>
       <c r="U7" s="203"/>
@@ -53066,14 +53031,14 @@
     </row>
     <row r="13" customHeight="1" spans="2:59">
       <c r="B13" s="16"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="217"/>
-      <c r="AF13" s="217"/>
-      <c r="AG13" s="217"/>
+      <c r="W13" s="216"/>
+      <c r="X13" s="216"/>
+      <c r="Y13" s="216"/>
+      <c r="Z13" s="216"/>
+      <c r="AD13" s="216"/>
+      <c r="AE13" s="216"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="216"/>
       <c r="BG13" s="49"/>
     </row>
     <row r="14" customHeight="1" spans="2:59">
@@ -53118,7 +53083,7 @@
     </row>
     <row r="21" customHeight="1" spans="2:59">
       <c r="B21" s="16"/>
-      <c r="L21" s="199" t="s">
+      <c r="L21" s="198" t="s">
         <v>227</v>
       </c>
       <c r="Z21" t="s">
@@ -54606,347 +54571,347 @@
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="217" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="W9" s="204"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="204"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="204"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="W9" s="219"/>
+      <c r="X9" s="219"/>
+      <c r="Y9" s="219"/>
+      <c r="Z9" s="219"/>
+      <c r="AA9" s="219"/>
+      <c r="AB9" s="219"/>
       <c r="BG9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="2:59">
       <c r="B10" s="16"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="218"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="204"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="204"/>
-      <c r="AB10" s="204"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="217"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="W10" s="219"/>
+      <c r="X10" s="219"/>
+      <c r="Y10" s="219"/>
+      <c r="Z10" s="219"/>
+      <c r="AA10" s="219"/>
+      <c r="AB10" s="219"/>
       <c r="BG10" s="49"/>
     </row>
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="218"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
+      <c r="L11" s="217"/>
+      <c r="M11" s="217"/>
       <c r="BG11" s="49"/>
     </row>
     <row r="12" customHeight="1" spans="2:59">
       <c r="B12" s="16"/>
-      <c r="C12" s="219" t="s">
+      <c r="C12" s="218" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="217"/>
+      <c r="M12" s="217"/>
       <c r="BG12" s="49"/>
     </row>
     <row r="13" customHeight="1" spans="2:59">
       <c r="B13" s="16"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="217"/>
-      <c r="AF13" s="217"/>
-      <c r="AG13" s="217"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="217"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="W13" s="216"/>
+      <c r="X13" s="216"/>
+      <c r="Y13" s="216"/>
+      <c r="Z13" s="216"/>
+      <c r="AD13" s="216"/>
+      <c r="AE13" s="216"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="216"/>
       <c r="BG13" s="49"/>
     </row>
     <row r="14" customHeight="1" spans="2:59">
       <c r="B14" s="16"/>
-      <c r="C14" s="219" t="s">
+      <c r="C14" s="218" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
       <c r="BG14" s="49"/>
     </row>
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="V15" s="204"/>
-      <c r="W15" s="204"/>
-      <c r="X15" s="204"/>
-      <c r="Y15" s="204"/>
-      <c r="Z15" s="204"/>
-      <c r="AA15" s="204"/>
-      <c r="AB15" s="204"/>
-      <c r="AC15" s="204"/>
-      <c r="AD15" s="204"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="217"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="V15" s="219"/>
+      <c r="W15" s="219"/>
+      <c r="X15" s="219"/>
+      <c r="Y15" s="219"/>
+      <c r="Z15" s="219"/>
+      <c r="AA15" s="219"/>
+      <c r="AB15" s="219"/>
+      <c r="AC15" s="219"/>
+      <c r="AD15" s="219"/>
       <c r="BG15" s="49"/>
     </row>
     <row r="16" customHeight="1" spans="2:59">
       <c r="B16" s="16"/>
-      <c r="C16" s="219" t="s">
+      <c r="C16" s="218" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
       <c r="M16" s="220"/>
       <c r="N16" s="220"/>
       <c r="O16" s="220"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="199"/>
-      <c r="S16" s="199"/>
-      <c r="T16" s="199"/>
-      <c r="V16" s="204"/>
-      <c r="W16" s="204"/>
-      <c r="X16" s="204"/>
-      <c r="Y16" s="204"/>
-      <c r="Z16" s="204"/>
-      <c r="AA16" s="204"/>
-      <c r="AB16" s="204"/>
-      <c r="AC16" s="204"/>
-      <c r="AD16" s="204"/>
+      <c r="P16" s="198"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="198"/>
+      <c r="T16" s="198"/>
+      <c r="V16" s="219"/>
+      <c r="W16" s="219"/>
+      <c r="X16" s="219"/>
+      <c r="Y16" s="219"/>
+      <c r="Z16" s="219"/>
+      <c r="AA16" s="219"/>
+      <c r="AB16" s="219"/>
+      <c r="AC16" s="219"/>
+      <c r="AD16" s="219"/>
       <c r="BG16" s="49"/>
     </row>
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="199"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="199"/>
-      <c r="R17" s="199"/>
-      <c r="S17" s="199"/>
-      <c r="T17" s="199"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="198"/>
+      <c r="Q17" s="198"/>
+      <c r="R17" s="198"/>
+      <c r="S17" s="198"/>
+      <c r="T17" s="198"/>
       <c r="BG17" s="49"/>
     </row>
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="218" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="198"/>
+      <c r="R18" s="198"/>
+      <c r="S18" s="198"/>
+      <c r="T18" s="198"/>
       <c r="BG18" s="49"/>
     </row>
     <row r="19" customHeight="1" spans="2:59">
       <c r="B19" s="16"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="198"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="198"/>
+      <c r="T19" s="198"/>
       <c r="BG19" s="49"/>
     </row>
     <row r="20" customHeight="1" spans="2:59">
       <c r="B20" s="16"/>
-      <c r="C20" s="219" t="s">
+      <c r="C20" s="218" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
       <c r="BG20" s="49"/>
     </row>
     <row r="21" customHeight="1" spans="2:59">
       <c r="B21" s="16"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
       <c r="BG21" s="49"/>
     </row>
     <row r="22" customHeight="1" spans="2:59">
       <c r="B22" s="16"/>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="218" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="219"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="219"/>
-      <c r="T22" s="219"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
       <c r="BG22" s="49"/>
     </row>
     <row r="23" customHeight="1" spans="2:59">
       <c r="B23" s="16"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="219"/>
-      <c r="P23" s="219"/>
-      <c r="Q23" s="219"/>
-      <c r="R23" s="219"/>
-      <c r="S23" s="219"/>
-      <c r="T23" s="219"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="218"/>
+      <c r="R23" s="218"/>
+      <c r="S23" s="218"/>
+      <c r="T23" s="218"/>
       <c r="BG23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="2:59">
       <c r="B24" s="17"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
-      <c r="P24" s="219"/>
-      <c r="Q24" s="219"/>
-      <c r="R24" s="219"/>
-      <c r="S24" s="219"/>
-      <c r="T24" s="219"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+      <c r="T24" s="218"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="18"/>
       <c r="AE24" s="18"/>
@@ -56173,20 +56138,20 @@
     </row>
     <row r="8" customHeight="1" spans="2:59">
       <c r="B8" s="16"/>
-      <c r="J8" s="215" t="s">
+      <c r="J8" s="214" t="s">
         <v>277</v>
       </c>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
       <c r="BG8" s="49"/>
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
       <c r="T9" t="s">
         <v>278</v>
       </c>
@@ -56198,20 +56163,20 @@
     </row>
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
-      <c r="J11" s="215" t="s">
+      <c r="J11" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
       <c r="BG11" s="49"/>
     </row>
     <row r="12" customHeight="1" spans="2:59">
       <c r="B12" s="16"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
       <c r="T12" t="s">
         <v>279</v>
       </c>
@@ -56223,21 +56188,21 @@
     </row>
     <row r="14" customHeight="1" spans="2:59">
       <c r="B14" s="16"/>
-      <c r="J14" s="215" t="s">
+      <c r="J14" s="214" t="s">
         <v>280</v>
       </c>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="215"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
       <c r="BG14" s="49"/>
     </row>
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="215"/>
-      <c r="M15" s="215"/>
-      <c r="T15" s="216">
+      <c r="J15" s="214"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="T15" s="215">
         <v>15000</v>
       </c>
       <c r="BG15" s="49"/>
@@ -56247,32 +56212,32 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="W16" s="217"/>
-      <c r="X16" s="217"/>
-      <c r="Y16" s="217"/>
-      <c r="Z16" s="217"/>
-      <c r="AD16" s="217"/>
-      <c r="AE16" s="217"/>
-      <c r="AF16" s="217"/>
-      <c r="AG16" s="217"/>
+      <c r="W16" s="216"/>
+      <c r="X16" s="216"/>
+      <c r="Y16" s="216"/>
+      <c r="Z16" s="216"/>
+      <c r="AD16" s="216"/>
+      <c r="AE16" s="216"/>
+      <c r="AF16" s="216"/>
+      <c r="AG16" s="216"/>
       <c r="BG16" s="49"/>
     </row>
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
-      <c r="J17" s="215" t="s">
+      <c r="J17" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="K17" s="215"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
       <c r="BG17" s="49"/>
     </row>
     <row r="18" customHeight="1" spans="2:59">
       <c r="B18" s="16"/>
-      <c r="J18" s="215"/>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="215"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
       <c r="T18" t="s">
         <v>281</v>
       </c>
@@ -56287,20 +56252,20 @@
     </row>
     <row r="20" customHeight="1" spans="2:59">
       <c r="B20" s="16"/>
-      <c r="J20" s="215" t="s">
+      <c r="J20" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
       <c r="BG20" s="49"/>
     </row>
     <row r="21" customHeight="1" spans="2:59">
       <c r="B21" s="16"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="215"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
       <c r="T21" t="s">
         <v>282</v>
       </c>
@@ -57488,17 +57453,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BH55"/>
+  <dimension ref="A1:BH57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="10" max="10" width="3.60833333333333" customWidth="1"/>
     <col min="16" max="16" width="5.29166666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.44166666666667"/>
+    <col min="20" max="20" width="2.85833333333333" customWidth="1"/>
+    <col min="26" max="26" width="7.44166666666667"/>
     <col min="58" max="58" width="36.1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -57719,7 +57685,7 @@
       <c r="BC4" s="174"/>
       <c r="BD4" s="164"/>
       <c r="BE4" s="164"/>
-      <c r="BF4" s="213" t="s">
+      <c r="BF4" s="212" t="s">
         <v>245</v>
       </c>
       <c r="BG4" s="176"/>
@@ -57843,7 +57809,7 @@
       <c r="BC6" s="175"/>
       <c r="BD6" s="168"/>
       <c r="BE6" s="168"/>
-      <c r="BF6" s="214" t="s">
+      <c r="BF6" s="213" t="s">
         <v>130</v>
       </c>
       <c r="BG6" s="178"/>
@@ -57916,30 +57882,19 @@
     </row>
     <row r="9" customHeight="1" spans="2:59">
       <c r="B9" s="16"/>
-      <c r="K9" t="s">
-        <v>154</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>277</v>
       </c>
-      <c r="AB9" s="204"/>
-      <c r="AC9" s="204"/>
-      <c r="AD9" s="204"/>
-      <c r="AE9" s="204"/>
       <c r="BG9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="2:59">
       <c r="B10" s="16"/>
-      <c r="AB10" s="204"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="204"/>
-      <c r="AE10" s="204"/>
       <c r="BG10" s="49"/>
     </row>
     <row r="11" customHeight="1" spans="2:59">
       <c r="B11" s="16"/>
-      <c r="K11" t="s">
-        <v>167</v>
+      <c r="Q11" t="s">
+        <v>154</v>
       </c>
       <c r="BG11" s="49"/>
     </row>
@@ -57949,17 +57904,8 @@
     </row>
     <row r="13" customHeight="1" spans="2:59">
       <c r="B13" s="16"/>
-      <c r="K13" t="s">
-        <v>280</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>316</v>
-      </c>
-      <c r="T13">
-        <v>999999</v>
+      <c r="Q13" t="s">
+        <v>167</v>
       </c>
       <c r="BG13" s="49"/>
     </row>
@@ -57969,23 +57915,17 @@
     </row>
     <row r="15" customHeight="1" spans="2:59">
       <c r="B15" s="16"/>
-      <c r="K15" t="s">
-        <v>169</v>
-      </c>
-      <c r="O15" t="s">
-        <v>282</v>
-      </c>
-      <c r="S15" t="s">
-        <v>283</v>
-      </c>
-      <c r="T15" s="196" t="s">
+      <c r="Q15" t="s">
+        <v>280</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>316</v>
       </c>
-      <c r="U15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>283</v>
+      <c r="Z15">
+        <v>999999</v>
       </c>
       <c r="BG15" s="49"/>
     </row>
@@ -57995,6 +57935,24 @@
     </row>
     <row r="17" customHeight="1" spans="2:59">
       <c r="B17" s="16"/>
+      <c r="Q17" t="s">
+        <v>169</v>
+      </c>
+      <c r="U17" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z17" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>283</v>
+      </c>
       <c r="BG17" s="49"/>
     </row>
     <row r="18" customHeight="1" spans="2:59">
@@ -58003,202 +57961,173 @@
     </row>
     <row r="19" customHeight="1" spans="2:59">
       <c r="B19" s="16"/>
+      <c r="Y19" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z19" s="203"/>
+      <c r="AA19" s="203"/>
       <c r="BG19" s="49"/>
     </row>
     <row r="20" customHeight="1" spans="2:59">
       <c r="B20" s="16"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181" t="s">
-        <v>277</v>
-      </c>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="181"/>
-      <c r="T20" s="197" t="s">
-        <v>154</v>
-      </c>
-      <c r="U20" s="181"/>
-      <c r="V20" s="181"/>
-      <c r="W20" s="181"/>
-      <c r="X20" s="181"/>
-      <c r="Y20" s="181"/>
-      <c r="Z20" s="179"/>
-      <c r="AA20" s="205" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB20" s="181"/>
-      <c r="AC20" s="181"/>
-      <c r="AD20" s="179"/>
-      <c r="AE20" s="181"/>
-      <c r="AF20" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG20" s="181"/>
-      <c r="AH20" s="181"/>
-      <c r="AI20" s="179"/>
-      <c r="AJ20" s="181"/>
-      <c r="AK20" s="181" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL20" s="181"/>
-      <c r="AM20" s="181"/>
-      <c r="AN20" s="180"/>
+      <c r="Y20" s="203"/>
+      <c r="Z20" s="203"/>
+      <c r="AA20" s="203"/>
       <c r="BG20" s="49"/>
     </row>
     <row r="21" customHeight="1" spans="2:59">
       <c r="B21" s="16"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="206"/>
-      <c r="AE21" s="186" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="186"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="186"/>
-      <c r="AL21" s="186"/>
-      <c r="AM21" s="186"/>
-      <c r="AN21" s="187"/>
       <c r="BG21" s="49"/>
     </row>
     <row r="22" customHeight="1" spans="2:59">
       <c r="B22" s="16"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="199"/>
-      <c r="U22" s="199"/>
-      <c r="V22" s="199"/>
-      <c r="W22" s="199"/>
-      <c r="X22" s="200"/>
-      <c r="Y22" s="199"/>
-      <c r="Z22" s="198"/>
-      <c r="AA22" s="199"/>
-      <c r="AB22" s="199"/>
-      <c r="AC22" s="199"/>
-      <c r="AD22" s="198"/>
-      <c r="AE22" s="199"/>
-      <c r="AF22" s="199"/>
-      <c r="AG22" s="199"/>
-      <c r="AH22" s="199"/>
-      <c r="AI22" s="198"/>
-      <c r="AJ22" s="199"/>
-      <c r="AK22" s="199"/>
-      <c r="AL22" s="199"/>
-      <c r="AM22" s="199"/>
-      <c r="AN22" s="210"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181" t="s">
+        <v>277</v>
+      </c>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="181"/>
+      <c r="T22" s="196" t="s">
+        <v>154</v>
+      </c>
+      <c r="U22" s="181"/>
+      <c r="V22" s="181"/>
+      <c r="W22" s="181"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="181"/>
+      <c r="Z22" s="179"/>
+      <c r="AA22" s="204" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="181"/>
+      <c r="AD22" s="179"/>
+      <c r="AE22" s="181"/>
+      <c r="AF22" s="196" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG22" s="181"/>
+      <c r="AH22" s="181"/>
+      <c r="AI22" s="179"/>
+      <c r="AJ22" s="181"/>
+      <c r="AK22" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL22" s="181"/>
+      <c r="AM22" s="181"/>
+      <c r="AN22" s="180"/>
       <c r="BG22" s="49"/>
     </row>
     <row r="23" customHeight="1" spans="2:59">
       <c r="B23" s="16"/>
-      <c r="K23" s="28"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="201"/>
-      <c r="S23" s="202"/>
-      <c r="T23" s="202"/>
-      <c r="U23" s="202"/>
-      <c r="V23" s="202"/>
-      <c r="W23" s="202"/>
-      <c r="X23" s="202"/>
-      <c r="Y23" s="202"/>
-      <c r="Z23" s="201"/>
-      <c r="AA23" s="202"/>
-      <c r="AB23" s="202"/>
-      <c r="AC23" s="202"/>
-      <c r="AD23" s="201"/>
-      <c r="AE23" s="202"/>
-      <c r="AF23" s="202"/>
-      <c r="AG23" s="202"/>
-      <c r="AH23" s="202"/>
-      <c r="AI23" s="201"/>
-      <c r="AJ23" s="202"/>
-      <c r="AK23" s="202"/>
-      <c r="AL23" s="202"/>
-      <c r="AM23" s="202"/>
-      <c r="AN23" s="211"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="205"/>
+      <c r="AE23" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="186"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="186"/>
+      <c r="AL23" s="186"/>
+      <c r="AM23" s="186"/>
+      <c r="AN23" s="187"/>
       <c r="BG23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="2:59">
       <c r="B24" s="16"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AN24" s="40"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="198"/>
+      <c r="T24" s="198"/>
+      <c r="U24" s="198"/>
+      <c r="V24" s="198"/>
+      <c r="W24" s="198"/>
+      <c r="X24" s="199"/>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="198"/>
+      <c r="AB24" s="198"/>
+      <c r="AC24" s="198"/>
+      <c r="AD24" s="197"/>
+      <c r="AE24" s="198"/>
+      <c r="AF24" s="198"/>
+      <c r="AG24" s="198"/>
+      <c r="AH24" s="198"/>
+      <c r="AI24" s="197"/>
+      <c r="AJ24" s="198"/>
+      <c r="AK24" s="198"/>
+      <c r="AL24" s="198"/>
+      <c r="AM24" s="198"/>
+      <c r="AN24" s="209"/>
       <c r="BG24" s="49"/>
     </row>
     <row r="25" customHeight="1" spans="2:59">
       <c r="B25" s="16"/>
       <c r="K25" s="28"/>
       <c r="Q25" s="40"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="20"/>
+      <c r="R25" s="200"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
+      <c r="U25" s="201"/>
+      <c r="V25" s="201"/>
+      <c r="W25" s="201"/>
+      <c r="X25" s="201"/>
+      <c r="Y25" s="201"/>
+      <c r="Z25" s="200"/>
+      <c r="AA25" s="201"/>
+      <c r="AB25" s="201"/>
+      <c r="AC25" s="201"/>
+      <c r="AD25" s="200"/>
+      <c r="AE25" s="201"/>
+      <c r="AF25" s="201"/>
+      <c r="AG25" s="201"/>
+      <c r="AH25" s="201"/>
+      <c r="AI25" s="200"/>
+      <c r="AJ25" s="201"/>
+      <c r="AK25" s="201"/>
+      <c r="AL25" s="201"/>
+      <c r="AM25" s="201"/>
+      <c r="AN25" s="210"/>
       <c r="BG25" s="49"/>
     </row>
     <row r="26" customHeight="1" spans="2:59">
@@ -58230,9 +58159,9 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
       <c r="Z27" s="19"/>
-      <c r="AA27" s="207"/>
-      <c r="AB27" s="207"/>
-      <c r="AC27" s="207"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
@@ -58255,366 +58184,261 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="20"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="208"/>
-      <c r="AB28" s="208"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="41"/>
+      <c r="R28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AN28" s="40"/>
       <c r="BG28" s="49"/>
     </row>
     <row r="29" customHeight="1" spans="2:59">
       <c r="B29" s="16"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="41"/>
+      <c r="K29" s="28"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="206"/>
+      <c r="AB29" s="206"/>
+      <c r="AC29" s="206"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="20"/>
       <c r="BG29" s="49"/>
     </row>
     <row r="30" customHeight="1" spans="2:59">
       <c r="B30" s="16"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="171"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="207"/>
+      <c r="AB30" s="207"/>
+      <c r="AC30" s="207"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="41"/>
       <c r="BG30" s="49"/>
     </row>
     <row r="31" customHeight="1" spans="2:59">
       <c r="B31" s="16"/>
-      <c r="X31" s="203" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y31" s="203"/>
-      <c r="Z31" s="203"/>
-      <c r="AA31" s="209"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="134"/>
-      <c r="AM31" s="212"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="41"/>
       <c r="BG31" s="49"/>
     </row>
     <row r="32" customHeight="1" spans="2:59">
       <c r="B32" s="16"/>
-      <c r="X32" s="203"/>
-      <c r="Y32" s="203"/>
-      <c r="Z32" s="203"/>
-      <c r="AA32" s="209"/>
-      <c r="AM32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="171"/>
       <c r="BG32" s="49"/>
     </row>
     <row r="33" customHeight="1" spans="2:59">
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="18"/>
-      <c r="AN33" s="18"/>
-      <c r="AO33" s="18"/>
-      <c r="AP33" s="18"/>
-      <c r="AQ33" s="18"/>
-      <c r="AR33" s="18"/>
-      <c r="AS33" s="18"/>
-      <c r="AT33" s="18"/>
-      <c r="AU33" s="18"/>
-      <c r="AV33" s="18"/>
-      <c r="AW33" s="18"/>
-      <c r="AX33" s="18"/>
-      <c r="AY33" s="18"/>
-      <c r="AZ33" s="18"/>
-      <c r="BA33" s="18"/>
-      <c r="BB33" s="18"/>
-      <c r="BC33" s="18"/>
-      <c r="BD33" s="18"/>
-      <c r="BE33" s="18"/>
-      <c r="BF33" s="18"/>
-      <c r="BG33" s="50"/>
+      <c r="B33" s="16"/>
+      <c r="AA33" s="208"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="134"/>
+      <c r="AM33" s="211"/>
+      <c r="BG33" s="49"/>
     </row>
     <row r="34" customHeight="1" spans="2:59">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="15"/>
-      <c r="AR34" s="15"/>
-      <c r="AS34" s="15"/>
-      <c r="AT34" s="15"/>
-      <c r="AU34" s="15"/>
-      <c r="AV34" s="15"/>
-      <c r="AW34" s="15"/>
-      <c r="AX34" s="15"/>
-      <c r="AY34" s="15"/>
-      <c r="AZ34" s="15"/>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="15"/>
-      <c r="BG34" s="48"/>
+      <c r="B34" s="16"/>
+      <c r="AA34" s="208"/>
+      <c r="AM34" s="134"/>
+      <c r="BG34" s="49"/>
     </row>
     <row r="35" customHeight="1" spans="2:59">
-      <c r="B35" s="16"/>
-      <c r="C35" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="20"/>
-      <c r="BG35" s="49"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="18"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35" s="18"/>
+      <c r="BF35" s="18"/>
+      <c r="BG35" s="50"/>
     </row>
     <row r="36" customHeight="1" spans="2:59">
-      <c r="B36" s="16"/>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21"/>
-      <c r="AN36" s="21"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="21"/>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="21"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="21"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="20"/>
-      <c r="BG36" s="49"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="48"/>
     </row>
     <row r="37" customHeight="1" spans="2:59">
       <c r="B37" s="16"/>
-      <c r="C37" s="3">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="C37" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="19" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
@@ -58622,14 +58446,14 @@
       <c r="O37" s="21"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="19" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
       <c r="U37" s="20"/>
       <c r="V37" s="19" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
@@ -58643,7 +58467,7 @@
       <c r="AF37" s="21"/>
       <c r="AG37" s="20"/>
       <c r="AH37" s="19" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="AI37" s="21"/>
       <c r="AJ37" s="21"/>
@@ -58655,7 +58479,9 @@
       <c r="AP37" s="21"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="20"/>
-      <c r="AS37" s="19"/>
+      <c r="AS37" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="AT37" s="21"/>
       <c r="AU37" s="21"/>
       <c r="AV37" s="21"/>
@@ -58674,11 +58500,11 @@
     <row r="38" customHeight="1" spans="2:59">
       <c r="B38" s="16"/>
       <c r="C38" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -58686,7 +58512,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
@@ -58694,7 +58520,7 @@
       <c r="O38" s="21"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="19" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
@@ -58723,9 +58549,7 @@
       <c r="AP38" s="21"/>
       <c r="AQ38" s="21"/>
       <c r="AR38" s="20"/>
-      <c r="AS38" s="19" t="s">
-        <v>322</v>
-      </c>
+      <c r="AS38" s="19"/>
       <c r="AT38" s="21"/>
       <c r="AU38" s="21"/>
       <c r="AV38" s="21"/>
@@ -58744,11 +58568,11 @@
     <row r="39" customHeight="1" spans="2:59">
       <c r="B39" s="16"/>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -58756,7 +58580,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -58764,13 +58588,15 @@
       <c r="O39" s="21"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="19" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="19"/>
+      <c r="V39" s="19" t="s">
+        <v>286</v>
+      </c>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
       <c r="Y39" s="21"/>
@@ -58782,7 +58608,9 @@
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
       <c r="AG39" s="20"/>
-      <c r="AH39" s="19"/>
+      <c r="AH39" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="AI39" s="21"/>
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
@@ -58812,11 +58640,11 @@
     <row r="40" customHeight="1" spans="2:59">
       <c r="B40" s="16"/>
       <c r="C40" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>154</v>
+        <v>317</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -58824,7 +58652,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="19" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
@@ -58832,15 +58660,13 @@
       <c r="O40" s="21"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="19" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="19" t="s">
-        <v>292</v>
-      </c>
+      <c r="V40" s="19"/>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
@@ -58852,9 +58678,7 @@
       <c r="AE40" s="21"/>
       <c r="AF40" s="21"/>
       <c r="AG40" s="20"/>
-      <c r="AH40" s="19" t="s">
-        <v>293</v>
-      </c>
+      <c r="AH40" s="19"/>
       <c r="AI40" s="21"/>
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
@@ -58866,7 +58690,7 @@
       <c r="AQ40" s="21"/>
       <c r="AR40" s="20"/>
       <c r="AS40" s="19" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="AT40" s="21"/>
       <c r="AU40" s="21"/>
@@ -58886,11 +58710,11 @@
     <row r="41" customHeight="1" spans="2:59">
       <c r="B41" s="16"/>
       <c r="C41" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -58898,7 +58722,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="19" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
@@ -58954,11 +58778,11 @@
     <row r="42" customHeight="1" spans="2:59">
       <c r="B42" s="16"/>
       <c r="C42" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -58966,7 +58790,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="19" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
@@ -58974,14 +58798,14 @@
       <c r="O42" s="21"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="19" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
       <c r="T42" s="21"/>
       <c r="U42" s="20"/>
       <c r="V42" s="19" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
@@ -58995,7 +58819,7 @@
       <c r="AF42" s="21"/>
       <c r="AG42" s="20"/>
       <c r="AH42" s="19" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AI42" s="21"/>
       <c r="AJ42" s="21"/>
@@ -59007,7 +58831,9 @@
       <c r="AP42" s="21"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="20"/>
-      <c r="AS42" s="19"/>
+      <c r="AS42" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="AT42" s="21"/>
       <c r="AU42" s="21"/>
       <c r="AV42" s="21"/>
@@ -59026,11 +58852,11 @@
     <row r="43" customHeight="1" spans="2:59">
       <c r="B43" s="16"/>
       <c r="C43" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -59038,7 +58864,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="19" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
@@ -59094,11 +58920,11 @@
     <row r="44" customHeight="1" spans="2:59">
       <c r="B44" s="16"/>
       <c r="C44" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -59106,7 +58932,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="19" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
@@ -59121,7 +58947,7 @@
       <c r="T44" s="21"/>
       <c r="U44" s="20"/>
       <c r="V44" s="19" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="W44" s="21"/>
       <c r="X44" s="21"/>
@@ -59135,7 +58961,7 @@
       <c r="AF44" s="21"/>
       <c r="AG44" s="20"/>
       <c r="AH44" s="19" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AI44" s="21"/>
       <c r="AJ44" s="21"/>
@@ -59147,9 +58973,7 @@
       <c r="AP44" s="21"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="20"/>
-      <c r="AS44" s="19" t="s">
-        <v>326</v>
-      </c>
+      <c r="AS44" s="19"/>
       <c r="AT44" s="21"/>
       <c r="AU44" s="21"/>
       <c r="AV44" s="21"/>
@@ -59168,11 +58992,11 @@
     <row r="45" customHeight="1" spans="2:59">
       <c r="B45" s="16"/>
       <c r="C45" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -59180,7 +59004,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="19" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
@@ -59188,15 +59012,13 @@
       <c r="O45" s="21"/>
       <c r="P45" s="20"/>
       <c r="Q45" s="19" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
       <c r="T45" s="21"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="19" t="s">
-        <v>329</v>
-      </c>
+      <c r="V45" s="19"/>
       <c r="W45" s="21"/>
       <c r="X45" s="21"/>
       <c r="Y45" s="21"/>
@@ -59208,9 +59030,7 @@
       <c r="AE45" s="21"/>
       <c r="AF45" s="21"/>
       <c r="AG45" s="20"/>
-      <c r="AH45" s="19" t="s">
-        <v>298</v>
-      </c>
+      <c r="AH45" s="19"/>
       <c r="AI45" s="21"/>
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
@@ -59221,9 +59041,7 @@
       <c r="AP45" s="21"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="20"/>
-      <c r="AS45" s="19" t="s">
-        <v>330</v>
-      </c>
+      <c r="AS45" s="19"/>
       <c r="AT45" s="21"/>
       <c r="AU45" s="21"/>
       <c r="AV45" s="21"/>
@@ -59242,11 +59060,11 @@
     <row r="46" customHeight="1" spans="2:59">
       <c r="B46" s="16"/>
       <c r="C46" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -59254,7 +59072,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="19" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
@@ -59262,13 +59080,15 @@
       <c r="O46" s="21"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="19"/>
+      <c r="V46" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
       <c r="Y46" s="21"/>
@@ -59280,7 +59100,9 @@
       <c r="AE46" s="21"/>
       <c r="AF46" s="21"/>
       <c r="AG46" s="20"/>
-      <c r="AH46" s="19"/>
+      <c r="AH46" s="19" t="s">
+        <v>298</v>
+      </c>
       <c r="AI46" s="21"/>
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
@@ -59291,7 +59113,9 @@
       <c r="AP46" s="21"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="20"/>
-      <c r="AS46" s="19"/>
+      <c r="AS46" s="19" t="s">
+        <v>326</v>
+      </c>
       <c r="AT46" s="21"/>
       <c r="AU46" s="21"/>
       <c r="AV46" s="21"/>
@@ -59310,11 +59134,11 @@
     <row r="47" customHeight="1" spans="2:59">
       <c r="B47" s="16"/>
       <c r="C47" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -59322,7 +59146,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
@@ -59337,7 +59161,7 @@
       <c r="T47" s="21"/>
       <c r="U47" s="20"/>
       <c r="V47" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="W47" s="21"/>
       <c r="X47" s="21"/>
@@ -59351,7 +59175,7 @@
       <c r="AF47" s="21"/>
       <c r="AG47" s="20"/>
       <c r="AH47" s="19" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="AI47" s="21"/>
       <c r="AJ47" s="21"/>
@@ -59364,7 +59188,7 @@
       <c r="AQ47" s="21"/>
       <c r="AR47" s="20"/>
       <c r="AS47" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AT47" s="21"/>
       <c r="AU47" s="21"/>
@@ -59384,11 +59208,11 @@
     <row r="48" customHeight="1" spans="2:59">
       <c r="B48" s="16"/>
       <c r="C48" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -59396,7 +59220,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="19" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
@@ -59404,15 +59228,13 @@
       <c r="O48" s="21"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="19" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="V48" s="19"/>
       <c r="W48" s="21"/>
       <c r="X48" s="21"/>
       <c r="Y48" s="21"/>
@@ -59424,9 +59246,7 @@
       <c r="AE48" s="21"/>
       <c r="AF48" s="21"/>
       <c r="AG48" s="20"/>
-      <c r="AH48" s="19" t="s">
-        <v>310</v>
-      </c>
+      <c r="AH48" s="19"/>
       <c r="AI48" s="21"/>
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
@@ -59437,9 +59257,7 @@
       <c r="AP48" s="21"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="20"/>
-      <c r="AS48" s="19" t="s">
-        <v>311</v>
-      </c>
+      <c r="AS48" s="19"/>
       <c r="AT48" s="21"/>
       <c r="AU48" s="21"/>
       <c r="AV48" s="21"/>
@@ -59458,11 +59276,11 @@
     <row r="49" customHeight="1" spans="2:59">
       <c r="B49" s="16"/>
       <c r="C49" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -59470,7 +59288,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="19" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
@@ -59478,13 +59296,15 @@
       <c r="O49" s="21"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="19" t="s">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="19"/>
+      <c r="V49" s="19" t="s">
+        <v>333</v>
+      </c>
       <c r="W49" s="21"/>
       <c r="X49" s="21"/>
       <c r="Y49" s="21"/>
@@ -59496,7 +59316,9 @@
       <c r="AE49" s="21"/>
       <c r="AF49" s="21"/>
       <c r="AG49" s="20"/>
-      <c r="AH49" s="19"/>
+      <c r="AH49" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="AI49" s="21"/>
       <c r="AJ49" s="21"/>
       <c r="AK49" s="21"/>
@@ -59507,7 +59329,9 @@
       <c r="AP49" s="21"/>
       <c r="AQ49" s="21"/>
       <c r="AR49" s="20"/>
-      <c r="AS49" s="19"/>
+      <c r="AS49" s="19" t="s">
+        <v>335</v>
+      </c>
       <c r="AT49" s="21"/>
       <c r="AU49" s="21"/>
       <c r="AV49" s="21"/>
@@ -59526,11 +59350,11 @@
     <row r="50" customHeight="1" spans="2:59">
       <c r="B50" s="16"/>
       <c r="C50" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -59538,7 +59362,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
@@ -59546,13 +59370,15 @@
       <c r="O50" s="21"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="19" t="s">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="19"/>
+      <c r="V50" s="19" t="s">
+        <v>338</v>
+      </c>
       <c r="W50" s="21"/>
       <c r="X50" s="21"/>
       <c r="Y50" s="21"/>
@@ -59564,7 +59390,9 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="20"/>
-      <c r="AH50" s="19"/>
+      <c r="AH50" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="AI50" s="21"/>
       <c r="AJ50" s="21"/>
       <c r="AK50" s="21"/>
@@ -59575,7 +59403,9 @@
       <c r="AP50" s="21"/>
       <c r="AQ50" s="21"/>
       <c r="AR50" s="20"/>
-      <c r="AS50" s="19"/>
+      <c r="AS50" s="19" t="s">
+        <v>311</v>
+      </c>
       <c r="AT50" s="21"/>
       <c r="AU50" s="21"/>
       <c r="AV50" s="21"/>
@@ -59594,11 +59424,11 @@
     <row r="51" customHeight="1" spans="2:59">
       <c r="B51" s="16"/>
       <c r="C51" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -59606,7 +59436,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
@@ -59662,11 +59492,11 @@
     <row r="52" customHeight="1" spans="2:59">
       <c r="B52" s="16"/>
       <c r="C52" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -59674,7 +59504,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
@@ -59700,9 +59530,7 @@
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="20"/>
-      <c r="AH52" s="19" t="s">
-        <v>345</v>
-      </c>
+      <c r="AH52" s="19"/>
       <c r="AI52" s="21"/>
       <c r="AJ52" s="21"/>
       <c r="AK52" s="21"/>
@@ -59732,11 +59560,11 @@
     <row r="53" customHeight="1" spans="2:59">
       <c r="B53" s="16"/>
       <c r="C53" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -59744,7 +59572,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
@@ -59800,11 +59628,11 @@
     <row r="54" customHeight="1" spans="2:59">
       <c r="B54" s="16"/>
       <c r="C54" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -59812,7 +59640,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
@@ -59838,7 +59666,9 @@
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
       <c r="AG54" s="20"/>
-      <c r="AH54" s="19"/>
+      <c r="AH54" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="AI54" s="21"/>
       <c r="AJ54" s="21"/>
       <c r="AK54" s="21"/>
@@ -59866,64 +59696,200 @@
       <c r="BG54" s="49"/>
     </row>
     <row r="55" customHeight="1" spans="2:59">
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
-      <c r="AH55" s="18"/>
-      <c r="AI55" s="18"/>
-      <c r="AJ55" s="18"/>
-      <c r="AK55" s="18"/>
-      <c r="AL55" s="18"/>
-      <c r="AM55" s="18"/>
-      <c r="AN55" s="18"/>
-      <c r="AO55" s="18"/>
-      <c r="AP55" s="18"/>
-      <c r="AQ55" s="18"/>
-      <c r="AR55" s="18"/>
-      <c r="AS55" s="18"/>
-      <c r="AT55" s="18"/>
-      <c r="AU55" s="18"/>
-      <c r="AV55" s="18"/>
-      <c r="AW55" s="18"/>
-      <c r="AX55" s="18"/>
-      <c r="AY55" s="18"/>
-      <c r="AZ55" s="18"/>
-      <c r="BA55" s="18"/>
-      <c r="BB55" s="18"/>
-      <c r="BC55" s="18"/>
-      <c r="BD55" s="18"/>
-      <c r="BE55" s="18"/>
-      <c r="BF55" s="18"/>
-      <c r="BG55" s="50"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="3">
+        <v>18</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="20"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+      <c r="BB55" s="21"/>
+      <c r="BC55" s="21"/>
+      <c r="BD55" s="21"/>
+      <c r="BE55" s="21"/>
+      <c r="BF55" s="20"/>
+      <c r="BG55" s="49"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:59">
+      <c r="B56" s="16"/>
+      <c r="C56" s="3">
+        <v>19</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="20"/>
+      <c r="AS56" s="19"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="21"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="20"/>
+      <c r="BG56" s="49"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:59">
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="18"/>
+      <c r="AS57" s="18"/>
+      <c r="AT57" s="18"/>
+      <c r="AU57" s="18"/>
+      <c r="AV57" s="18"/>
+      <c r="AW57" s="18"/>
+      <c r="AX57" s="18"/>
+      <c r="AY57" s="18"/>
+      <c r="AZ57" s="18"/>
+      <c r="BA57" s="18"/>
+      <c r="BB57" s="18"/>
+      <c r="BC57" s="18"/>
+      <c r="BD57" s="18"/>
+      <c r="BE57" s="18"/>
+      <c r="BF57" s="18"/>
+      <c r="BG57" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="155">
@@ -59939,20 +59905,6 @@
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BC2:BH2"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="V35:AG35"/>
-    <mergeCell ref="AH35:AR35"/>
-    <mergeCell ref="AS35:BF35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="V36:AG36"/>
-    <mergeCell ref="AH36:AR36"/>
-    <mergeCell ref="AS36:BF36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="K37:P37"/>
@@ -60079,9 +60031,23 @@
     <mergeCell ref="V54:AG54"/>
     <mergeCell ref="AH54:AR54"/>
     <mergeCell ref="AS54:BF54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="V55:AG55"/>
+    <mergeCell ref="AH55:AR55"/>
+    <mergeCell ref="AS55:BF55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="V56:AG56"/>
+    <mergeCell ref="AH56:AR56"/>
+    <mergeCell ref="AS56:BF56"/>
     <mergeCell ref="P1:V2"/>
     <mergeCell ref="W1:AN2"/>
-    <mergeCell ref="X31:Z32"/>
+    <mergeCell ref="Y19:AA20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
